--- a/Check.xlsx
+++ b/Check.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
   <si>
     <t xml:space="preserve">Продукт:</t>
   </si>
@@ -231,7 +231,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -308,7 +308,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -333,10 +333,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -645,7 +641,7 @@
   <dimension ref="A1:Y1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1031,7 +1027,9 @@
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="22"/>
-      <c r="B17" s="19"/>
+      <c r="B17" s="19" t="s">
+        <v>25</v>
+      </c>
       <c r="C17" s="23"/>
       <c r="D17" s="17"/>
       <c r="E17" s="16"/>
@@ -2347,4479 +2345,4474 @@
     </row>
     <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="25"/>
-      <c r="B205" s="26"/>
-      <c r="C205" s="27"/>
-      <c r="E205" s="28"/>
+      <c r="C205" s="26"/>
+      <c r="E205" s="27"/>
     </row>
     <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="25"/>
-      <c r="B206" s="26"/>
-      <c r="C206" s="27"/>
-      <c r="E206" s="28"/>
+      <c r="C206" s="26"/>
+      <c r="E206" s="27"/>
     </row>
     <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="25"/>
-      <c r="B207" s="26"/>
-      <c r="C207" s="27"/>
-      <c r="E207" s="28"/>
+      <c r="C207" s="26"/>
+      <c r="E207" s="27"/>
     </row>
     <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="25"/>
-      <c r="B208" s="26"/>
-      <c r="C208" s="27"/>
-      <c r="E208" s="28"/>
+      <c r="C208" s="26"/>
+      <c r="E208" s="27"/>
     </row>
     <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="25"/>
-      <c r="B209" s="26"/>
-      <c r="C209" s="27"/>
-      <c r="E209" s="28"/>
+      <c r="C209" s="26"/>
+      <c r="E209" s="27"/>
     </row>
     <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="25"/>
-      <c r="B210" s="28"/>
-      <c r="C210" s="27"/>
-      <c r="E210" s="28"/>
+      <c r="B210" s="27"/>
+      <c r="C210" s="26"/>
+      <c r="E210" s="27"/>
     </row>
     <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="25"/>
-      <c r="B211" s="28"/>
-      <c r="C211" s="27"/>
-      <c r="E211" s="28"/>
+      <c r="B211" s="27"/>
+      <c r="C211" s="26"/>
+      <c r="E211" s="27"/>
     </row>
     <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="25"/>
-      <c r="B212" s="28"/>
-      <c r="C212" s="27"/>
-      <c r="E212" s="28"/>
+      <c r="B212" s="27"/>
+      <c r="C212" s="26"/>
+      <c r="E212" s="27"/>
     </row>
     <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="25"/>
-      <c r="B213" s="28"/>
-      <c r="C213" s="27"/>
-      <c r="E213" s="28"/>
+      <c r="B213" s="27"/>
+      <c r="C213" s="26"/>
+      <c r="E213" s="27"/>
     </row>
     <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="25"/>
-      <c r="B214" s="28"/>
-      <c r="C214" s="27"/>
-      <c r="E214" s="28"/>
+      <c r="B214" s="27"/>
+      <c r="C214" s="26"/>
+      <c r="E214" s="27"/>
     </row>
     <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="25"/>
-      <c r="B215" s="28"/>
-      <c r="C215" s="27"/>
-      <c r="E215" s="28"/>
+      <c r="B215" s="27"/>
+      <c r="C215" s="26"/>
+      <c r="E215" s="27"/>
     </row>
     <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="25"/>
-      <c r="B216" s="28"/>
-      <c r="C216" s="27"/>
-      <c r="E216" s="28"/>
+      <c r="B216" s="27"/>
+      <c r="C216" s="26"/>
+      <c r="E216" s="27"/>
     </row>
     <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="25"/>
-      <c r="B217" s="28"/>
-      <c r="C217" s="27"/>
-      <c r="E217" s="28"/>
+      <c r="B217" s="27"/>
+      <c r="C217" s="26"/>
+      <c r="E217" s="27"/>
     </row>
     <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="25"/>
-      <c r="B218" s="28"/>
-      <c r="C218" s="27"/>
-      <c r="E218" s="28"/>
+      <c r="B218" s="27"/>
+      <c r="C218" s="26"/>
+      <c r="E218" s="27"/>
     </row>
     <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="25"/>
-      <c r="B219" s="28"/>
-      <c r="C219" s="27"/>
-      <c r="E219" s="28"/>
+      <c r="B219" s="27"/>
+      <c r="C219" s="26"/>
+      <c r="E219" s="27"/>
     </row>
     <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="25"/>
-      <c r="B220" s="28"/>
-      <c r="C220" s="27"/>
-      <c r="E220" s="28"/>
+      <c r="B220" s="27"/>
+      <c r="C220" s="26"/>
+      <c r="E220" s="27"/>
     </row>
     <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="25"/>
-      <c r="B221" s="28"/>
-      <c r="C221" s="27"/>
-      <c r="E221" s="28"/>
+      <c r="B221" s="27"/>
+      <c r="C221" s="26"/>
+      <c r="E221" s="27"/>
     </row>
     <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="25"/>
-      <c r="B222" s="28"/>
-      <c r="C222" s="27"/>
-      <c r="E222" s="28"/>
+      <c r="B222" s="27"/>
+      <c r="C222" s="26"/>
+      <c r="E222" s="27"/>
     </row>
     <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="25"/>
-      <c r="B223" s="28"/>
-      <c r="C223" s="27"/>
-      <c r="E223" s="28"/>
+      <c r="B223" s="27"/>
+      <c r="C223" s="26"/>
+      <c r="E223" s="27"/>
     </row>
     <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="25"/>
-      <c r="B224" s="28"/>
-      <c r="C224" s="27"/>
-      <c r="E224" s="28"/>
+      <c r="B224" s="27"/>
+      <c r="C224" s="26"/>
+      <c r="E224" s="27"/>
     </row>
     <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="25"/>
-      <c r="B225" s="28"/>
-      <c r="C225" s="27"/>
-      <c r="E225" s="28"/>
+      <c r="B225" s="27"/>
+      <c r="C225" s="26"/>
+      <c r="E225" s="27"/>
     </row>
     <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="25"/>
-      <c r="B226" s="28"/>
-      <c r="C226" s="27"/>
-      <c r="E226" s="28"/>
+      <c r="B226" s="27"/>
+      <c r="C226" s="26"/>
+      <c r="E226" s="27"/>
     </row>
     <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="25"/>
-      <c r="B227" s="28"/>
-      <c r="C227" s="27"/>
-      <c r="E227" s="28"/>
+      <c r="B227" s="27"/>
+      <c r="C227" s="26"/>
+      <c r="E227" s="27"/>
     </row>
     <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="25"/>
-      <c r="B228" s="28"/>
-      <c r="C228" s="27"/>
-      <c r="E228" s="28"/>
+      <c r="B228" s="27"/>
+      <c r="C228" s="26"/>
+      <c r="E228" s="27"/>
     </row>
     <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="25"/>
-      <c r="B229" s="28"/>
-      <c r="C229" s="27"/>
-      <c r="E229" s="28"/>
+      <c r="B229" s="27"/>
+      <c r="C229" s="26"/>
+      <c r="E229" s="27"/>
     </row>
     <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="25"/>
-      <c r="B230" s="28"/>
-      <c r="C230" s="27"/>
-      <c r="E230" s="28"/>
+      <c r="B230" s="27"/>
+      <c r="C230" s="26"/>
+      <c r="E230" s="27"/>
     </row>
     <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="25"/>
-      <c r="B231" s="28"/>
-      <c r="C231" s="27"/>
-      <c r="E231" s="28"/>
+      <c r="B231" s="27"/>
+      <c r="C231" s="26"/>
+      <c r="E231" s="27"/>
     </row>
     <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="25"/>
-      <c r="B232" s="28"/>
-      <c r="C232" s="27"/>
-      <c r="E232" s="28"/>
+      <c r="B232" s="27"/>
+      <c r="C232" s="26"/>
+      <c r="E232" s="27"/>
     </row>
     <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="25"/>
-      <c r="B233" s="28"/>
-      <c r="C233" s="27"/>
-      <c r="E233" s="28"/>
+      <c r="B233" s="27"/>
+      <c r="C233" s="26"/>
+      <c r="E233" s="27"/>
     </row>
     <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="25"/>
-      <c r="B234" s="28"/>
-      <c r="C234" s="27"/>
-      <c r="E234" s="28"/>
+      <c r="B234" s="27"/>
+      <c r="C234" s="26"/>
+      <c r="E234" s="27"/>
     </row>
     <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="25"/>
-      <c r="B235" s="28"/>
-      <c r="C235" s="27"/>
-      <c r="E235" s="28"/>
+      <c r="B235" s="27"/>
+      <c r="C235" s="26"/>
+      <c r="E235" s="27"/>
     </row>
     <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="25"/>
-      <c r="B236" s="28"/>
-      <c r="C236" s="27"/>
-      <c r="E236" s="28"/>
+      <c r="B236" s="27"/>
+      <c r="C236" s="26"/>
+      <c r="E236" s="27"/>
     </row>
     <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="25"/>
-      <c r="B237" s="28"/>
-      <c r="C237" s="27"/>
-      <c r="E237" s="28"/>
+      <c r="B237" s="27"/>
+      <c r="C237" s="26"/>
+      <c r="E237" s="27"/>
     </row>
     <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="25"/>
-      <c r="B238" s="28"/>
-      <c r="C238" s="27"/>
-      <c r="E238" s="28"/>
+      <c r="B238" s="27"/>
+      <c r="C238" s="26"/>
+      <c r="E238" s="27"/>
     </row>
     <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="25"/>
-      <c r="B239" s="28"/>
-      <c r="C239" s="27"/>
-      <c r="E239" s="28"/>
+      <c r="B239" s="27"/>
+      <c r="C239" s="26"/>
+      <c r="E239" s="27"/>
     </row>
     <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="25"/>
-      <c r="B240" s="28"/>
-      <c r="C240" s="27"/>
-      <c r="E240" s="28"/>
+      <c r="B240" s="27"/>
+      <c r="C240" s="26"/>
+      <c r="E240" s="27"/>
     </row>
     <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="25"/>
-      <c r="B241" s="28"/>
-      <c r="C241" s="27"/>
-      <c r="E241" s="28"/>
+      <c r="B241" s="27"/>
+      <c r="C241" s="26"/>
+      <c r="E241" s="27"/>
     </row>
     <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="25"/>
-      <c r="B242" s="28"/>
-      <c r="C242" s="27"/>
-      <c r="E242" s="28"/>
+      <c r="B242" s="27"/>
+      <c r="C242" s="26"/>
+      <c r="E242" s="27"/>
     </row>
     <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="25"/>
-      <c r="B243" s="28"/>
-      <c r="C243" s="27"/>
-      <c r="E243" s="28"/>
+      <c r="B243" s="27"/>
+      <c r="C243" s="26"/>
+      <c r="E243" s="27"/>
     </row>
     <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="25"/>
-      <c r="B244" s="28"/>
-      <c r="C244" s="27"/>
-      <c r="E244" s="28"/>
+      <c r="B244" s="27"/>
+      <c r="C244" s="26"/>
+      <c r="E244" s="27"/>
     </row>
     <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="25"/>
-      <c r="B245" s="28"/>
-      <c r="C245" s="27"/>
-      <c r="E245" s="28"/>
+      <c r="B245" s="27"/>
+      <c r="C245" s="26"/>
+      <c r="E245" s="27"/>
     </row>
     <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="25"/>
-      <c r="B246" s="28"/>
-      <c r="C246" s="27"/>
-      <c r="E246" s="28"/>
+      <c r="B246" s="27"/>
+      <c r="C246" s="26"/>
+      <c r="E246" s="27"/>
     </row>
     <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="25"/>
-      <c r="B247" s="28"/>
-      <c r="C247" s="27"/>
-      <c r="E247" s="28"/>
+      <c r="B247" s="27"/>
+      <c r="C247" s="26"/>
+      <c r="E247" s="27"/>
     </row>
     <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="25"/>
-      <c r="B248" s="28"/>
-      <c r="C248" s="27"/>
-      <c r="E248" s="28"/>
+      <c r="B248" s="27"/>
+      <c r="C248" s="26"/>
+      <c r="E248" s="27"/>
     </row>
     <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="25"/>
-      <c r="B249" s="28"/>
-      <c r="C249" s="27"/>
-      <c r="E249" s="28"/>
+      <c r="B249" s="27"/>
+      <c r="C249" s="26"/>
+      <c r="E249" s="27"/>
     </row>
     <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="25"/>
-      <c r="B250" s="28"/>
-      <c r="C250" s="27"/>
-      <c r="E250" s="28"/>
+      <c r="B250" s="27"/>
+      <c r="C250" s="26"/>
+      <c r="E250" s="27"/>
     </row>
     <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="25"/>
-      <c r="B251" s="28"/>
-      <c r="C251" s="27"/>
-      <c r="E251" s="28"/>
+      <c r="B251" s="27"/>
+      <c r="C251" s="26"/>
+      <c r="E251" s="27"/>
     </row>
     <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="25"/>
-      <c r="B252" s="28"/>
-      <c r="C252" s="27"/>
-      <c r="E252" s="28"/>
+      <c r="B252" s="27"/>
+      <c r="C252" s="26"/>
+      <c r="E252" s="27"/>
     </row>
     <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="25"/>
-      <c r="B253" s="28"/>
-      <c r="C253" s="27"/>
-      <c r="E253" s="28"/>
+      <c r="B253" s="27"/>
+      <c r="C253" s="26"/>
+      <c r="E253" s="27"/>
     </row>
     <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="25"/>
-      <c r="B254" s="28"/>
-      <c r="C254" s="27"/>
-      <c r="E254" s="28"/>
+      <c r="B254" s="27"/>
+      <c r="C254" s="26"/>
+      <c r="E254" s="27"/>
     </row>
     <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="25"/>
-      <c r="B255" s="28"/>
-      <c r="C255" s="27"/>
-      <c r="E255" s="28"/>
+      <c r="B255" s="27"/>
+      <c r="C255" s="26"/>
+      <c r="E255" s="27"/>
     </row>
     <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="25"/>
-      <c r="B256" s="28"/>
-      <c r="C256" s="27"/>
-      <c r="E256" s="28"/>
+      <c r="B256" s="27"/>
+      <c r="C256" s="26"/>
+      <c r="E256" s="27"/>
     </row>
     <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="25"/>
-      <c r="B257" s="28"/>
-      <c r="C257" s="27"/>
-      <c r="E257" s="28"/>
+      <c r="B257" s="27"/>
+      <c r="C257" s="26"/>
+      <c r="E257" s="27"/>
     </row>
     <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="25"/>
-      <c r="B258" s="28"/>
-      <c r="C258" s="27"/>
-      <c r="E258" s="28"/>
+      <c r="B258" s="27"/>
+      <c r="C258" s="26"/>
+      <c r="E258" s="27"/>
     </row>
     <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="25"/>
-      <c r="B259" s="28"/>
-      <c r="C259" s="27"/>
-      <c r="E259" s="28"/>
+      <c r="B259" s="27"/>
+      <c r="C259" s="26"/>
+      <c r="E259" s="27"/>
     </row>
     <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="25"/>
-      <c r="B260" s="28"/>
-      <c r="C260" s="27"/>
-      <c r="E260" s="28"/>
+      <c r="B260" s="27"/>
+      <c r="C260" s="26"/>
+      <c r="E260" s="27"/>
     </row>
     <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="25"/>
-      <c r="B261" s="28"/>
-      <c r="C261" s="27"/>
-      <c r="E261" s="28"/>
+      <c r="B261" s="27"/>
+      <c r="C261" s="26"/>
+      <c r="E261" s="27"/>
     </row>
     <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="25"/>
-      <c r="B262" s="28"/>
-      <c r="C262" s="27"/>
-      <c r="E262" s="28"/>
+      <c r="B262" s="27"/>
+      <c r="C262" s="26"/>
+      <c r="E262" s="27"/>
     </row>
     <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="25"/>
-      <c r="B263" s="28"/>
-      <c r="C263" s="27"/>
-      <c r="E263" s="28"/>
+      <c r="B263" s="27"/>
+      <c r="C263" s="26"/>
+      <c r="E263" s="27"/>
     </row>
     <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="25"/>
-      <c r="B264" s="28"/>
-      <c r="C264" s="27"/>
-      <c r="E264" s="28"/>
+      <c r="B264" s="27"/>
+      <c r="C264" s="26"/>
+      <c r="E264" s="27"/>
     </row>
     <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="25"/>
-      <c r="B265" s="28"/>
-      <c r="C265" s="27"/>
-      <c r="E265" s="28"/>
+      <c r="B265" s="27"/>
+      <c r="C265" s="26"/>
+      <c r="E265" s="27"/>
     </row>
     <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="25"/>
-      <c r="B266" s="28"/>
-      <c r="C266" s="27"/>
-      <c r="E266" s="28"/>
+      <c r="B266" s="27"/>
+      <c r="C266" s="26"/>
+      <c r="E266" s="27"/>
     </row>
     <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="25"/>
-      <c r="B267" s="28"/>
-      <c r="C267" s="27"/>
-      <c r="E267" s="28"/>
+      <c r="B267" s="27"/>
+      <c r="C267" s="26"/>
+      <c r="E267" s="27"/>
     </row>
     <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="25"/>
-      <c r="B268" s="28"/>
-      <c r="C268" s="27"/>
-      <c r="E268" s="28"/>
+      <c r="B268" s="27"/>
+      <c r="C268" s="26"/>
+      <c r="E268" s="27"/>
     </row>
     <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="25"/>
-      <c r="B269" s="28"/>
-      <c r="C269" s="27"/>
-      <c r="E269" s="28"/>
+      <c r="B269" s="27"/>
+      <c r="C269" s="26"/>
+      <c r="E269" s="27"/>
     </row>
     <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="25"/>
-      <c r="B270" s="28"/>
-      <c r="C270" s="27"/>
-      <c r="E270" s="28"/>
+      <c r="B270" s="27"/>
+      <c r="C270" s="26"/>
+      <c r="E270" s="27"/>
     </row>
     <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="25"/>
-      <c r="B271" s="28"/>
-      <c r="C271" s="27"/>
-      <c r="E271" s="28"/>
+      <c r="B271" s="27"/>
+      <c r="C271" s="26"/>
+      <c r="E271" s="27"/>
     </row>
     <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="25"/>
-      <c r="B272" s="28"/>
-      <c r="C272" s="27"/>
-      <c r="E272" s="28"/>
+      <c r="B272" s="27"/>
+      <c r="C272" s="26"/>
+      <c r="E272" s="27"/>
     </row>
     <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="25"/>
-      <c r="B273" s="28"/>
-      <c r="C273" s="27"/>
-      <c r="E273" s="28"/>
+      <c r="B273" s="27"/>
+      <c r="C273" s="26"/>
+      <c r="E273" s="27"/>
     </row>
     <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="25"/>
-      <c r="B274" s="28"/>
-      <c r="C274" s="27"/>
-      <c r="E274" s="28"/>
+      <c r="B274" s="27"/>
+      <c r="C274" s="26"/>
+      <c r="E274" s="27"/>
     </row>
     <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="25"/>
-      <c r="B275" s="28"/>
-      <c r="C275" s="27"/>
-      <c r="E275" s="28"/>
+      <c r="B275" s="27"/>
+      <c r="C275" s="26"/>
+      <c r="E275" s="27"/>
     </row>
     <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="25"/>
-      <c r="B276" s="28"/>
-      <c r="C276" s="27"/>
-      <c r="E276" s="28"/>
+      <c r="B276" s="27"/>
+      <c r="C276" s="26"/>
+      <c r="E276" s="27"/>
     </row>
     <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="25"/>
-      <c r="B277" s="28"/>
-      <c r="C277" s="27"/>
-      <c r="E277" s="28"/>
+      <c r="B277" s="27"/>
+      <c r="C277" s="26"/>
+      <c r="E277" s="27"/>
     </row>
     <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="25"/>
-      <c r="B278" s="28"/>
-      <c r="C278" s="27"/>
-      <c r="E278" s="28"/>
+      <c r="B278" s="27"/>
+      <c r="C278" s="26"/>
+      <c r="E278" s="27"/>
     </row>
     <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="25"/>
-      <c r="B279" s="28"/>
-      <c r="C279" s="27"/>
-      <c r="E279" s="28"/>
+      <c r="B279" s="27"/>
+      <c r="C279" s="26"/>
+      <c r="E279" s="27"/>
     </row>
     <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="25"/>
-      <c r="B280" s="28"/>
-      <c r="C280" s="27"/>
-      <c r="E280" s="28"/>
+      <c r="B280" s="27"/>
+      <c r="C280" s="26"/>
+      <c r="E280" s="27"/>
     </row>
     <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="25"/>
-      <c r="B281" s="28"/>
-      <c r="C281" s="27"/>
-      <c r="E281" s="28"/>
+      <c r="B281" s="27"/>
+      <c r="C281" s="26"/>
+      <c r="E281" s="27"/>
     </row>
     <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="25"/>
-      <c r="B282" s="28"/>
-      <c r="C282" s="27"/>
-      <c r="E282" s="28"/>
+      <c r="B282" s="27"/>
+      <c r="C282" s="26"/>
+      <c r="E282" s="27"/>
     </row>
     <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="25"/>
-      <c r="B283" s="28"/>
-      <c r="C283" s="27"/>
-      <c r="E283" s="28"/>
+      <c r="B283" s="27"/>
+      <c r="C283" s="26"/>
+      <c r="E283" s="27"/>
     </row>
     <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="25"/>
-      <c r="B284" s="28"/>
-      <c r="C284" s="27"/>
-      <c r="E284" s="28"/>
+      <c r="B284" s="27"/>
+      <c r="C284" s="26"/>
+      <c r="E284" s="27"/>
     </row>
     <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="25"/>
-      <c r="B285" s="28"/>
-      <c r="C285" s="27"/>
-      <c r="E285" s="28"/>
+      <c r="B285" s="27"/>
+      <c r="C285" s="26"/>
+      <c r="E285" s="27"/>
     </row>
     <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="25"/>
-      <c r="B286" s="28"/>
-      <c r="C286" s="27"/>
-      <c r="E286" s="28"/>
+      <c r="B286" s="27"/>
+      <c r="C286" s="26"/>
+      <c r="E286" s="27"/>
     </row>
     <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="25"/>
-      <c r="B287" s="28"/>
-      <c r="C287" s="27"/>
-      <c r="E287" s="28"/>
+      <c r="B287" s="27"/>
+      <c r="C287" s="26"/>
+      <c r="E287" s="27"/>
     </row>
     <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="25"/>
-      <c r="B288" s="28"/>
-      <c r="C288" s="27"/>
-      <c r="E288" s="28"/>
+      <c r="B288" s="27"/>
+      <c r="C288" s="26"/>
+      <c r="E288" s="27"/>
     </row>
     <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="25"/>
-      <c r="B289" s="28"/>
-      <c r="C289" s="27"/>
-      <c r="E289" s="28"/>
+      <c r="B289" s="27"/>
+      <c r="C289" s="26"/>
+      <c r="E289" s="27"/>
     </row>
     <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="25"/>
-      <c r="B290" s="28"/>
-      <c r="C290" s="27"/>
-      <c r="E290" s="28"/>
+      <c r="B290" s="27"/>
+      <c r="C290" s="26"/>
+      <c r="E290" s="27"/>
     </row>
     <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="25"/>
-      <c r="B291" s="28"/>
-      <c r="C291" s="27"/>
-      <c r="E291" s="28"/>
+      <c r="B291" s="27"/>
+      <c r="C291" s="26"/>
+      <c r="E291" s="27"/>
     </row>
     <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="25"/>
-      <c r="B292" s="28"/>
-      <c r="C292" s="27"/>
-      <c r="E292" s="28"/>
+      <c r="B292" s="27"/>
+      <c r="C292" s="26"/>
+      <c r="E292" s="27"/>
     </row>
     <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="25"/>
-      <c r="B293" s="28"/>
-      <c r="C293" s="27"/>
-      <c r="E293" s="28"/>
+      <c r="B293" s="27"/>
+      <c r="C293" s="26"/>
+      <c r="E293" s="27"/>
     </row>
     <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="25"/>
-      <c r="B294" s="28"/>
-      <c r="C294" s="27"/>
-      <c r="E294" s="28"/>
+      <c r="B294" s="27"/>
+      <c r="C294" s="26"/>
+      <c r="E294" s="27"/>
     </row>
     <row r="295" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="25"/>
-      <c r="B295" s="28"/>
-      <c r="C295" s="27"/>
-      <c r="E295" s="28"/>
+      <c r="B295" s="27"/>
+      <c r="C295" s="26"/>
+      <c r="E295" s="27"/>
     </row>
     <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="25"/>
-      <c r="B296" s="28"/>
-      <c r="C296" s="27"/>
-      <c r="E296" s="28"/>
+      <c r="B296" s="27"/>
+      <c r="C296" s="26"/>
+      <c r="E296" s="27"/>
     </row>
     <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="25"/>
-      <c r="B297" s="28"/>
-      <c r="C297" s="27"/>
-      <c r="E297" s="28"/>
+      <c r="B297" s="27"/>
+      <c r="C297" s="26"/>
+      <c r="E297" s="27"/>
     </row>
     <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="25"/>
-      <c r="B298" s="28"/>
-      <c r="C298" s="27"/>
-      <c r="E298" s="28"/>
+      <c r="B298" s="27"/>
+      <c r="C298" s="26"/>
+      <c r="E298" s="27"/>
     </row>
     <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="25"/>
-      <c r="B299" s="28"/>
-      <c r="C299" s="27"/>
-      <c r="E299" s="28"/>
+      <c r="B299" s="27"/>
+      <c r="C299" s="26"/>
+      <c r="E299" s="27"/>
     </row>
     <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="25"/>
-      <c r="B300" s="28"/>
-      <c r="C300" s="27"/>
-      <c r="E300" s="28"/>
+      <c r="B300" s="27"/>
+      <c r="C300" s="26"/>
+      <c r="E300" s="27"/>
     </row>
     <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="25"/>
-      <c r="B301" s="28"/>
-      <c r="C301" s="27"/>
-      <c r="E301" s="28"/>
+      <c r="B301" s="27"/>
+      <c r="C301" s="26"/>
+      <c r="E301" s="27"/>
     </row>
     <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="25"/>
-      <c r="B302" s="28"/>
-      <c r="C302" s="27"/>
-      <c r="E302" s="28"/>
+      <c r="B302" s="27"/>
+      <c r="C302" s="26"/>
+      <c r="E302" s="27"/>
     </row>
     <row r="303" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="25"/>
-      <c r="B303" s="28"/>
-      <c r="C303" s="27"/>
-      <c r="E303" s="28"/>
+      <c r="B303" s="27"/>
+      <c r="C303" s="26"/>
+      <c r="E303" s="27"/>
     </row>
     <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="25"/>
-      <c r="B304" s="28"/>
-      <c r="C304" s="27"/>
-      <c r="E304" s="28"/>
+      <c r="B304" s="27"/>
+      <c r="C304" s="26"/>
+      <c r="E304" s="27"/>
     </row>
     <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="25"/>
-      <c r="B305" s="28"/>
-      <c r="C305" s="27"/>
-      <c r="E305" s="28"/>
+      <c r="B305" s="27"/>
+      <c r="C305" s="26"/>
+      <c r="E305" s="27"/>
     </row>
     <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="25"/>
-      <c r="B306" s="28"/>
-      <c r="C306" s="27"/>
-      <c r="E306" s="28"/>
+      <c r="B306" s="27"/>
+      <c r="C306" s="26"/>
+      <c r="E306" s="27"/>
     </row>
     <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="25"/>
-      <c r="B307" s="28"/>
-      <c r="C307" s="27"/>
-      <c r="E307" s="28"/>
+      <c r="B307" s="27"/>
+      <c r="C307" s="26"/>
+      <c r="E307" s="27"/>
     </row>
     <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="25"/>
-      <c r="B308" s="28"/>
-      <c r="C308" s="27"/>
-      <c r="E308" s="28"/>
+      <c r="B308" s="27"/>
+      <c r="C308" s="26"/>
+      <c r="E308" s="27"/>
     </row>
     <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="25"/>
-      <c r="B309" s="28"/>
-      <c r="C309" s="27"/>
-      <c r="E309" s="28"/>
+      <c r="B309" s="27"/>
+      <c r="C309" s="26"/>
+      <c r="E309" s="27"/>
     </row>
     <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="25"/>
-      <c r="B310" s="28"/>
-      <c r="C310" s="27"/>
-      <c r="E310" s="28"/>
+      <c r="B310" s="27"/>
+      <c r="C310" s="26"/>
+      <c r="E310" s="27"/>
     </row>
     <row r="311" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="25"/>
-      <c r="B311" s="28"/>
-      <c r="C311" s="27"/>
-      <c r="E311" s="28"/>
+      <c r="B311" s="27"/>
+      <c r="C311" s="26"/>
+      <c r="E311" s="27"/>
     </row>
     <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="25"/>
-      <c r="B312" s="28"/>
-      <c r="C312" s="27"/>
-      <c r="E312" s="28"/>
+      <c r="B312" s="27"/>
+      <c r="C312" s="26"/>
+      <c r="E312" s="27"/>
     </row>
     <row r="313" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="25"/>
-      <c r="B313" s="28"/>
-      <c r="C313" s="27"/>
-      <c r="E313" s="28"/>
+      <c r="B313" s="27"/>
+      <c r="C313" s="26"/>
+      <c r="E313" s="27"/>
     </row>
     <row r="314" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="25"/>
-      <c r="B314" s="28"/>
-      <c r="C314" s="27"/>
-      <c r="E314" s="28"/>
+      <c r="B314" s="27"/>
+      <c r="C314" s="26"/>
+      <c r="E314" s="27"/>
     </row>
     <row r="315" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="25"/>
-      <c r="B315" s="28"/>
-      <c r="C315" s="27"/>
-      <c r="E315" s="28"/>
+      <c r="B315" s="27"/>
+      <c r="C315" s="26"/>
+      <c r="E315" s="27"/>
     </row>
     <row r="316" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="25"/>
-      <c r="B316" s="28"/>
-      <c r="C316" s="27"/>
-      <c r="E316" s="28"/>
+      <c r="B316" s="27"/>
+      <c r="C316" s="26"/>
+      <c r="E316" s="27"/>
     </row>
     <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="25"/>
-      <c r="B317" s="28"/>
-      <c r="C317" s="27"/>
-      <c r="E317" s="28"/>
+      <c r="B317" s="27"/>
+      <c r="C317" s="26"/>
+      <c r="E317" s="27"/>
     </row>
     <row r="318" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="25"/>
-      <c r="B318" s="28"/>
-      <c r="C318" s="27"/>
-      <c r="E318" s="28"/>
+      <c r="B318" s="27"/>
+      <c r="C318" s="26"/>
+      <c r="E318" s="27"/>
     </row>
     <row r="319" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="25"/>
-      <c r="B319" s="28"/>
-      <c r="C319" s="27"/>
-      <c r="E319" s="28"/>
+      <c r="B319" s="27"/>
+      <c r="C319" s="26"/>
+      <c r="E319" s="27"/>
     </row>
     <row r="320" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="25"/>
-      <c r="B320" s="28"/>
-      <c r="C320" s="27"/>
-      <c r="E320" s="28"/>
+      <c r="B320" s="27"/>
+      <c r="C320" s="26"/>
+      <c r="E320" s="27"/>
     </row>
     <row r="321" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="25"/>
-      <c r="B321" s="28"/>
-      <c r="C321" s="27"/>
-      <c r="E321" s="28"/>
+      <c r="B321" s="27"/>
+      <c r="C321" s="26"/>
+      <c r="E321" s="27"/>
     </row>
     <row r="322" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="25"/>
-      <c r="B322" s="28"/>
-      <c r="C322" s="27"/>
-      <c r="E322" s="28"/>
+      <c r="B322" s="27"/>
+      <c r="C322" s="26"/>
+      <c r="E322" s="27"/>
     </row>
     <row r="323" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="25"/>
-      <c r="B323" s="28"/>
-      <c r="C323" s="27"/>
-      <c r="E323" s="28"/>
+      <c r="B323" s="27"/>
+      <c r="C323" s="26"/>
+      <c r="E323" s="27"/>
     </row>
     <row r="324" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="25"/>
-      <c r="B324" s="28"/>
-      <c r="C324" s="27"/>
-      <c r="E324" s="28"/>
+      <c r="B324" s="27"/>
+      <c r="C324" s="26"/>
+      <c r="E324" s="27"/>
     </row>
     <row r="325" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="25"/>
-      <c r="B325" s="28"/>
-      <c r="C325" s="27"/>
-      <c r="E325" s="28"/>
+      <c r="B325" s="27"/>
+      <c r="C325" s="26"/>
+      <c r="E325" s="27"/>
     </row>
     <row r="326" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="25"/>
-      <c r="B326" s="28"/>
-      <c r="C326" s="27"/>
-      <c r="E326" s="28"/>
+      <c r="B326" s="27"/>
+      <c r="C326" s="26"/>
+      <c r="E326" s="27"/>
     </row>
     <row r="327" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="25"/>
-      <c r="B327" s="28"/>
-      <c r="C327" s="27"/>
-      <c r="E327" s="28"/>
+      <c r="B327" s="27"/>
+      <c r="C327" s="26"/>
+      <c r="E327" s="27"/>
     </row>
     <row r="328" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="25"/>
-      <c r="B328" s="28"/>
-      <c r="C328" s="27"/>
-      <c r="E328" s="28"/>
+      <c r="B328" s="27"/>
+      <c r="C328" s="26"/>
+      <c r="E328" s="27"/>
     </row>
     <row r="329" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="25"/>
-      <c r="B329" s="28"/>
-      <c r="C329" s="27"/>
-      <c r="E329" s="28"/>
+      <c r="B329" s="27"/>
+      <c r="C329" s="26"/>
+      <c r="E329" s="27"/>
     </row>
     <row r="330" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="25"/>
-      <c r="B330" s="28"/>
-      <c r="C330" s="27"/>
-      <c r="E330" s="28"/>
+      <c r="B330" s="27"/>
+      <c r="C330" s="26"/>
+      <c r="E330" s="27"/>
     </row>
     <row r="331" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="25"/>
-      <c r="B331" s="28"/>
-      <c r="C331" s="27"/>
-      <c r="E331" s="28"/>
+      <c r="B331" s="27"/>
+      <c r="C331" s="26"/>
+      <c r="E331" s="27"/>
     </row>
     <row r="332" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="25"/>
-      <c r="B332" s="28"/>
-      <c r="C332" s="27"/>
-      <c r="E332" s="28"/>
+      <c r="B332" s="27"/>
+      <c r="C332" s="26"/>
+      <c r="E332" s="27"/>
     </row>
     <row r="333" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="25"/>
-      <c r="B333" s="28"/>
-      <c r="C333" s="27"/>
-      <c r="E333" s="28"/>
+      <c r="B333" s="27"/>
+      <c r="C333" s="26"/>
+      <c r="E333" s="27"/>
     </row>
     <row r="334" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="25"/>
-      <c r="B334" s="28"/>
-      <c r="C334" s="27"/>
-      <c r="E334" s="28"/>
+      <c r="B334" s="27"/>
+      <c r="C334" s="26"/>
+      <c r="E334" s="27"/>
     </row>
     <row r="335" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="25"/>
-      <c r="B335" s="28"/>
-      <c r="C335" s="27"/>
-      <c r="E335" s="28"/>
+      <c r="B335" s="27"/>
+      <c r="C335" s="26"/>
+      <c r="E335" s="27"/>
     </row>
     <row r="336" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="25"/>
-      <c r="B336" s="28"/>
-      <c r="C336" s="27"/>
-      <c r="E336" s="28"/>
+      <c r="B336" s="27"/>
+      <c r="C336" s="26"/>
+      <c r="E336" s="27"/>
     </row>
     <row r="337" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="25"/>
-      <c r="B337" s="28"/>
-      <c r="C337" s="27"/>
-      <c r="E337" s="28"/>
+      <c r="B337" s="27"/>
+      <c r="C337" s="26"/>
+      <c r="E337" s="27"/>
     </row>
     <row r="338" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="25"/>
-      <c r="B338" s="28"/>
-      <c r="C338" s="27"/>
-      <c r="E338" s="28"/>
+      <c r="B338" s="27"/>
+      <c r="C338" s="26"/>
+      <c r="E338" s="27"/>
     </row>
     <row r="339" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="25"/>
-      <c r="B339" s="28"/>
-      <c r="C339" s="27"/>
-      <c r="E339" s="28"/>
+      <c r="B339" s="27"/>
+      <c r="C339" s="26"/>
+      <c r="E339" s="27"/>
     </row>
     <row r="340" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="25"/>
-      <c r="B340" s="28"/>
-      <c r="C340" s="27"/>
-      <c r="E340" s="28"/>
+      <c r="B340" s="27"/>
+      <c r="C340" s="26"/>
+      <c r="E340" s="27"/>
     </row>
     <row r="341" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="25"/>
-      <c r="B341" s="28"/>
-      <c r="C341" s="27"/>
-      <c r="E341" s="28"/>
+      <c r="B341" s="27"/>
+      <c r="C341" s="26"/>
+      <c r="E341" s="27"/>
     </row>
     <row r="342" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="25"/>
-      <c r="B342" s="28"/>
-      <c r="C342" s="27"/>
-      <c r="E342" s="28"/>
+      <c r="B342" s="27"/>
+      <c r="C342" s="26"/>
+      <c r="E342" s="27"/>
     </row>
     <row r="343" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="25"/>
-      <c r="B343" s="28"/>
-      <c r="C343" s="27"/>
-      <c r="E343" s="28"/>
+      <c r="B343" s="27"/>
+      <c r="C343" s="26"/>
+      <c r="E343" s="27"/>
     </row>
     <row r="344" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="25"/>
-      <c r="B344" s="28"/>
-      <c r="C344" s="27"/>
-      <c r="E344" s="28"/>
+      <c r="B344" s="27"/>
+      <c r="C344" s="26"/>
+      <c r="E344" s="27"/>
     </row>
     <row r="345" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="25"/>
-      <c r="B345" s="28"/>
-      <c r="C345" s="27"/>
-      <c r="E345" s="28"/>
+      <c r="B345" s="27"/>
+      <c r="C345" s="26"/>
+      <c r="E345" s="27"/>
     </row>
     <row r="346" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="25"/>
-      <c r="B346" s="28"/>
-      <c r="C346" s="27"/>
-      <c r="E346" s="28"/>
+      <c r="B346" s="27"/>
+      <c r="C346" s="26"/>
+      <c r="E346" s="27"/>
     </row>
     <row r="347" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="25"/>
-      <c r="B347" s="28"/>
-      <c r="C347" s="27"/>
-      <c r="E347" s="28"/>
+      <c r="B347" s="27"/>
+      <c r="C347" s="26"/>
+      <c r="E347" s="27"/>
     </row>
     <row r="348" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="25"/>
-      <c r="B348" s="28"/>
-      <c r="C348" s="27"/>
-      <c r="E348" s="28"/>
+      <c r="B348" s="27"/>
+      <c r="C348" s="26"/>
+      <c r="E348" s="27"/>
     </row>
     <row r="349" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="25"/>
-      <c r="B349" s="28"/>
-      <c r="C349" s="27"/>
-      <c r="E349" s="28"/>
+      <c r="B349" s="27"/>
+      <c r="C349" s="26"/>
+      <c r="E349" s="27"/>
     </row>
     <row r="350" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="25"/>
-      <c r="B350" s="28"/>
-      <c r="C350" s="27"/>
-      <c r="E350" s="28"/>
+      <c r="B350" s="27"/>
+      <c r="C350" s="26"/>
+      <c r="E350" s="27"/>
     </row>
     <row r="351" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="25"/>
-      <c r="B351" s="28"/>
-      <c r="C351" s="27"/>
-      <c r="E351" s="28"/>
+      <c r="B351" s="27"/>
+      <c r="C351" s="26"/>
+      <c r="E351" s="27"/>
     </row>
     <row r="352" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="25"/>
-      <c r="B352" s="28"/>
-      <c r="C352" s="27"/>
-      <c r="E352" s="28"/>
+      <c r="B352" s="27"/>
+      <c r="C352" s="26"/>
+      <c r="E352" s="27"/>
     </row>
     <row r="353" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="25"/>
-      <c r="B353" s="28"/>
-      <c r="C353" s="27"/>
-      <c r="E353" s="28"/>
+      <c r="B353" s="27"/>
+      <c r="C353" s="26"/>
+      <c r="E353" s="27"/>
     </row>
     <row r="354" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="25"/>
-      <c r="B354" s="28"/>
-      <c r="C354" s="27"/>
-      <c r="E354" s="28"/>
+      <c r="B354" s="27"/>
+      <c r="C354" s="26"/>
+      <c r="E354" s="27"/>
     </row>
     <row r="355" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="25"/>
-      <c r="B355" s="28"/>
-      <c r="C355" s="27"/>
-      <c r="E355" s="28"/>
+      <c r="B355" s="27"/>
+      <c r="C355" s="26"/>
+      <c r="E355" s="27"/>
     </row>
     <row r="356" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="25"/>
-      <c r="B356" s="28"/>
-      <c r="C356" s="27"/>
-      <c r="E356" s="28"/>
+      <c r="B356" s="27"/>
+      <c r="C356" s="26"/>
+      <c r="E356" s="27"/>
     </row>
     <row r="357" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="25"/>
-      <c r="B357" s="28"/>
-      <c r="C357" s="27"/>
-      <c r="E357" s="28"/>
+      <c r="B357" s="27"/>
+      <c r="C357" s="26"/>
+      <c r="E357" s="27"/>
     </row>
     <row r="358" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="25"/>
-      <c r="B358" s="28"/>
-      <c r="C358" s="27"/>
-      <c r="E358" s="28"/>
+      <c r="B358" s="27"/>
+      <c r="C358" s="26"/>
+      <c r="E358" s="27"/>
     </row>
     <row r="359" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="25"/>
-      <c r="B359" s="28"/>
-      <c r="C359" s="27"/>
-      <c r="E359" s="28"/>
+      <c r="B359" s="27"/>
+      <c r="C359" s="26"/>
+      <c r="E359" s="27"/>
     </row>
     <row r="360" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="25"/>
-      <c r="B360" s="28"/>
-      <c r="C360" s="27"/>
-      <c r="E360" s="28"/>
+      <c r="B360" s="27"/>
+      <c r="C360" s="26"/>
+      <c r="E360" s="27"/>
     </row>
     <row r="361" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="25"/>
-      <c r="B361" s="28"/>
-      <c r="C361" s="27"/>
-      <c r="E361" s="28"/>
+      <c r="B361" s="27"/>
+      <c r="C361" s="26"/>
+      <c r="E361" s="27"/>
     </row>
     <row r="362" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="25"/>
-      <c r="B362" s="28"/>
-      <c r="C362" s="27"/>
-      <c r="E362" s="28"/>
+      <c r="B362" s="27"/>
+      <c r="C362" s="26"/>
+      <c r="E362" s="27"/>
     </row>
     <row r="363" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="25"/>
-      <c r="B363" s="28"/>
-      <c r="C363" s="27"/>
-      <c r="E363" s="28"/>
+      <c r="B363" s="27"/>
+      <c r="C363" s="26"/>
+      <c r="E363" s="27"/>
     </row>
     <row r="364" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="25"/>
-      <c r="B364" s="28"/>
-      <c r="C364" s="27"/>
-      <c r="E364" s="28"/>
+      <c r="B364" s="27"/>
+      <c r="C364" s="26"/>
+      <c r="E364" s="27"/>
     </row>
     <row r="365" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="25"/>
-      <c r="B365" s="28"/>
-      <c r="C365" s="27"/>
-      <c r="E365" s="28"/>
+      <c r="B365" s="27"/>
+      <c r="C365" s="26"/>
+      <c r="E365" s="27"/>
     </row>
     <row r="366" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="25"/>
-      <c r="B366" s="28"/>
-      <c r="C366" s="27"/>
-      <c r="E366" s="28"/>
+      <c r="B366" s="27"/>
+      <c r="C366" s="26"/>
+      <c r="E366" s="27"/>
     </row>
     <row r="367" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="25"/>
-      <c r="B367" s="28"/>
-      <c r="C367" s="27"/>
-      <c r="E367" s="28"/>
+      <c r="B367" s="27"/>
+      <c r="C367" s="26"/>
+      <c r="E367" s="27"/>
     </row>
     <row r="368" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="25"/>
-      <c r="B368" s="28"/>
-      <c r="C368" s="27"/>
-      <c r="E368" s="28"/>
+      <c r="B368" s="27"/>
+      <c r="C368" s="26"/>
+      <c r="E368" s="27"/>
     </row>
     <row r="369" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="25"/>
-      <c r="B369" s="28"/>
-      <c r="C369" s="27"/>
-      <c r="E369" s="28"/>
+      <c r="B369" s="27"/>
+      <c r="C369" s="26"/>
+      <c r="E369" s="27"/>
     </row>
     <row r="370" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="25"/>
-      <c r="B370" s="28"/>
-      <c r="C370" s="27"/>
-      <c r="E370" s="28"/>
+      <c r="B370" s="27"/>
+      <c r="C370" s="26"/>
+      <c r="E370" s="27"/>
     </row>
     <row r="371" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="25"/>
-      <c r="B371" s="28"/>
-      <c r="C371" s="27"/>
-      <c r="E371" s="28"/>
+      <c r="B371" s="27"/>
+      <c r="C371" s="26"/>
+      <c r="E371" s="27"/>
     </row>
     <row r="372" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="25"/>
-      <c r="B372" s="28"/>
-      <c r="C372" s="27"/>
-      <c r="E372" s="28"/>
+      <c r="B372" s="27"/>
+      <c r="C372" s="26"/>
+      <c r="E372" s="27"/>
     </row>
     <row r="373" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="25"/>
-      <c r="B373" s="28"/>
-      <c r="C373" s="27"/>
-      <c r="E373" s="28"/>
+      <c r="B373" s="27"/>
+      <c r="C373" s="26"/>
+      <c r="E373" s="27"/>
     </row>
     <row r="374" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="25"/>
-      <c r="B374" s="28"/>
-      <c r="C374" s="27"/>
-      <c r="E374" s="28"/>
+      <c r="B374" s="27"/>
+      <c r="C374" s="26"/>
+      <c r="E374" s="27"/>
     </row>
     <row r="375" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="25"/>
-      <c r="B375" s="28"/>
-      <c r="C375" s="27"/>
-      <c r="E375" s="28"/>
+      <c r="B375" s="27"/>
+      <c r="C375" s="26"/>
+      <c r="E375" s="27"/>
     </row>
     <row r="376" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="25"/>
-      <c r="B376" s="28"/>
-      <c r="C376" s="27"/>
-      <c r="E376" s="28"/>
+      <c r="B376" s="27"/>
+      <c r="C376" s="26"/>
+      <c r="E376" s="27"/>
     </row>
     <row r="377" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="25"/>
-      <c r="B377" s="28"/>
-      <c r="C377" s="27"/>
-      <c r="E377" s="28"/>
+      <c r="B377" s="27"/>
+      <c r="C377" s="26"/>
+      <c r="E377" s="27"/>
     </row>
     <row r="378" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="25"/>
-      <c r="B378" s="28"/>
-      <c r="C378" s="27"/>
-      <c r="E378" s="28"/>
+      <c r="B378" s="27"/>
+      <c r="C378" s="26"/>
+      <c r="E378" s="27"/>
     </row>
     <row r="379" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="25"/>
-      <c r="B379" s="28"/>
-      <c r="C379" s="27"/>
-      <c r="E379" s="28"/>
+      <c r="B379" s="27"/>
+      <c r="C379" s="26"/>
+      <c r="E379" s="27"/>
     </row>
     <row r="380" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="25"/>
-      <c r="B380" s="28"/>
-      <c r="C380" s="27"/>
-      <c r="E380" s="28"/>
+      <c r="B380" s="27"/>
+      <c r="C380" s="26"/>
+      <c r="E380" s="27"/>
     </row>
     <row r="381" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="25"/>
-      <c r="B381" s="28"/>
-      <c r="C381" s="27"/>
-      <c r="E381" s="28"/>
+      <c r="B381" s="27"/>
+      <c r="C381" s="26"/>
+      <c r="E381" s="27"/>
     </row>
     <row r="382" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="25"/>
-      <c r="B382" s="28"/>
-      <c r="C382" s="27"/>
-      <c r="E382" s="28"/>
+      <c r="B382" s="27"/>
+      <c r="C382" s="26"/>
+      <c r="E382" s="27"/>
     </row>
     <row r="383" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="25"/>
-      <c r="B383" s="28"/>
-      <c r="C383" s="27"/>
-      <c r="E383" s="28"/>
+      <c r="B383" s="27"/>
+      <c r="C383" s="26"/>
+      <c r="E383" s="27"/>
     </row>
     <row r="384" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="25"/>
-      <c r="B384" s="28"/>
-      <c r="C384" s="27"/>
-      <c r="E384" s="28"/>
+      <c r="B384" s="27"/>
+      <c r="C384" s="26"/>
+      <c r="E384" s="27"/>
     </row>
     <row r="385" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="25"/>
-      <c r="B385" s="28"/>
-      <c r="C385" s="27"/>
-      <c r="E385" s="28"/>
+      <c r="B385" s="27"/>
+      <c r="C385" s="26"/>
+      <c r="E385" s="27"/>
     </row>
     <row r="386" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="25"/>
-      <c r="B386" s="28"/>
-      <c r="C386" s="27"/>
-      <c r="E386" s="28"/>
+      <c r="B386" s="27"/>
+      <c r="C386" s="26"/>
+      <c r="E386" s="27"/>
     </row>
     <row r="387" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="25"/>
-      <c r="B387" s="28"/>
-      <c r="C387" s="27"/>
-      <c r="E387" s="28"/>
+      <c r="B387" s="27"/>
+      <c r="C387" s="26"/>
+      <c r="E387" s="27"/>
     </row>
     <row r="388" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="25"/>
-      <c r="B388" s="28"/>
-      <c r="C388" s="27"/>
-      <c r="E388" s="28"/>
+      <c r="B388" s="27"/>
+      <c r="C388" s="26"/>
+      <c r="E388" s="27"/>
     </row>
     <row r="389" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="25"/>
-      <c r="B389" s="28"/>
-      <c r="C389" s="27"/>
-      <c r="E389" s="28"/>
+      <c r="B389" s="27"/>
+      <c r="C389" s="26"/>
+      <c r="E389" s="27"/>
     </row>
     <row r="390" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="25"/>
-      <c r="B390" s="28"/>
-      <c r="C390" s="27"/>
-      <c r="E390" s="28"/>
+      <c r="B390" s="27"/>
+      <c r="C390" s="26"/>
+      <c r="E390" s="27"/>
     </row>
     <row r="391" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="25"/>
-      <c r="B391" s="28"/>
-      <c r="C391" s="27"/>
-      <c r="E391" s="28"/>
+      <c r="B391" s="27"/>
+      <c r="C391" s="26"/>
+      <c r="E391" s="27"/>
     </row>
     <row r="392" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="25"/>
-      <c r="B392" s="28"/>
-      <c r="C392" s="27"/>
-      <c r="E392" s="28"/>
+      <c r="B392" s="27"/>
+      <c r="C392" s="26"/>
+      <c r="E392" s="27"/>
     </row>
     <row r="393" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="25"/>
-      <c r="B393" s="28"/>
-      <c r="C393" s="27"/>
-      <c r="E393" s="28"/>
+      <c r="B393" s="27"/>
+      <c r="C393" s="26"/>
+      <c r="E393" s="27"/>
     </row>
     <row r="394" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="25"/>
-      <c r="B394" s="28"/>
-      <c r="C394" s="27"/>
-      <c r="E394" s="28"/>
+      <c r="B394" s="27"/>
+      <c r="C394" s="26"/>
+      <c r="E394" s="27"/>
     </row>
     <row r="395" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="25"/>
-      <c r="B395" s="28"/>
-      <c r="C395" s="27"/>
-      <c r="E395" s="28"/>
+      <c r="B395" s="27"/>
+      <c r="C395" s="26"/>
+      <c r="E395" s="27"/>
     </row>
     <row r="396" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="25"/>
-      <c r="B396" s="28"/>
-      <c r="C396" s="27"/>
-      <c r="E396" s="28"/>
+      <c r="B396" s="27"/>
+      <c r="C396" s="26"/>
+      <c r="E396" s="27"/>
     </row>
     <row r="397" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="25"/>
-      <c r="B397" s="28"/>
-      <c r="C397" s="27"/>
-      <c r="E397" s="28"/>
+      <c r="B397" s="27"/>
+      <c r="C397" s="26"/>
+      <c r="E397" s="27"/>
     </row>
     <row r="398" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="25"/>
-      <c r="B398" s="28"/>
-      <c r="C398" s="27"/>
-      <c r="E398" s="28"/>
+      <c r="B398" s="27"/>
+      <c r="C398" s="26"/>
+      <c r="E398" s="27"/>
     </row>
     <row r="399" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="25"/>
-      <c r="B399" s="28"/>
-      <c r="C399" s="27"/>
-      <c r="E399" s="28"/>
+      <c r="B399" s="27"/>
+      <c r="C399" s="26"/>
+      <c r="E399" s="27"/>
     </row>
     <row r="400" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="25"/>
-      <c r="B400" s="28"/>
-      <c r="C400" s="27"/>
-      <c r="E400" s="28"/>
+      <c r="B400" s="27"/>
+      <c r="C400" s="26"/>
+      <c r="E400" s="27"/>
     </row>
     <row r="401" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="25"/>
-      <c r="B401" s="28"/>
-      <c r="C401" s="27"/>
-      <c r="E401" s="28"/>
+      <c r="B401" s="27"/>
+      <c r="C401" s="26"/>
+      <c r="E401" s="27"/>
     </row>
     <row r="402" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="25"/>
-      <c r="B402" s="28"/>
-      <c r="C402" s="27"/>
-      <c r="E402" s="28"/>
+      <c r="B402" s="27"/>
+      <c r="C402" s="26"/>
+      <c r="E402" s="27"/>
     </row>
     <row r="403" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="25"/>
-      <c r="B403" s="28"/>
-      <c r="C403" s="27"/>
-      <c r="E403" s="28"/>
+      <c r="B403" s="27"/>
+      <c r="C403" s="26"/>
+      <c r="E403" s="27"/>
     </row>
     <row r="404" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="25"/>
-      <c r="B404" s="28"/>
-      <c r="C404" s="27"/>
-      <c r="E404" s="28"/>
+      <c r="B404" s="27"/>
+      <c r="C404" s="26"/>
+      <c r="E404" s="27"/>
     </row>
     <row r="405" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="25"/>
-      <c r="B405" s="28"/>
-      <c r="C405" s="27"/>
-      <c r="E405" s="28"/>
+      <c r="B405" s="27"/>
+      <c r="C405" s="26"/>
+      <c r="E405" s="27"/>
     </row>
     <row r="406" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="25"/>
-      <c r="B406" s="28"/>
-      <c r="C406" s="27"/>
-      <c r="E406" s="28"/>
+      <c r="B406" s="27"/>
+      <c r="C406" s="26"/>
+      <c r="E406" s="27"/>
     </row>
     <row r="407" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="25"/>
-      <c r="B407" s="28"/>
-      <c r="C407" s="27"/>
-      <c r="E407" s="28"/>
+      <c r="B407" s="27"/>
+      <c r="C407" s="26"/>
+      <c r="E407" s="27"/>
     </row>
     <row r="408" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="25"/>
-      <c r="B408" s="28"/>
-      <c r="C408" s="27"/>
-      <c r="E408" s="28"/>
+      <c r="B408" s="27"/>
+      <c r="C408" s="26"/>
+      <c r="E408" s="27"/>
     </row>
     <row r="409" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="25"/>
-      <c r="B409" s="28"/>
-      <c r="C409" s="27"/>
-      <c r="E409" s="28"/>
+      <c r="B409" s="27"/>
+      <c r="C409" s="26"/>
+      <c r="E409" s="27"/>
     </row>
     <row r="410" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="25"/>
-      <c r="B410" s="28"/>
-      <c r="C410" s="27"/>
-      <c r="E410" s="28"/>
+      <c r="B410" s="27"/>
+      <c r="C410" s="26"/>
+      <c r="E410" s="27"/>
     </row>
     <row r="411" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="25"/>
-      <c r="B411" s="28"/>
-      <c r="C411" s="27"/>
-      <c r="E411" s="28"/>
+      <c r="B411" s="27"/>
+      <c r="C411" s="26"/>
+      <c r="E411" s="27"/>
     </row>
     <row r="412" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="25"/>
-      <c r="B412" s="28"/>
-      <c r="C412" s="27"/>
-      <c r="E412" s="28"/>
+      <c r="B412" s="27"/>
+      <c r="C412" s="26"/>
+      <c r="E412" s="27"/>
     </row>
     <row r="413" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="25"/>
-      <c r="B413" s="28"/>
-      <c r="C413" s="27"/>
-      <c r="E413" s="28"/>
+      <c r="B413" s="27"/>
+      <c r="C413" s="26"/>
+      <c r="E413" s="27"/>
     </row>
     <row r="414" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="25"/>
-      <c r="B414" s="28"/>
-      <c r="C414" s="27"/>
-      <c r="E414" s="28"/>
+      <c r="B414" s="27"/>
+      <c r="C414" s="26"/>
+      <c r="E414" s="27"/>
     </row>
     <row r="415" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="25"/>
-      <c r="B415" s="28"/>
-      <c r="C415" s="27"/>
-      <c r="E415" s="28"/>
+      <c r="B415" s="27"/>
+      <c r="C415" s="26"/>
+      <c r="E415" s="27"/>
     </row>
     <row r="416" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="25"/>
-      <c r="B416" s="28"/>
-      <c r="C416" s="27"/>
-      <c r="E416" s="28"/>
+      <c r="B416" s="27"/>
+      <c r="C416" s="26"/>
+      <c r="E416" s="27"/>
     </row>
     <row r="417" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="25"/>
-      <c r="B417" s="28"/>
-      <c r="C417" s="27"/>
-      <c r="E417" s="28"/>
+      <c r="B417" s="27"/>
+      <c r="C417" s="26"/>
+      <c r="E417" s="27"/>
     </row>
     <row r="418" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="25"/>
-      <c r="B418" s="28"/>
-      <c r="C418" s="27"/>
-      <c r="E418" s="28"/>
+      <c r="B418" s="27"/>
+      <c r="C418" s="26"/>
+      <c r="E418" s="27"/>
     </row>
     <row r="419" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="25"/>
-      <c r="B419" s="28"/>
-      <c r="C419" s="27"/>
-      <c r="E419" s="28"/>
+      <c r="B419" s="27"/>
+      <c r="C419" s="26"/>
+      <c r="E419" s="27"/>
     </row>
     <row r="420" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="25"/>
-      <c r="B420" s="28"/>
-      <c r="C420" s="27"/>
-      <c r="E420" s="28"/>
+      <c r="B420" s="27"/>
+      <c r="C420" s="26"/>
+      <c r="E420" s="27"/>
     </row>
     <row r="421" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="25"/>
-      <c r="B421" s="28"/>
-      <c r="C421" s="27"/>
-      <c r="E421" s="28"/>
+      <c r="B421" s="27"/>
+      <c r="C421" s="26"/>
+      <c r="E421" s="27"/>
     </row>
     <row r="422" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="25"/>
-      <c r="B422" s="28"/>
-      <c r="C422" s="27"/>
-      <c r="E422" s="28"/>
+      <c r="B422" s="27"/>
+      <c r="C422" s="26"/>
+      <c r="E422" s="27"/>
     </row>
     <row r="423" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="25"/>
-      <c r="B423" s="28"/>
-      <c r="C423" s="27"/>
-      <c r="E423" s="28"/>
+      <c r="B423" s="27"/>
+      <c r="C423" s="26"/>
+      <c r="E423" s="27"/>
     </row>
     <row r="424" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="25"/>
-      <c r="B424" s="28"/>
-      <c r="C424" s="27"/>
-      <c r="E424" s="28"/>
+      <c r="B424" s="27"/>
+      <c r="C424" s="26"/>
+      <c r="E424" s="27"/>
     </row>
     <row r="425" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="25"/>
-      <c r="B425" s="28"/>
-      <c r="C425" s="27"/>
-      <c r="E425" s="28"/>
+      <c r="B425" s="27"/>
+      <c r="C425" s="26"/>
+      <c r="E425" s="27"/>
     </row>
     <row r="426" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="25"/>
-      <c r="B426" s="28"/>
-      <c r="C426" s="27"/>
-      <c r="E426" s="28"/>
+      <c r="B426" s="27"/>
+      <c r="C426" s="26"/>
+      <c r="E426" s="27"/>
     </row>
     <row r="427" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="25"/>
-      <c r="B427" s="28"/>
-      <c r="C427" s="27"/>
-      <c r="E427" s="28"/>
+      <c r="B427" s="27"/>
+      <c r="C427" s="26"/>
+      <c r="E427" s="27"/>
     </row>
     <row r="428" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="25"/>
-      <c r="B428" s="28"/>
-      <c r="C428" s="27"/>
-      <c r="E428" s="28"/>
+      <c r="B428" s="27"/>
+      <c r="C428" s="26"/>
+      <c r="E428" s="27"/>
     </row>
     <row r="429" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="25"/>
-      <c r="B429" s="28"/>
-      <c r="C429" s="27"/>
-      <c r="E429" s="28"/>
+      <c r="B429" s="27"/>
+      <c r="C429" s="26"/>
+      <c r="E429" s="27"/>
     </row>
     <row r="430" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="25"/>
-      <c r="B430" s="28"/>
-      <c r="C430" s="27"/>
-      <c r="E430" s="28"/>
+      <c r="B430" s="27"/>
+      <c r="C430" s="26"/>
+      <c r="E430" s="27"/>
     </row>
     <row r="431" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="25"/>
-      <c r="B431" s="28"/>
-      <c r="C431" s="27"/>
-      <c r="E431" s="28"/>
+      <c r="B431" s="27"/>
+      <c r="C431" s="26"/>
+      <c r="E431" s="27"/>
     </row>
     <row r="432" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="25"/>
-      <c r="B432" s="28"/>
-      <c r="C432" s="27"/>
-      <c r="E432" s="28"/>
+      <c r="B432" s="27"/>
+      <c r="C432" s="26"/>
+      <c r="E432" s="27"/>
     </row>
     <row r="433" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="25"/>
-      <c r="B433" s="28"/>
-      <c r="C433" s="27"/>
-      <c r="E433" s="28"/>
+      <c r="B433" s="27"/>
+      <c r="C433" s="26"/>
+      <c r="E433" s="27"/>
     </row>
     <row r="434" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="25"/>
-      <c r="B434" s="28"/>
-      <c r="C434" s="27"/>
-      <c r="E434" s="28"/>
+      <c r="B434" s="27"/>
+      <c r="C434" s="26"/>
+      <c r="E434" s="27"/>
     </row>
     <row r="435" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="25"/>
-      <c r="B435" s="28"/>
-      <c r="C435" s="27"/>
-      <c r="E435" s="28"/>
+      <c r="B435" s="27"/>
+      <c r="C435" s="26"/>
+      <c r="E435" s="27"/>
     </row>
     <row r="436" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="25"/>
-      <c r="B436" s="28"/>
-      <c r="C436" s="27"/>
-      <c r="E436" s="28"/>
+      <c r="B436" s="27"/>
+      <c r="C436" s="26"/>
+      <c r="E436" s="27"/>
     </row>
     <row r="437" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="25"/>
-      <c r="B437" s="28"/>
-      <c r="C437" s="27"/>
-      <c r="E437" s="28"/>
+      <c r="B437" s="27"/>
+      <c r="C437" s="26"/>
+      <c r="E437" s="27"/>
     </row>
     <row r="438" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="25"/>
-      <c r="B438" s="28"/>
-      <c r="C438" s="27"/>
-      <c r="E438" s="28"/>
+      <c r="B438" s="27"/>
+      <c r="C438" s="26"/>
+      <c r="E438" s="27"/>
     </row>
     <row r="439" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="25"/>
-      <c r="B439" s="28"/>
-      <c r="C439" s="27"/>
-      <c r="E439" s="28"/>
+      <c r="B439" s="27"/>
+      <c r="C439" s="26"/>
+      <c r="E439" s="27"/>
     </row>
     <row r="440" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="25"/>
-      <c r="B440" s="28"/>
-      <c r="C440" s="27"/>
-      <c r="E440" s="28"/>
+      <c r="B440" s="27"/>
+      <c r="C440" s="26"/>
+      <c r="E440" s="27"/>
     </row>
     <row r="441" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="25"/>
-      <c r="B441" s="28"/>
-      <c r="C441" s="27"/>
-      <c r="E441" s="28"/>
+      <c r="B441" s="27"/>
+      <c r="C441" s="26"/>
+      <c r="E441" s="27"/>
     </row>
     <row r="442" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="25"/>
-      <c r="B442" s="28"/>
-      <c r="C442" s="27"/>
-      <c r="E442" s="28"/>
+      <c r="B442" s="27"/>
+      <c r="C442" s="26"/>
+      <c r="E442" s="27"/>
     </row>
     <row r="443" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="25"/>
-      <c r="B443" s="28"/>
-      <c r="C443" s="27"/>
-      <c r="E443" s="28"/>
+      <c r="B443" s="27"/>
+      <c r="C443" s="26"/>
+      <c r="E443" s="27"/>
     </row>
     <row r="444" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="25"/>
-      <c r="B444" s="28"/>
-      <c r="C444" s="27"/>
-      <c r="E444" s="28"/>
+      <c r="B444" s="27"/>
+      <c r="C444" s="26"/>
+      <c r="E444" s="27"/>
     </row>
     <row r="445" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="25"/>
-      <c r="B445" s="28"/>
-      <c r="C445" s="27"/>
-      <c r="E445" s="28"/>
+      <c r="B445" s="27"/>
+      <c r="C445" s="26"/>
+      <c r="E445" s="27"/>
     </row>
     <row r="446" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="25"/>
-      <c r="B446" s="28"/>
-      <c r="C446" s="27"/>
-      <c r="E446" s="28"/>
+      <c r="B446" s="27"/>
+      <c r="C446" s="26"/>
+      <c r="E446" s="27"/>
     </row>
     <row r="447" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="25"/>
-      <c r="B447" s="28"/>
-      <c r="C447" s="27"/>
-      <c r="E447" s="28"/>
+      <c r="B447" s="27"/>
+      <c r="C447" s="26"/>
+      <c r="E447" s="27"/>
     </row>
     <row r="448" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="25"/>
-      <c r="B448" s="28"/>
-      <c r="C448" s="27"/>
-      <c r="E448" s="28"/>
+      <c r="B448" s="27"/>
+      <c r="C448" s="26"/>
+      <c r="E448" s="27"/>
     </row>
     <row r="449" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="25"/>
-      <c r="B449" s="28"/>
-      <c r="C449" s="27"/>
-      <c r="E449" s="28"/>
+      <c r="B449" s="27"/>
+      <c r="C449" s="26"/>
+      <c r="E449" s="27"/>
     </row>
     <row r="450" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="25"/>
-      <c r="B450" s="28"/>
-      <c r="C450" s="27"/>
-      <c r="E450" s="28"/>
+      <c r="B450" s="27"/>
+      <c r="C450" s="26"/>
+      <c r="E450" s="27"/>
     </row>
     <row r="451" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="25"/>
-      <c r="B451" s="28"/>
-      <c r="C451" s="27"/>
-      <c r="E451" s="28"/>
+      <c r="B451" s="27"/>
+      <c r="C451" s="26"/>
+      <c r="E451" s="27"/>
     </row>
     <row r="452" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="25"/>
-      <c r="B452" s="28"/>
-      <c r="C452" s="27"/>
-      <c r="E452" s="28"/>
+      <c r="B452" s="27"/>
+      <c r="C452" s="26"/>
+      <c r="E452" s="27"/>
     </row>
     <row r="453" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="25"/>
-      <c r="B453" s="28"/>
-      <c r="C453" s="27"/>
-      <c r="E453" s="28"/>
+      <c r="B453" s="27"/>
+      <c r="C453" s="26"/>
+      <c r="E453" s="27"/>
     </row>
     <row r="454" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="25"/>
-      <c r="B454" s="28"/>
-      <c r="C454" s="27"/>
-      <c r="E454" s="28"/>
+      <c r="B454" s="27"/>
+      <c r="C454" s="26"/>
+      <c r="E454" s="27"/>
     </row>
     <row r="455" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="25"/>
-      <c r="B455" s="28"/>
-      <c r="C455" s="27"/>
-      <c r="E455" s="28"/>
+      <c r="B455" s="27"/>
+      <c r="C455" s="26"/>
+      <c r="E455" s="27"/>
     </row>
     <row r="456" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="25"/>
-      <c r="B456" s="28"/>
-      <c r="C456" s="27"/>
-      <c r="E456" s="28"/>
+      <c r="B456" s="27"/>
+      <c r="C456" s="26"/>
+      <c r="E456" s="27"/>
     </row>
     <row r="457" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="25"/>
-      <c r="B457" s="28"/>
-      <c r="C457" s="27"/>
-      <c r="E457" s="28"/>
+      <c r="B457" s="27"/>
+      <c r="C457" s="26"/>
+      <c r="E457" s="27"/>
     </row>
     <row r="458" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="25"/>
-      <c r="B458" s="28"/>
-      <c r="C458" s="27"/>
-      <c r="E458" s="28"/>
+      <c r="B458" s="27"/>
+      <c r="C458" s="26"/>
+      <c r="E458" s="27"/>
     </row>
     <row r="459" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="25"/>
-      <c r="B459" s="28"/>
-      <c r="C459" s="27"/>
-      <c r="E459" s="28"/>
+      <c r="B459" s="27"/>
+      <c r="C459" s="26"/>
+      <c r="E459" s="27"/>
     </row>
     <row r="460" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="25"/>
-      <c r="B460" s="28"/>
-      <c r="C460" s="27"/>
-      <c r="E460" s="28"/>
+      <c r="B460" s="27"/>
+      <c r="C460" s="26"/>
+      <c r="E460" s="27"/>
     </row>
     <row r="461" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="25"/>
-      <c r="B461" s="28"/>
-      <c r="C461" s="27"/>
-      <c r="E461" s="28"/>
+      <c r="B461" s="27"/>
+      <c r="C461" s="26"/>
+      <c r="E461" s="27"/>
     </row>
     <row r="462" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="25"/>
-      <c r="B462" s="28"/>
-      <c r="C462" s="27"/>
-      <c r="E462" s="28"/>
+      <c r="B462" s="27"/>
+      <c r="C462" s="26"/>
+      <c r="E462" s="27"/>
     </row>
     <row r="463" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="25"/>
-      <c r="B463" s="28"/>
-      <c r="C463" s="27"/>
-      <c r="E463" s="28"/>
+      <c r="B463" s="27"/>
+      <c r="C463" s="26"/>
+      <c r="E463" s="27"/>
     </row>
     <row r="464" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="25"/>
-      <c r="B464" s="28"/>
-      <c r="C464" s="27"/>
-      <c r="E464" s="28"/>
+      <c r="B464" s="27"/>
+      <c r="C464" s="26"/>
+      <c r="E464" s="27"/>
     </row>
     <row r="465" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="25"/>
-      <c r="B465" s="28"/>
-      <c r="C465" s="27"/>
-      <c r="E465" s="28"/>
+      <c r="B465" s="27"/>
+      <c r="C465" s="26"/>
+      <c r="E465" s="27"/>
     </row>
     <row r="466" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="25"/>
-      <c r="B466" s="28"/>
-      <c r="C466" s="27"/>
-      <c r="E466" s="28"/>
+      <c r="B466" s="27"/>
+      <c r="C466" s="26"/>
+      <c r="E466" s="27"/>
     </row>
     <row r="467" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="25"/>
-      <c r="B467" s="28"/>
-      <c r="C467" s="27"/>
-      <c r="E467" s="28"/>
+      <c r="B467" s="27"/>
+      <c r="C467" s="26"/>
+      <c r="E467" s="27"/>
     </row>
     <row r="468" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="25"/>
-      <c r="B468" s="28"/>
-      <c r="C468" s="27"/>
-      <c r="E468" s="28"/>
+      <c r="B468" s="27"/>
+      <c r="C468" s="26"/>
+      <c r="E468" s="27"/>
     </row>
     <row r="469" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="25"/>
-      <c r="B469" s="28"/>
-      <c r="C469" s="27"/>
-      <c r="E469" s="28"/>
+      <c r="B469" s="27"/>
+      <c r="C469" s="26"/>
+      <c r="E469" s="27"/>
     </row>
     <row r="470" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="25"/>
-      <c r="B470" s="28"/>
-      <c r="C470" s="27"/>
-      <c r="E470" s="28"/>
+      <c r="B470" s="27"/>
+      <c r="C470" s="26"/>
+      <c r="E470" s="27"/>
     </row>
     <row r="471" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="25"/>
-      <c r="B471" s="28"/>
-      <c r="C471" s="27"/>
-      <c r="E471" s="28"/>
+      <c r="B471" s="27"/>
+      <c r="C471" s="26"/>
+      <c r="E471" s="27"/>
     </row>
     <row r="472" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="25"/>
-      <c r="B472" s="28"/>
-      <c r="C472" s="27"/>
-      <c r="E472" s="28"/>
+      <c r="B472" s="27"/>
+      <c r="C472" s="26"/>
+      <c r="E472" s="27"/>
     </row>
     <row r="473" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="25"/>
-      <c r="B473" s="28"/>
-      <c r="C473" s="27"/>
-      <c r="E473" s="28"/>
+      <c r="B473" s="27"/>
+      <c r="C473" s="26"/>
+      <c r="E473" s="27"/>
     </row>
     <row r="474" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="25"/>
-      <c r="B474" s="28"/>
-      <c r="C474" s="27"/>
-      <c r="E474" s="28"/>
+      <c r="B474" s="27"/>
+      <c r="C474" s="26"/>
+      <c r="E474" s="27"/>
     </row>
     <row r="475" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="25"/>
-      <c r="B475" s="28"/>
-      <c r="C475" s="27"/>
-      <c r="E475" s="28"/>
+      <c r="B475" s="27"/>
+      <c r="C475" s="26"/>
+      <c r="E475" s="27"/>
     </row>
     <row r="476" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="25"/>
-      <c r="B476" s="28"/>
-      <c r="C476" s="27"/>
-      <c r="E476" s="28"/>
+      <c r="B476" s="27"/>
+      <c r="C476" s="26"/>
+      <c r="E476" s="27"/>
     </row>
     <row r="477" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="25"/>
-      <c r="B477" s="28"/>
-      <c r="C477" s="27"/>
-      <c r="E477" s="28"/>
+      <c r="B477" s="27"/>
+      <c r="C477" s="26"/>
+      <c r="E477" s="27"/>
     </row>
     <row r="478" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="25"/>
-      <c r="B478" s="28"/>
-      <c r="C478" s="27"/>
-      <c r="E478" s="28"/>
+      <c r="B478" s="27"/>
+      <c r="C478" s="26"/>
+      <c r="E478" s="27"/>
     </row>
     <row r="479" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="25"/>
-      <c r="B479" s="28"/>
-      <c r="C479" s="27"/>
-      <c r="E479" s="28"/>
+      <c r="B479" s="27"/>
+      <c r="C479" s="26"/>
+      <c r="E479" s="27"/>
     </row>
     <row r="480" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="25"/>
-      <c r="B480" s="28"/>
-      <c r="C480" s="27"/>
-      <c r="E480" s="28"/>
+      <c r="B480" s="27"/>
+      <c r="C480" s="26"/>
+      <c r="E480" s="27"/>
     </row>
     <row r="481" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="25"/>
-      <c r="B481" s="28"/>
-      <c r="C481" s="27"/>
-      <c r="E481" s="28"/>
+      <c r="B481" s="27"/>
+      <c r="C481" s="26"/>
+      <c r="E481" s="27"/>
     </row>
     <row r="482" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="25"/>
-      <c r="B482" s="28"/>
-      <c r="C482" s="27"/>
-      <c r="E482" s="28"/>
+      <c r="B482" s="27"/>
+      <c r="C482" s="26"/>
+      <c r="E482" s="27"/>
     </row>
     <row r="483" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="25"/>
-      <c r="B483" s="28"/>
-      <c r="C483" s="27"/>
-      <c r="E483" s="28"/>
+      <c r="B483" s="27"/>
+      <c r="C483" s="26"/>
+      <c r="E483" s="27"/>
     </row>
     <row r="484" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="25"/>
-      <c r="B484" s="28"/>
-      <c r="C484" s="27"/>
-      <c r="E484" s="28"/>
+      <c r="B484" s="27"/>
+      <c r="C484" s="26"/>
+      <c r="E484" s="27"/>
     </row>
     <row r="485" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="25"/>
-      <c r="B485" s="28"/>
-      <c r="C485" s="27"/>
-      <c r="E485" s="28"/>
+      <c r="B485" s="27"/>
+      <c r="C485" s="26"/>
+      <c r="E485" s="27"/>
     </row>
     <row r="486" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="25"/>
-      <c r="B486" s="28"/>
-      <c r="C486" s="27"/>
-      <c r="E486" s="28"/>
+      <c r="B486" s="27"/>
+      <c r="C486" s="26"/>
+      <c r="E486" s="27"/>
     </row>
     <row r="487" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="25"/>
-      <c r="B487" s="28"/>
-      <c r="C487" s="27"/>
-      <c r="E487" s="28"/>
+      <c r="B487" s="27"/>
+      <c r="C487" s="26"/>
+      <c r="E487" s="27"/>
     </row>
     <row r="488" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="25"/>
-      <c r="B488" s="28"/>
-      <c r="C488" s="27"/>
-      <c r="E488" s="28"/>
+      <c r="B488" s="27"/>
+      <c r="C488" s="26"/>
+      <c r="E488" s="27"/>
     </row>
     <row r="489" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="25"/>
-      <c r="B489" s="28"/>
-      <c r="C489" s="27"/>
-      <c r="E489" s="28"/>
+      <c r="B489" s="27"/>
+      <c r="C489" s="26"/>
+      <c r="E489" s="27"/>
     </row>
     <row r="490" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="25"/>
-      <c r="B490" s="28"/>
-      <c r="C490" s="27"/>
-      <c r="E490" s="28"/>
+      <c r="B490" s="27"/>
+      <c r="C490" s="26"/>
+      <c r="E490" s="27"/>
     </row>
     <row r="491" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="25"/>
-      <c r="B491" s="28"/>
-      <c r="C491" s="27"/>
-      <c r="E491" s="28"/>
+      <c r="B491" s="27"/>
+      <c r="C491" s="26"/>
+      <c r="E491" s="27"/>
     </row>
     <row r="492" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="25"/>
-      <c r="B492" s="28"/>
-      <c r="C492" s="27"/>
-      <c r="E492" s="28"/>
+      <c r="B492" s="27"/>
+      <c r="C492" s="26"/>
+      <c r="E492" s="27"/>
     </row>
     <row r="493" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="25"/>
-      <c r="B493" s="28"/>
-      <c r="C493" s="27"/>
-      <c r="E493" s="28"/>
+      <c r="B493" s="27"/>
+      <c r="C493" s="26"/>
+      <c r="E493" s="27"/>
     </row>
     <row r="494" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="25"/>
-      <c r="B494" s="28"/>
-      <c r="C494" s="27"/>
-      <c r="E494" s="28"/>
+      <c r="B494" s="27"/>
+      <c r="C494" s="26"/>
+      <c r="E494" s="27"/>
     </row>
     <row r="495" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="25"/>
-      <c r="B495" s="28"/>
-      <c r="C495" s="27"/>
-      <c r="E495" s="28"/>
+      <c r="B495" s="27"/>
+      <c r="C495" s="26"/>
+      <c r="E495" s="27"/>
     </row>
     <row r="496" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="25"/>
-      <c r="B496" s="28"/>
-      <c r="C496" s="27"/>
-      <c r="E496" s="28"/>
+      <c r="B496" s="27"/>
+      <c r="C496" s="26"/>
+      <c r="E496" s="27"/>
     </row>
     <row r="497" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="25"/>
-      <c r="B497" s="28"/>
-      <c r="C497" s="27"/>
-      <c r="E497" s="28"/>
+      <c r="B497" s="27"/>
+      <c r="C497" s="26"/>
+      <c r="E497" s="27"/>
     </row>
     <row r="498" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="25"/>
-      <c r="B498" s="28"/>
-      <c r="C498" s="27"/>
-      <c r="E498" s="28"/>
+      <c r="B498" s="27"/>
+      <c r="C498" s="26"/>
+      <c r="E498" s="27"/>
     </row>
     <row r="499" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="25"/>
-      <c r="B499" s="28"/>
-      <c r="C499" s="27"/>
-      <c r="E499" s="28"/>
+      <c r="B499" s="27"/>
+      <c r="C499" s="26"/>
+      <c r="E499" s="27"/>
     </row>
     <row r="500" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="25"/>
-      <c r="B500" s="28"/>
-      <c r="C500" s="27"/>
-      <c r="E500" s="28"/>
+      <c r="B500" s="27"/>
+      <c r="C500" s="26"/>
+      <c r="E500" s="27"/>
     </row>
     <row r="501" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="25"/>
-      <c r="B501" s="28"/>
-      <c r="C501" s="27"/>
-      <c r="E501" s="28"/>
+      <c r="B501" s="27"/>
+      <c r="C501" s="26"/>
+      <c r="E501" s="27"/>
     </row>
     <row r="502" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="25"/>
-      <c r="B502" s="28"/>
-      <c r="C502" s="27"/>
-      <c r="E502" s="28"/>
+      <c r="B502" s="27"/>
+      <c r="C502" s="26"/>
+      <c r="E502" s="27"/>
     </row>
     <row r="503" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="25"/>
-      <c r="B503" s="28"/>
-      <c r="C503" s="27"/>
-      <c r="E503" s="28"/>
+      <c r="B503" s="27"/>
+      <c r="C503" s="26"/>
+      <c r="E503" s="27"/>
     </row>
     <row r="504" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="25"/>
-      <c r="B504" s="28"/>
-      <c r="C504" s="27"/>
-      <c r="E504" s="28"/>
+      <c r="B504" s="27"/>
+      <c r="C504" s="26"/>
+      <c r="E504" s="27"/>
     </row>
     <row r="505" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="25"/>
-      <c r="B505" s="28"/>
-      <c r="C505" s="27"/>
-      <c r="E505" s="28"/>
+      <c r="B505" s="27"/>
+      <c r="C505" s="26"/>
+      <c r="E505" s="27"/>
     </row>
     <row r="506" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="25"/>
-      <c r="B506" s="28"/>
-      <c r="C506" s="27"/>
-      <c r="E506" s="28"/>
+      <c r="B506" s="27"/>
+      <c r="C506" s="26"/>
+      <c r="E506" s="27"/>
     </row>
     <row r="507" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="25"/>
-      <c r="B507" s="28"/>
-      <c r="C507" s="27"/>
-      <c r="E507" s="28"/>
+      <c r="B507" s="27"/>
+      <c r="C507" s="26"/>
+      <c r="E507" s="27"/>
     </row>
     <row r="508" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="25"/>
-      <c r="B508" s="28"/>
-      <c r="C508" s="27"/>
-      <c r="E508" s="28"/>
+      <c r="B508" s="27"/>
+      <c r="C508" s="26"/>
+      <c r="E508" s="27"/>
     </row>
     <row r="509" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="25"/>
-      <c r="B509" s="28"/>
-      <c r="C509" s="27"/>
-      <c r="E509" s="28"/>
+      <c r="B509" s="27"/>
+      <c r="C509" s="26"/>
+      <c r="E509" s="27"/>
     </row>
     <row r="510" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A510" s="25"/>
-      <c r="B510" s="28"/>
-      <c r="C510" s="27"/>
-      <c r="E510" s="28"/>
+      <c r="B510" s="27"/>
+      <c r="C510" s="26"/>
+      <c r="E510" s="27"/>
     </row>
     <row r="511" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="25"/>
-      <c r="B511" s="28"/>
-      <c r="C511" s="27"/>
-      <c r="E511" s="28"/>
+      <c r="B511" s="27"/>
+      <c r="C511" s="26"/>
+      <c r="E511" s="27"/>
     </row>
     <row r="512" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A512" s="25"/>
-      <c r="B512" s="28"/>
-      <c r="C512" s="27"/>
-      <c r="E512" s="28"/>
+      <c r="B512" s="27"/>
+      <c r="C512" s="26"/>
+      <c r="E512" s="27"/>
     </row>
     <row r="513" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A513" s="25"/>
-      <c r="B513" s="28"/>
-      <c r="C513" s="27"/>
-      <c r="E513" s="28"/>
+      <c r="B513" s="27"/>
+      <c r="C513" s="26"/>
+      <c r="E513" s="27"/>
     </row>
     <row r="514" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="25"/>
-      <c r="B514" s="28"/>
-      <c r="C514" s="27"/>
-      <c r="E514" s="28"/>
+      <c r="B514" s="27"/>
+      <c r="C514" s="26"/>
+      <c r="E514" s="27"/>
     </row>
     <row r="515" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="25"/>
-      <c r="B515" s="28"/>
-      <c r="C515" s="27"/>
-      <c r="E515" s="28"/>
+      <c r="B515" s="27"/>
+      <c r="C515" s="26"/>
+      <c r="E515" s="27"/>
     </row>
     <row r="516" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="25"/>
-      <c r="B516" s="28"/>
-      <c r="C516" s="27"/>
-      <c r="E516" s="28"/>
+      <c r="B516" s="27"/>
+      <c r="C516" s="26"/>
+      <c r="E516" s="27"/>
     </row>
     <row r="517" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A517" s="25"/>
-      <c r="B517" s="28"/>
-      <c r="C517" s="27"/>
-      <c r="E517" s="28"/>
+      <c r="B517" s="27"/>
+      <c r="C517" s="26"/>
+      <c r="E517" s="27"/>
     </row>
     <row r="518" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A518" s="25"/>
-      <c r="B518" s="28"/>
-      <c r="C518" s="27"/>
-      <c r="E518" s="28"/>
+      <c r="B518" s="27"/>
+      <c r="C518" s="26"/>
+      <c r="E518" s="27"/>
     </row>
     <row r="519" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="25"/>
-      <c r="B519" s="28"/>
-      <c r="C519" s="27"/>
-      <c r="E519" s="28"/>
+      <c r="B519" s="27"/>
+      <c r="C519" s="26"/>
+      <c r="E519" s="27"/>
     </row>
     <row r="520" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A520" s="25"/>
-      <c r="B520" s="28"/>
-      <c r="C520" s="27"/>
-      <c r="E520" s="28"/>
+      <c r="B520" s="27"/>
+      <c r="C520" s="26"/>
+      <c r="E520" s="27"/>
     </row>
     <row r="521" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A521" s="25"/>
-      <c r="B521" s="28"/>
-      <c r="C521" s="27"/>
-      <c r="E521" s="28"/>
+      <c r="B521" s="27"/>
+      <c r="C521" s="26"/>
+      <c r="E521" s="27"/>
     </row>
     <row r="522" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="25"/>
-      <c r="B522" s="28"/>
-      <c r="C522" s="27"/>
-      <c r="E522" s="28"/>
+      <c r="B522" s="27"/>
+      <c r="C522" s="26"/>
+      <c r="E522" s="27"/>
     </row>
     <row r="523" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A523" s="25"/>
-      <c r="B523" s="28"/>
-      <c r="C523" s="27"/>
-      <c r="E523" s="28"/>
+      <c r="B523" s="27"/>
+      <c r="C523" s="26"/>
+      <c r="E523" s="27"/>
     </row>
     <row r="524" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="25"/>
-      <c r="B524" s="28"/>
-      <c r="C524" s="27"/>
-      <c r="E524" s="28"/>
+      <c r="B524" s="27"/>
+      <c r="C524" s="26"/>
+      <c r="E524" s="27"/>
     </row>
     <row r="525" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="25"/>
-      <c r="B525" s="28"/>
-      <c r="C525" s="27"/>
-      <c r="E525" s="28"/>
+      <c r="B525" s="27"/>
+      <c r="C525" s="26"/>
+      <c r="E525" s="27"/>
     </row>
     <row r="526" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A526" s="25"/>
-      <c r="B526" s="28"/>
-      <c r="C526" s="27"/>
-      <c r="E526" s="28"/>
+      <c r="B526" s="27"/>
+      <c r="C526" s="26"/>
+      <c r="E526" s="27"/>
     </row>
     <row r="527" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A527" s="25"/>
-      <c r="B527" s="28"/>
-      <c r="C527" s="27"/>
-      <c r="E527" s="28"/>
+      <c r="B527" s="27"/>
+      <c r="C527" s="26"/>
+      <c r="E527" s="27"/>
     </row>
     <row r="528" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A528" s="25"/>
-      <c r="B528" s="28"/>
-      <c r="C528" s="27"/>
-      <c r="E528" s="28"/>
+      <c r="B528" s="27"/>
+      <c r="C528" s="26"/>
+      <c r="E528" s="27"/>
     </row>
     <row r="529" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A529" s="25"/>
-      <c r="B529" s="28"/>
-      <c r="C529" s="27"/>
-      <c r="E529" s="28"/>
+      <c r="B529" s="27"/>
+      <c r="C529" s="26"/>
+      <c r="E529" s="27"/>
     </row>
     <row r="530" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A530" s="25"/>
-      <c r="B530" s="28"/>
-      <c r="C530" s="27"/>
-      <c r="E530" s="28"/>
+      <c r="B530" s="27"/>
+      <c r="C530" s="26"/>
+      <c r="E530" s="27"/>
     </row>
     <row r="531" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A531" s="25"/>
-      <c r="B531" s="28"/>
-      <c r="C531" s="27"/>
-      <c r="E531" s="28"/>
+      <c r="B531" s="27"/>
+      <c r="C531" s="26"/>
+      <c r="E531" s="27"/>
     </row>
     <row r="532" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="25"/>
-      <c r="B532" s="28"/>
-      <c r="C532" s="27"/>
-      <c r="E532" s="28"/>
+      <c r="B532" s="27"/>
+      <c r="C532" s="26"/>
+      <c r="E532" s="27"/>
     </row>
     <row r="533" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="25"/>
-      <c r="B533" s="28"/>
-      <c r="C533" s="27"/>
-      <c r="E533" s="28"/>
+      <c r="B533" s="27"/>
+      <c r="C533" s="26"/>
+      <c r="E533" s="27"/>
     </row>
     <row r="534" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A534" s="25"/>
-      <c r="B534" s="28"/>
-      <c r="C534" s="27"/>
-      <c r="E534" s="28"/>
+      <c r="B534" s="27"/>
+      <c r="C534" s="26"/>
+      <c r="E534" s="27"/>
     </row>
     <row r="535" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="25"/>
-      <c r="B535" s="28"/>
-      <c r="C535" s="27"/>
-      <c r="E535" s="28"/>
+      <c r="B535" s="27"/>
+      <c r="C535" s="26"/>
+      <c r="E535" s="27"/>
     </row>
     <row r="536" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="25"/>
-      <c r="B536" s="28"/>
-      <c r="C536" s="27"/>
-      <c r="E536" s="28"/>
+      <c r="B536" s="27"/>
+      <c r="C536" s="26"/>
+      <c r="E536" s="27"/>
     </row>
     <row r="537" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="25"/>
-      <c r="B537" s="28"/>
-      <c r="C537" s="27"/>
-      <c r="E537" s="28"/>
+      <c r="B537" s="27"/>
+      <c r="C537" s="26"/>
+      <c r="E537" s="27"/>
     </row>
     <row r="538" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="25"/>
-      <c r="B538" s="28"/>
-      <c r="C538" s="27"/>
-      <c r="E538" s="28"/>
+      <c r="B538" s="27"/>
+      <c r="C538" s="26"/>
+      <c r="E538" s="27"/>
     </row>
     <row r="539" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="25"/>
-      <c r="B539" s="28"/>
-      <c r="C539" s="27"/>
-      <c r="E539" s="28"/>
+      <c r="B539" s="27"/>
+      <c r="C539" s="26"/>
+      <c r="E539" s="27"/>
     </row>
     <row r="540" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A540" s="25"/>
-      <c r="B540" s="28"/>
-      <c r="C540" s="27"/>
-      <c r="E540" s="28"/>
+      <c r="B540" s="27"/>
+      <c r="C540" s="26"/>
+      <c r="E540" s="27"/>
     </row>
     <row r="541" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="25"/>
-      <c r="B541" s="28"/>
-      <c r="C541" s="27"/>
-      <c r="E541" s="28"/>
+      <c r="B541" s="27"/>
+      <c r="C541" s="26"/>
+      <c r="E541" s="27"/>
     </row>
     <row r="542" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A542" s="25"/>
-      <c r="B542" s="28"/>
-      <c r="C542" s="27"/>
-      <c r="E542" s="28"/>
+      <c r="B542" s="27"/>
+      <c r="C542" s="26"/>
+      <c r="E542" s="27"/>
     </row>
     <row r="543" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="25"/>
-      <c r="B543" s="28"/>
-      <c r="C543" s="27"/>
-      <c r="E543" s="28"/>
+      <c r="B543" s="27"/>
+      <c r="C543" s="26"/>
+      <c r="E543" s="27"/>
     </row>
     <row r="544" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A544" s="25"/>
-      <c r="B544" s="28"/>
-      <c r="C544" s="27"/>
-      <c r="E544" s="28"/>
+      <c r="B544" s="27"/>
+      <c r="C544" s="26"/>
+      <c r="E544" s="27"/>
     </row>
     <row r="545" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A545" s="25"/>
-      <c r="B545" s="28"/>
-      <c r="C545" s="27"/>
-      <c r="E545" s="28"/>
+      <c r="B545" s="27"/>
+      <c r="C545" s="26"/>
+      <c r="E545" s="27"/>
     </row>
     <row r="546" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="25"/>
-      <c r="B546" s="28"/>
-      <c r="C546" s="27"/>
-      <c r="E546" s="28"/>
+      <c r="B546" s="27"/>
+      <c r="C546" s="26"/>
+      <c r="E546" s="27"/>
     </row>
     <row r="547" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="25"/>
-      <c r="B547" s="28"/>
-      <c r="C547" s="27"/>
-      <c r="E547" s="28"/>
+      <c r="B547" s="27"/>
+      <c r="C547" s="26"/>
+      <c r="E547" s="27"/>
     </row>
     <row r="548" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="25"/>
-      <c r="B548" s="28"/>
-      <c r="C548" s="27"/>
-      <c r="E548" s="28"/>
+      <c r="B548" s="27"/>
+      <c r="C548" s="26"/>
+      <c r="E548" s="27"/>
     </row>
     <row r="549" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A549" s="25"/>
-      <c r="B549" s="28"/>
-      <c r="C549" s="27"/>
-      <c r="E549" s="28"/>
+      <c r="B549" s="27"/>
+      <c r="C549" s="26"/>
+      <c r="E549" s="27"/>
     </row>
     <row r="550" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="25"/>
-      <c r="B550" s="28"/>
-      <c r="C550" s="27"/>
-      <c r="E550" s="28"/>
+      <c r="B550" s="27"/>
+      <c r="C550" s="26"/>
+      <c r="E550" s="27"/>
     </row>
     <row r="551" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="25"/>
-      <c r="B551" s="28"/>
-      <c r="C551" s="27"/>
-      <c r="E551" s="28"/>
+      <c r="B551" s="27"/>
+      <c r="C551" s="26"/>
+      <c r="E551" s="27"/>
     </row>
     <row r="552" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="25"/>
-      <c r="B552" s="28"/>
-      <c r="C552" s="27"/>
-      <c r="E552" s="28"/>
+      <c r="B552" s="27"/>
+      <c r="C552" s="26"/>
+      <c r="E552" s="27"/>
     </row>
     <row r="553" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="25"/>
-      <c r="B553" s="28"/>
-      <c r="C553" s="27"/>
-      <c r="E553" s="28"/>
+      <c r="B553" s="27"/>
+      <c r="C553" s="26"/>
+      <c r="E553" s="27"/>
     </row>
     <row r="554" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="25"/>
-      <c r="B554" s="28"/>
-      <c r="C554" s="27"/>
-      <c r="E554" s="28"/>
+      <c r="B554" s="27"/>
+      <c r="C554" s="26"/>
+      <c r="E554" s="27"/>
     </row>
     <row r="555" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="25"/>
-      <c r="B555" s="28"/>
-      <c r="C555" s="27"/>
-      <c r="E555" s="28"/>
+      <c r="B555" s="27"/>
+      <c r="C555" s="26"/>
+      <c r="E555" s="27"/>
     </row>
     <row r="556" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="25"/>
-      <c r="B556" s="28"/>
-      <c r="C556" s="27"/>
-      <c r="E556" s="28"/>
+      <c r="B556" s="27"/>
+      <c r="C556" s="26"/>
+      <c r="E556" s="27"/>
     </row>
     <row r="557" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="25"/>
-      <c r="B557" s="28"/>
-      <c r="C557" s="27"/>
-      <c r="E557" s="28"/>
+      <c r="B557" s="27"/>
+      <c r="C557" s="26"/>
+      <c r="E557" s="27"/>
     </row>
     <row r="558" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A558" s="25"/>
-      <c r="B558" s="28"/>
-      <c r="C558" s="27"/>
-      <c r="E558" s="28"/>
+      <c r="B558" s="27"/>
+      <c r="C558" s="26"/>
+      <c r="E558" s="27"/>
     </row>
     <row r="559" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A559" s="25"/>
-      <c r="B559" s="28"/>
-      <c r="C559" s="27"/>
-      <c r="E559" s="28"/>
+      <c r="B559" s="27"/>
+      <c r="C559" s="26"/>
+      <c r="E559" s="27"/>
     </row>
     <row r="560" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A560" s="25"/>
-      <c r="B560" s="28"/>
-      <c r="C560" s="27"/>
-      <c r="E560" s="28"/>
+      <c r="B560" s="27"/>
+      <c r="C560" s="26"/>
+      <c r="E560" s="27"/>
     </row>
     <row r="561" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A561" s="25"/>
-      <c r="B561" s="28"/>
-      <c r="C561" s="27"/>
-      <c r="E561" s="28"/>
+      <c r="B561" s="27"/>
+      <c r="C561" s="26"/>
+      <c r="E561" s="27"/>
     </row>
     <row r="562" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A562" s="25"/>
-      <c r="B562" s="28"/>
-      <c r="C562" s="27"/>
-      <c r="E562" s="28"/>
+      <c r="B562" s="27"/>
+      <c r="C562" s="26"/>
+      <c r="E562" s="27"/>
     </row>
     <row r="563" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A563" s="25"/>
-      <c r="B563" s="28"/>
-      <c r="C563" s="27"/>
-      <c r="E563" s="28"/>
+      <c r="B563" s="27"/>
+      <c r="C563" s="26"/>
+      <c r="E563" s="27"/>
     </row>
     <row r="564" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A564" s="25"/>
-      <c r="B564" s="28"/>
-      <c r="C564" s="27"/>
-      <c r="E564" s="28"/>
+      <c r="B564" s="27"/>
+      <c r="C564" s="26"/>
+      <c r="E564" s="27"/>
     </row>
     <row r="565" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="25"/>
-      <c r="B565" s="28"/>
-      <c r="C565" s="27"/>
-      <c r="E565" s="28"/>
+      <c r="B565" s="27"/>
+      <c r="C565" s="26"/>
+      <c r="E565" s="27"/>
     </row>
     <row r="566" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A566" s="25"/>
-      <c r="B566" s="28"/>
-      <c r="C566" s="27"/>
-      <c r="E566" s="28"/>
+      <c r="B566" s="27"/>
+      <c r="C566" s="26"/>
+      <c r="E566" s="27"/>
     </row>
     <row r="567" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A567" s="25"/>
-      <c r="B567" s="28"/>
-      <c r="C567" s="27"/>
-      <c r="E567" s="28"/>
+      <c r="B567" s="27"/>
+      <c r="C567" s="26"/>
+      <c r="E567" s="27"/>
     </row>
     <row r="568" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A568" s="25"/>
-      <c r="B568" s="28"/>
-      <c r="C568" s="27"/>
-      <c r="E568" s="28"/>
+      <c r="B568" s="27"/>
+      <c r="C568" s="26"/>
+      <c r="E568" s="27"/>
     </row>
     <row r="569" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A569" s="25"/>
-      <c r="B569" s="28"/>
-      <c r="C569" s="27"/>
-      <c r="E569" s="28"/>
+      <c r="B569" s="27"/>
+      <c r="C569" s="26"/>
+      <c r="E569" s="27"/>
     </row>
     <row r="570" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A570" s="25"/>
-      <c r="B570" s="28"/>
-      <c r="C570" s="27"/>
-      <c r="E570" s="28"/>
+      <c r="B570" s="27"/>
+      <c r="C570" s="26"/>
+      <c r="E570" s="27"/>
     </row>
     <row r="571" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A571" s="25"/>
-      <c r="B571" s="28"/>
-      <c r="C571" s="27"/>
-      <c r="E571" s="28"/>
+      <c r="B571" s="27"/>
+      <c r="C571" s="26"/>
+      <c r="E571" s="27"/>
     </row>
     <row r="572" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A572" s="25"/>
-      <c r="B572" s="28"/>
-      <c r="C572" s="27"/>
-      <c r="E572" s="28"/>
+      <c r="B572" s="27"/>
+      <c r="C572" s="26"/>
+      <c r="E572" s="27"/>
     </row>
     <row r="573" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A573" s="25"/>
-      <c r="B573" s="28"/>
-      <c r="C573" s="27"/>
-      <c r="E573" s="28"/>
+      <c r="B573" s="27"/>
+      <c r="C573" s="26"/>
+      <c r="E573" s="27"/>
     </row>
     <row r="574" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A574" s="25"/>
-      <c r="B574" s="28"/>
-      <c r="C574" s="27"/>
-      <c r="E574" s="28"/>
+      <c r="B574" s="27"/>
+      <c r="C574" s="26"/>
+      <c r="E574" s="27"/>
     </row>
     <row r="575" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A575" s="25"/>
-      <c r="B575" s="28"/>
-      <c r="C575" s="27"/>
-      <c r="E575" s="28"/>
+      <c r="B575" s="27"/>
+      <c r="C575" s="26"/>
+      <c r="E575" s="27"/>
     </row>
     <row r="576" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A576" s="25"/>
-      <c r="B576" s="28"/>
-      <c r="C576" s="27"/>
-      <c r="E576" s="28"/>
+      <c r="B576" s="27"/>
+      <c r="C576" s="26"/>
+      <c r="E576" s="27"/>
     </row>
     <row r="577" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A577" s="25"/>
-      <c r="B577" s="28"/>
-      <c r="C577" s="27"/>
-      <c r="E577" s="28"/>
+      <c r="B577" s="27"/>
+      <c r="C577" s="26"/>
+      <c r="E577" s="27"/>
     </row>
     <row r="578" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A578" s="25"/>
-      <c r="B578" s="28"/>
-      <c r="C578" s="27"/>
-      <c r="E578" s="28"/>
+      <c r="B578" s="27"/>
+      <c r="C578" s="26"/>
+      <c r="E578" s="27"/>
     </row>
     <row r="579" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="25"/>
-      <c r="B579" s="28"/>
-      <c r="C579" s="27"/>
-      <c r="E579" s="28"/>
+      <c r="B579" s="27"/>
+      <c r="C579" s="26"/>
+      <c r="E579" s="27"/>
     </row>
     <row r="580" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A580" s="25"/>
-      <c r="B580" s="28"/>
-      <c r="C580" s="27"/>
-      <c r="E580" s="28"/>
+      <c r="B580" s="27"/>
+      <c r="C580" s="26"/>
+      <c r="E580" s="27"/>
     </row>
     <row r="581" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A581" s="25"/>
-      <c r="B581" s="28"/>
-      <c r="C581" s="27"/>
-      <c r="E581" s="28"/>
+      <c r="B581" s="27"/>
+      <c r="C581" s="26"/>
+      <c r="E581" s="27"/>
     </row>
     <row r="582" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A582" s="25"/>
-      <c r="B582" s="28"/>
-      <c r="C582" s="27"/>
-      <c r="E582" s="28"/>
+      <c r="B582" s="27"/>
+      <c r="C582" s="26"/>
+      <c r="E582" s="27"/>
     </row>
     <row r="583" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A583" s="25"/>
-      <c r="B583" s="28"/>
-      <c r="C583" s="27"/>
-      <c r="E583" s="28"/>
+      <c r="B583" s="27"/>
+      <c r="C583" s="26"/>
+      <c r="E583" s="27"/>
     </row>
     <row r="584" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A584" s="25"/>
-      <c r="B584" s="28"/>
-      <c r="C584" s="27"/>
-      <c r="E584" s="28"/>
+      <c r="B584" s="27"/>
+      <c r="C584" s="26"/>
+      <c r="E584" s="27"/>
     </row>
     <row r="585" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A585" s="25"/>
-      <c r="B585" s="28"/>
-      <c r="C585" s="27"/>
-      <c r="E585" s="28"/>
+      <c r="B585" s="27"/>
+      <c r="C585" s="26"/>
+      <c r="E585" s="27"/>
     </row>
     <row r="586" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A586" s="25"/>
-      <c r="B586" s="28"/>
-      <c r="C586" s="27"/>
-      <c r="E586" s="28"/>
+      <c r="B586" s="27"/>
+      <c r="C586" s="26"/>
+      <c r="E586" s="27"/>
     </row>
     <row r="587" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A587" s="25"/>
-      <c r="B587" s="28"/>
-      <c r="C587" s="27"/>
-      <c r="E587" s="28"/>
+      <c r="B587" s="27"/>
+      <c r="C587" s="26"/>
+      <c r="E587" s="27"/>
     </row>
     <row r="588" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A588" s="25"/>
-      <c r="B588" s="28"/>
-      <c r="C588" s="27"/>
-      <c r="E588" s="28"/>
+      <c r="B588" s="27"/>
+      <c r="C588" s="26"/>
+      <c r="E588" s="27"/>
     </row>
     <row r="589" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A589" s="25"/>
-      <c r="B589" s="28"/>
-      <c r="C589" s="27"/>
-      <c r="E589" s="28"/>
+      <c r="B589" s="27"/>
+      <c r="C589" s="26"/>
+      <c r="E589" s="27"/>
     </row>
     <row r="590" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A590" s="25"/>
-      <c r="B590" s="28"/>
-      <c r="C590" s="27"/>
-      <c r="E590" s="28"/>
+      <c r="B590" s="27"/>
+      <c r="C590" s="26"/>
+      <c r="E590" s="27"/>
     </row>
     <row r="591" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A591" s="25"/>
-      <c r="B591" s="28"/>
-      <c r="C591" s="27"/>
-      <c r="E591" s="28"/>
+      <c r="B591" s="27"/>
+      <c r="C591" s="26"/>
+      <c r="E591" s="27"/>
     </row>
     <row r="592" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A592" s="25"/>
-      <c r="B592" s="28"/>
-      <c r="C592" s="27"/>
-      <c r="E592" s="28"/>
+      <c r="B592" s="27"/>
+      <c r="C592" s="26"/>
+      <c r="E592" s="27"/>
     </row>
     <row r="593" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A593" s="25"/>
-      <c r="B593" s="28"/>
-      <c r="C593" s="27"/>
-      <c r="E593" s="28"/>
+      <c r="B593" s="27"/>
+      <c r="C593" s="26"/>
+      <c r="E593" s="27"/>
     </row>
     <row r="594" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A594" s="25"/>
-      <c r="B594" s="28"/>
-      <c r="C594" s="27"/>
-      <c r="E594" s="28"/>
+      <c r="B594" s="27"/>
+      <c r="C594" s="26"/>
+      <c r="E594" s="27"/>
     </row>
     <row r="595" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A595" s="25"/>
-      <c r="B595" s="28"/>
-      <c r="C595" s="27"/>
-      <c r="E595" s="28"/>
+      <c r="B595" s="27"/>
+      <c r="C595" s="26"/>
+      <c r="E595" s="27"/>
     </row>
     <row r="596" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A596" s="25"/>
-      <c r="B596" s="28"/>
-      <c r="C596" s="27"/>
-      <c r="E596" s="28"/>
+      <c r="B596" s="27"/>
+      <c r="C596" s="26"/>
+      <c r="E596" s="27"/>
     </row>
     <row r="597" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A597" s="25"/>
-      <c r="B597" s="28"/>
-      <c r="C597" s="27"/>
-      <c r="E597" s="28"/>
+      <c r="B597" s="27"/>
+      <c r="C597" s="26"/>
+      <c r="E597" s="27"/>
     </row>
     <row r="598" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A598" s="25"/>
-      <c r="B598" s="28"/>
-      <c r="C598" s="27"/>
-      <c r="E598" s="28"/>
+      <c r="B598" s="27"/>
+      <c r="C598" s="26"/>
+      <c r="E598" s="27"/>
     </row>
     <row r="599" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A599" s="25"/>
-      <c r="B599" s="28"/>
-      <c r="C599" s="27"/>
-      <c r="E599" s="28"/>
+      <c r="B599" s="27"/>
+      <c r="C599" s="26"/>
+      <c r="E599" s="27"/>
     </row>
     <row r="600" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A600" s="25"/>
-      <c r="B600" s="28"/>
-      <c r="C600" s="27"/>
-      <c r="E600" s="28"/>
+      <c r="B600" s="27"/>
+      <c r="C600" s="26"/>
+      <c r="E600" s="27"/>
     </row>
     <row r="601" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A601" s="25"/>
-      <c r="B601" s="28"/>
-      <c r="C601" s="27"/>
-      <c r="E601" s="28"/>
+      <c r="B601" s="27"/>
+      <c r="C601" s="26"/>
+      <c r="E601" s="27"/>
     </row>
     <row r="602" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A602" s="25"/>
-      <c r="B602" s="28"/>
-      <c r="C602" s="27"/>
-      <c r="E602" s="28"/>
+      <c r="B602" s="27"/>
+      <c r="C602" s="26"/>
+      <c r="E602" s="27"/>
     </row>
     <row r="603" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A603" s="25"/>
-      <c r="B603" s="28"/>
-      <c r="C603" s="27"/>
-      <c r="E603" s="28"/>
+      <c r="B603" s="27"/>
+      <c r="C603" s="26"/>
+      <c r="E603" s="27"/>
     </row>
     <row r="604" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A604" s="25"/>
-      <c r="B604" s="28"/>
-      <c r="C604" s="27"/>
-      <c r="E604" s="28"/>
+      <c r="B604" s="27"/>
+      <c r="C604" s="26"/>
+      <c r="E604" s="27"/>
     </row>
     <row r="605" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A605" s="25"/>
-      <c r="B605" s="28"/>
-      <c r="C605" s="27"/>
-      <c r="E605" s="28"/>
+      <c r="B605" s="27"/>
+      <c r="C605" s="26"/>
+      <c r="E605" s="27"/>
     </row>
     <row r="606" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A606" s="25"/>
-      <c r="B606" s="28"/>
-      <c r="C606" s="27"/>
-      <c r="E606" s="28"/>
+      <c r="B606" s="27"/>
+      <c r="C606" s="26"/>
+      <c r="E606" s="27"/>
     </row>
     <row r="607" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A607" s="25"/>
-      <c r="B607" s="28"/>
-      <c r="C607" s="27"/>
-      <c r="E607" s="28"/>
+      <c r="B607" s="27"/>
+      <c r="C607" s="26"/>
+      <c r="E607" s="27"/>
     </row>
     <row r="608" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A608" s="25"/>
-      <c r="B608" s="28"/>
-      <c r="C608" s="27"/>
-      <c r="E608" s="28"/>
+      <c r="B608" s="27"/>
+      <c r="C608" s="26"/>
+      <c r="E608" s="27"/>
     </row>
     <row r="609" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A609" s="25"/>
-      <c r="B609" s="28"/>
-      <c r="C609" s="27"/>
-      <c r="E609" s="28"/>
+      <c r="B609" s="27"/>
+      <c r="C609" s="26"/>
+      <c r="E609" s="27"/>
     </row>
     <row r="610" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A610" s="25"/>
-      <c r="B610" s="28"/>
-      <c r="C610" s="27"/>
-      <c r="E610" s="28"/>
+      <c r="B610" s="27"/>
+      <c r="C610" s="26"/>
+      <c r="E610" s="27"/>
     </row>
     <row r="611" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A611" s="25"/>
-      <c r="B611" s="28"/>
-      <c r="C611" s="27"/>
-      <c r="E611" s="28"/>
+      <c r="B611" s="27"/>
+      <c r="C611" s="26"/>
+      <c r="E611" s="27"/>
     </row>
     <row r="612" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A612" s="25"/>
-      <c r="B612" s="28"/>
-      <c r="C612" s="27"/>
-      <c r="E612" s="28"/>
+      <c r="B612" s="27"/>
+      <c r="C612" s="26"/>
+      <c r="E612" s="27"/>
     </row>
     <row r="613" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="25"/>
-      <c r="B613" s="28"/>
-      <c r="C613" s="27"/>
-      <c r="E613" s="28"/>
+      <c r="B613" s="27"/>
+      <c r="C613" s="26"/>
+      <c r="E613" s="27"/>
     </row>
     <row r="614" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A614" s="25"/>
-      <c r="B614" s="28"/>
-      <c r="C614" s="27"/>
-      <c r="E614" s="28"/>
+      <c r="B614" s="27"/>
+      <c r="C614" s="26"/>
+      <c r="E614" s="27"/>
     </row>
     <row r="615" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A615" s="25"/>
-      <c r="B615" s="28"/>
-      <c r="C615" s="27"/>
-      <c r="E615" s="28"/>
+      <c r="B615" s="27"/>
+      <c r="C615" s="26"/>
+      <c r="E615" s="27"/>
     </row>
     <row r="616" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A616" s="25"/>
-      <c r="B616" s="28"/>
-      <c r="C616" s="27"/>
-      <c r="E616" s="28"/>
+      <c r="B616" s="27"/>
+      <c r="C616" s="26"/>
+      <c r="E616" s="27"/>
     </row>
     <row r="617" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A617" s="25"/>
-      <c r="B617" s="28"/>
-      <c r="C617" s="27"/>
-      <c r="E617" s="28"/>
+      <c r="B617" s="27"/>
+      <c r="C617" s="26"/>
+      <c r="E617" s="27"/>
     </row>
     <row r="618" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A618" s="25"/>
-      <c r="B618" s="28"/>
-      <c r="C618" s="27"/>
-      <c r="E618" s="28"/>
+      <c r="B618" s="27"/>
+      <c r="C618" s="26"/>
+      <c r="E618" s="27"/>
     </row>
     <row r="619" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A619" s="25"/>
-      <c r="B619" s="28"/>
-      <c r="C619" s="27"/>
-      <c r="E619" s="28"/>
+      <c r="B619" s="27"/>
+      <c r="C619" s="26"/>
+      <c r="E619" s="27"/>
     </row>
     <row r="620" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A620" s="25"/>
-      <c r="B620" s="28"/>
-      <c r="C620" s="27"/>
-      <c r="E620" s="28"/>
+      <c r="B620" s="27"/>
+      <c r="C620" s="26"/>
+      <c r="E620" s="27"/>
     </row>
     <row r="621" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A621" s="25"/>
-      <c r="B621" s="28"/>
-      <c r="C621" s="27"/>
-      <c r="E621" s="28"/>
+      <c r="B621" s="27"/>
+      <c r="C621" s="26"/>
+      <c r="E621" s="27"/>
     </row>
     <row r="622" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A622" s="25"/>
-      <c r="B622" s="28"/>
-      <c r="C622" s="27"/>
-      <c r="E622" s="28"/>
+      <c r="B622" s="27"/>
+      <c r="C622" s="26"/>
+      <c r="E622" s="27"/>
     </row>
     <row r="623" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A623" s="25"/>
-      <c r="B623" s="28"/>
-      <c r="C623" s="27"/>
-      <c r="E623" s="28"/>
+      <c r="B623" s="27"/>
+      <c r="C623" s="26"/>
+      <c r="E623" s="27"/>
     </row>
     <row r="624" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A624" s="25"/>
-      <c r="B624" s="28"/>
-      <c r="C624" s="27"/>
-      <c r="E624" s="28"/>
+      <c r="B624" s="27"/>
+      <c r="C624" s="26"/>
+      <c r="E624" s="27"/>
     </row>
     <row r="625" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A625" s="25"/>
-      <c r="B625" s="28"/>
-      <c r="C625" s="27"/>
-      <c r="E625" s="28"/>
+      <c r="B625" s="27"/>
+      <c r="C625" s="26"/>
+      <c r="E625" s="27"/>
     </row>
     <row r="626" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A626" s="25"/>
-      <c r="B626" s="28"/>
-      <c r="C626" s="27"/>
-      <c r="E626" s="28"/>
+      <c r="B626" s="27"/>
+      <c r="C626" s="26"/>
+      <c r="E626" s="27"/>
     </row>
     <row r="627" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A627" s="25"/>
-      <c r="B627" s="28"/>
-      <c r="C627" s="27"/>
-      <c r="E627" s="28"/>
+      <c r="B627" s="27"/>
+      <c r="C627" s="26"/>
+      <c r="E627" s="27"/>
     </row>
     <row r="628" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A628" s="25"/>
-      <c r="B628" s="28"/>
-      <c r="C628" s="27"/>
-      <c r="E628" s="28"/>
+      <c r="B628" s="27"/>
+      <c r="C628" s="26"/>
+      <c r="E628" s="27"/>
     </row>
     <row r="629" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A629" s="25"/>
-      <c r="B629" s="28"/>
-      <c r="C629" s="27"/>
-      <c r="E629" s="28"/>
+      <c r="B629" s="27"/>
+      <c r="C629" s="26"/>
+      <c r="E629" s="27"/>
     </row>
     <row r="630" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A630" s="25"/>
-      <c r="B630" s="28"/>
-      <c r="C630" s="27"/>
-      <c r="E630" s="28"/>
+      <c r="B630" s="27"/>
+      <c r="C630" s="26"/>
+      <c r="E630" s="27"/>
     </row>
     <row r="631" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A631" s="25"/>
-      <c r="B631" s="28"/>
-      <c r="C631" s="27"/>
-      <c r="E631" s="28"/>
+      <c r="B631" s="27"/>
+      <c r="C631" s="26"/>
+      <c r="E631" s="27"/>
     </row>
     <row r="632" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A632" s="25"/>
-      <c r="B632" s="28"/>
-      <c r="C632" s="27"/>
-      <c r="E632" s="28"/>
+      <c r="B632" s="27"/>
+      <c r="C632" s="26"/>
+      <c r="E632" s="27"/>
     </row>
     <row r="633" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A633" s="25"/>
-      <c r="B633" s="28"/>
-      <c r="C633" s="27"/>
-      <c r="E633" s="28"/>
+      <c r="B633" s="27"/>
+      <c r="C633" s="26"/>
+      <c r="E633" s="27"/>
     </row>
     <row r="634" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A634" s="25"/>
-      <c r="B634" s="28"/>
-      <c r="C634" s="27"/>
-      <c r="E634" s="28"/>
+      <c r="B634" s="27"/>
+      <c r="C634" s="26"/>
+      <c r="E634" s="27"/>
     </row>
     <row r="635" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A635" s="25"/>
-      <c r="B635" s="28"/>
-      <c r="C635" s="27"/>
-      <c r="E635" s="28"/>
+      <c r="B635" s="27"/>
+      <c r="C635" s="26"/>
+      <c r="E635" s="27"/>
     </row>
     <row r="636" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A636" s="25"/>
-      <c r="B636" s="28"/>
-      <c r="C636" s="27"/>
-      <c r="E636" s="28"/>
+      <c r="B636" s="27"/>
+      <c r="C636" s="26"/>
+      <c r="E636" s="27"/>
     </row>
     <row r="637" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A637" s="25"/>
-      <c r="B637" s="28"/>
-      <c r="C637" s="27"/>
-      <c r="E637" s="28"/>
+      <c r="B637" s="27"/>
+      <c r="C637" s="26"/>
+      <c r="E637" s="27"/>
     </row>
     <row r="638" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A638" s="25"/>
-      <c r="B638" s="28"/>
-      <c r="C638" s="27"/>
-      <c r="E638" s="28"/>
+      <c r="B638" s="27"/>
+      <c r="C638" s="26"/>
+      <c r="E638" s="27"/>
     </row>
     <row r="639" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A639" s="25"/>
-      <c r="B639" s="28"/>
-      <c r="C639" s="27"/>
-      <c r="E639" s="28"/>
+      <c r="B639" s="27"/>
+      <c r="C639" s="26"/>
+      <c r="E639" s="27"/>
     </row>
     <row r="640" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A640" s="25"/>
-      <c r="B640" s="28"/>
-      <c r="C640" s="27"/>
-      <c r="E640" s="28"/>
+      <c r="B640" s="27"/>
+      <c r="C640" s="26"/>
+      <c r="E640" s="27"/>
     </row>
     <row r="641" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A641" s="25"/>
-      <c r="B641" s="28"/>
-      <c r="C641" s="27"/>
-      <c r="E641" s="28"/>
+      <c r="B641" s="27"/>
+      <c r="C641" s="26"/>
+      <c r="E641" s="27"/>
     </row>
     <row r="642" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A642" s="25"/>
-      <c r="B642" s="28"/>
-      <c r="C642" s="27"/>
-      <c r="E642" s="28"/>
+      <c r="B642" s="27"/>
+      <c r="C642" s="26"/>
+      <c r="E642" s="27"/>
     </row>
     <row r="643" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A643" s="25"/>
-      <c r="B643" s="28"/>
-      <c r="C643" s="27"/>
-      <c r="E643" s="28"/>
+      <c r="B643" s="27"/>
+      <c r="C643" s="26"/>
+      <c r="E643" s="27"/>
     </row>
     <row r="644" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A644" s="25"/>
-      <c r="B644" s="28"/>
-      <c r="C644" s="27"/>
-      <c r="E644" s="28"/>
+      <c r="B644" s="27"/>
+      <c r="C644" s="26"/>
+      <c r="E644" s="27"/>
     </row>
     <row r="645" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A645" s="25"/>
-      <c r="B645" s="28"/>
-      <c r="C645" s="27"/>
-      <c r="E645" s="28"/>
+      <c r="B645" s="27"/>
+      <c r="C645" s="26"/>
+      <c r="E645" s="27"/>
     </row>
     <row r="646" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A646" s="25"/>
-      <c r="B646" s="28"/>
-      <c r="C646" s="27"/>
-      <c r="E646" s="28"/>
+      <c r="B646" s="27"/>
+      <c r="C646" s="26"/>
+      <c r="E646" s="27"/>
     </row>
     <row r="647" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A647" s="25"/>
-      <c r="B647" s="28"/>
-      <c r="C647" s="27"/>
-      <c r="E647" s="28"/>
+      <c r="B647" s="27"/>
+      <c r="C647" s="26"/>
+      <c r="E647" s="27"/>
     </row>
     <row r="648" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A648" s="25"/>
-      <c r="B648" s="28"/>
-      <c r="C648" s="27"/>
-      <c r="E648" s="28"/>
+      <c r="B648" s="27"/>
+      <c r="C648" s="26"/>
+      <c r="E648" s="27"/>
     </row>
     <row r="649" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A649" s="25"/>
-      <c r="B649" s="28"/>
-      <c r="C649" s="27"/>
-      <c r="E649" s="28"/>
+      <c r="B649" s="27"/>
+      <c r="C649" s="26"/>
+      <c r="E649" s="27"/>
     </row>
     <row r="650" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A650" s="25"/>
-      <c r="B650" s="28"/>
-      <c r="C650" s="27"/>
-      <c r="E650" s="28"/>
+      <c r="B650" s="27"/>
+      <c r="C650" s="26"/>
+      <c r="E650" s="27"/>
     </row>
     <row r="651" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A651" s="25"/>
-      <c r="B651" s="28"/>
-      <c r="C651" s="27"/>
-      <c r="E651" s="28"/>
+      <c r="B651" s="27"/>
+      <c r="C651" s="26"/>
+      <c r="E651" s="27"/>
     </row>
     <row r="652" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A652" s="25"/>
-      <c r="B652" s="28"/>
-      <c r="C652" s="27"/>
-      <c r="E652" s="28"/>
+      <c r="B652" s="27"/>
+      <c r="C652" s="26"/>
+      <c r="E652" s="27"/>
     </row>
     <row r="653" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A653" s="25"/>
-      <c r="B653" s="28"/>
-      <c r="C653" s="27"/>
-      <c r="E653" s="28"/>
+      <c r="B653" s="27"/>
+      <c r="C653" s="26"/>
+      <c r="E653" s="27"/>
     </row>
     <row r="654" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="25"/>
-      <c r="B654" s="28"/>
-      <c r="C654" s="27"/>
-      <c r="E654" s="28"/>
+      <c r="B654" s="27"/>
+      <c r="C654" s="26"/>
+      <c r="E654" s="27"/>
     </row>
     <row r="655" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A655" s="25"/>
-      <c r="B655" s="28"/>
-      <c r="C655" s="27"/>
-      <c r="E655" s="28"/>
+      <c r="B655" s="27"/>
+      <c r="C655" s="26"/>
+      <c r="E655" s="27"/>
     </row>
     <row r="656" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A656" s="25"/>
-      <c r="B656" s="28"/>
-      <c r="C656" s="27"/>
-      <c r="E656" s="28"/>
+      <c r="B656" s="27"/>
+      <c r="C656" s="26"/>
+      <c r="E656" s="27"/>
     </row>
     <row r="657" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A657" s="25"/>
-      <c r="B657" s="28"/>
-      <c r="C657" s="27"/>
-      <c r="E657" s="28"/>
+      <c r="B657" s="27"/>
+      <c r="C657" s="26"/>
+      <c r="E657" s="27"/>
     </row>
     <row r="658" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A658" s="25"/>
-      <c r="B658" s="28"/>
-      <c r="C658" s="27"/>
-      <c r="E658" s="28"/>
+      <c r="B658" s="27"/>
+      <c r="C658" s="26"/>
+      <c r="E658" s="27"/>
     </row>
     <row r="659" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A659" s="25"/>
-      <c r="B659" s="28"/>
-      <c r="C659" s="27"/>
-      <c r="E659" s="28"/>
+      <c r="B659" s="27"/>
+      <c r="C659" s="26"/>
+      <c r="E659" s="27"/>
     </row>
     <row r="660" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A660" s="25"/>
-      <c r="B660" s="28"/>
-      <c r="C660" s="27"/>
-      <c r="E660" s="28"/>
+      <c r="B660" s="27"/>
+      <c r="C660" s="26"/>
+      <c r="E660" s="27"/>
     </row>
     <row r="661" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A661" s="25"/>
-      <c r="B661" s="28"/>
-      <c r="C661" s="27"/>
-      <c r="E661" s="28"/>
+      <c r="B661" s="27"/>
+      <c r="C661" s="26"/>
+      <c r="E661" s="27"/>
     </row>
     <row r="662" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A662" s="25"/>
-      <c r="B662" s="28"/>
-      <c r="C662" s="27"/>
-      <c r="E662" s="28"/>
+      <c r="B662" s="27"/>
+      <c r="C662" s="26"/>
+      <c r="E662" s="27"/>
     </row>
     <row r="663" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A663" s="25"/>
-      <c r="B663" s="28"/>
-      <c r="C663" s="27"/>
-      <c r="E663" s="28"/>
+      <c r="B663" s="27"/>
+      <c r="C663" s="26"/>
+      <c r="E663" s="27"/>
     </row>
     <row r="664" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A664" s="25"/>
-      <c r="B664" s="28"/>
-      <c r="C664" s="27"/>
-      <c r="E664" s="28"/>
+      <c r="B664" s="27"/>
+      <c r="C664" s="26"/>
+      <c r="E664" s="27"/>
     </row>
     <row r="665" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A665" s="25"/>
-      <c r="B665" s="28"/>
-      <c r="C665" s="27"/>
-      <c r="E665" s="28"/>
+      <c r="B665" s="27"/>
+      <c r="C665" s="26"/>
+      <c r="E665" s="27"/>
     </row>
     <row r="666" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A666" s="25"/>
-      <c r="B666" s="28"/>
-      <c r="C666" s="27"/>
-      <c r="E666" s="28"/>
+      <c r="B666" s="27"/>
+      <c r="C666" s="26"/>
+      <c r="E666" s="27"/>
     </row>
     <row r="667" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A667" s="25"/>
-      <c r="B667" s="28"/>
-      <c r="C667" s="27"/>
-      <c r="E667" s="28"/>
+      <c r="B667" s="27"/>
+      <c r="C667" s="26"/>
+      <c r="E667" s="27"/>
     </row>
     <row r="668" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A668" s="25"/>
-      <c r="B668" s="28"/>
-      <c r="C668" s="27"/>
-      <c r="E668" s="28"/>
+      <c r="B668" s="27"/>
+      <c r="C668" s="26"/>
+      <c r="E668" s="27"/>
     </row>
     <row r="669" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A669" s="25"/>
-      <c r="B669" s="28"/>
-      <c r="C669" s="27"/>
-      <c r="E669" s="28"/>
+      <c r="B669" s="27"/>
+      <c r="C669" s="26"/>
+      <c r="E669" s="27"/>
     </row>
     <row r="670" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A670" s="25"/>
-      <c r="B670" s="28"/>
-      <c r="C670" s="27"/>
-      <c r="E670" s="28"/>
+      <c r="B670" s="27"/>
+      <c r="C670" s="26"/>
+      <c r="E670" s="27"/>
     </row>
     <row r="671" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A671" s="25"/>
-      <c r="B671" s="28"/>
-      <c r="C671" s="27"/>
-      <c r="E671" s="28"/>
+      <c r="B671" s="27"/>
+      <c r="C671" s="26"/>
+      <c r="E671" s="27"/>
     </row>
     <row r="672" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A672" s="25"/>
-      <c r="B672" s="28"/>
-      <c r="C672" s="27"/>
-      <c r="E672" s="28"/>
+      <c r="B672" s="27"/>
+      <c r="C672" s="26"/>
+      <c r="E672" s="27"/>
     </row>
     <row r="673" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A673" s="25"/>
-      <c r="B673" s="28"/>
-      <c r="C673" s="27"/>
-      <c r="E673" s="28"/>
+      <c r="B673" s="27"/>
+      <c r="C673" s="26"/>
+      <c r="E673" s="27"/>
     </row>
     <row r="674" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A674" s="25"/>
-      <c r="B674" s="28"/>
-      <c r="C674" s="27"/>
-      <c r="E674" s="28"/>
+      <c r="B674" s="27"/>
+      <c r="C674" s="26"/>
+      <c r="E674" s="27"/>
     </row>
     <row r="675" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A675" s="25"/>
-      <c r="B675" s="28"/>
-      <c r="C675" s="27"/>
-      <c r="E675" s="28"/>
+      <c r="B675" s="27"/>
+      <c r="C675" s="26"/>
+      <c r="E675" s="27"/>
     </row>
     <row r="676" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A676" s="25"/>
-      <c r="B676" s="28"/>
-      <c r="C676" s="27"/>
-      <c r="E676" s="28"/>
+      <c r="B676" s="27"/>
+      <c r="C676" s="26"/>
+      <c r="E676" s="27"/>
     </row>
     <row r="677" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A677" s="25"/>
-      <c r="B677" s="28"/>
-      <c r="C677" s="27"/>
-      <c r="E677" s="28"/>
+      <c r="B677" s="27"/>
+      <c r="C677" s="26"/>
+      <c r="E677" s="27"/>
     </row>
     <row r="678" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A678" s="25"/>
-      <c r="B678" s="28"/>
-      <c r="C678" s="27"/>
-      <c r="E678" s="28"/>
+      <c r="B678" s="27"/>
+      <c r="C678" s="26"/>
+      <c r="E678" s="27"/>
     </row>
     <row r="679" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A679" s="25"/>
-      <c r="B679" s="28"/>
-      <c r="C679" s="27"/>
-      <c r="E679" s="28"/>
+      <c r="B679" s="27"/>
+      <c r="C679" s="26"/>
+      <c r="E679" s="27"/>
     </row>
     <row r="680" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A680" s="25"/>
-      <c r="B680" s="28"/>
-      <c r="C680" s="27"/>
-      <c r="E680" s="28"/>
+      <c r="B680" s="27"/>
+      <c r="C680" s="26"/>
+      <c r="E680" s="27"/>
     </row>
     <row r="681" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A681" s="25"/>
-      <c r="B681" s="28"/>
-      <c r="C681" s="27"/>
-      <c r="E681" s="28"/>
+      <c r="B681" s="27"/>
+      <c r="C681" s="26"/>
+      <c r="E681" s="27"/>
     </row>
     <row r="682" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A682" s="25"/>
-      <c r="B682" s="28"/>
-      <c r="C682" s="27"/>
-      <c r="E682" s="28"/>
+      <c r="B682" s="27"/>
+      <c r="C682" s="26"/>
+      <c r="E682" s="27"/>
     </row>
     <row r="683" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A683" s="25"/>
-      <c r="B683" s="28"/>
-      <c r="C683" s="27"/>
-      <c r="E683" s="28"/>
+      <c r="B683" s="27"/>
+      <c r="C683" s="26"/>
+      <c r="E683" s="27"/>
     </row>
     <row r="684" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A684" s="25"/>
-      <c r="B684" s="28"/>
-      <c r="C684" s="27"/>
-      <c r="E684" s="28"/>
+      <c r="B684" s="27"/>
+      <c r="C684" s="26"/>
+      <c r="E684" s="27"/>
     </row>
     <row r="685" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A685" s="25"/>
-      <c r="B685" s="28"/>
-      <c r="C685" s="27"/>
-      <c r="E685" s="28"/>
+      <c r="B685" s="27"/>
+      <c r="C685" s="26"/>
+      <c r="E685" s="27"/>
     </row>
     <row r="686" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A686" s="25"/>
-      <c r="B686" s="28"/>
-      <c r="C686" s="27"/>
-      <c r="E686" s="28"/>
+      <c r="B686" s="27"/>
+      <c r="C686" s="26"/>
+      <c r="E686" s="27"/>
     </row>
     <row r="687" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A687" s="25"/>
-      <c r="B687" s="28"/>
-      <c r="C687" s="27"/>
-      <c r="E687" s="28"/>
+      <c r="B687" s="27"/>
+      <c r="C687" s="26"/>
+      <c r="E687" s="27"/>
     </row>
     <row r="688" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A688" s="25"/>
-      <c r="B688" s="28"/>
-      <c r="C688" s="27"/>
-      <c r="E688" s="28"/>
+      <c r="B688" s="27"/>
+      <c r="C688" s="26"/>
+      <c r="E688" s="27"/>
     </row>
     <row r="689" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A689" s="25"/>
-      <c r="B689" s="28"/>
-      <c r="C689" s="27"/>
-      <c r="E689" s="28"/>
+      <c r="B689" s="27"/>
+      <c r="C689" s="26"/>
+      <c r="E689" s="27"/>
     </row>
     <row r="690" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A690" s="25"/>
-      <c r="B690" s="28"/>
-      <c r="C690" s="27"/>
-      <c r="E690" s="28"/>
+      <c r="B690" s="27"/>
+      <c r="C690" s="26"/>
+      <c r="E690" s="27"/>
     </row>
     <row r="691" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A691" s="25"/>
-      <c r="B691" s="28"/>
-      <c r="C691" s="27"/>
-      <c r="E691" s="28"/>
+      <c r="B691" s="27"/>
+      <c r="C691" s="26"/>
+      <c r="E691" s="27"/>
     </row>
     <row r="692" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A692" s="25"/>
-      <c r="B692" s="28"/>
-      <c r="C692" s="27"/>
-      <c r="E692" s="28"/>
+      <c r="B692" s="27"/>
+      <c r="C692" s="26"/>
+      <c r="E692" s="27"/>
     </row>
     <row r="693" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A693" s="25"/>
-      <c r="B693" s="28"/>
-      <c r="C693" s="27"/>
-      <c r="E693" s="28"/>
+      <c r="B693" s="27"/>
+      <c r="C693" s="26"/>
+      <c r="E693" s="27"/>
     </row>
     <row r="694" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A694" s="25"/>
-      <c r="B694" s="28"/>
-      <c r="C694" s="27"/>
-      <c r="E694" s="28"/>
+      <c r="B694" s="27"/>
+      <c r="C694" s="26"/>
+      <c r="E694" s="27"/>
     </row>
     <row r="695" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A695" s="25"/>
-      <c r="B695" s="28"/>
-      <c r="C695" s="27"/>
-      <c r="E695" s="28"/>
+      <c r="B695" s="27"/>
+      <c r="C695" s="26"/>
+      <c r="E695" s="27"/>
     </row>
     <row r="696" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A696" s="25"/>
-      <c r="B696" s="28"/>
-      <c r="C696" s="27"/>
-      <c r="E696" s="28"/>
+      <c r="B696" s="27"/>
+      <c r="C696" s="26"/>
+      <c r="E696" s="27"/>
     </row>
     <row r="697" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A697" s="25"/>
-      <c r="B697" s="28"/>
-      <c r="C697" s="27"/>
-      <c r="E697" s="28"/>
+      <c r="B697" s="27"/>
+      <c r="C697" s="26"/>
+      <c r="E697" s="27"/>
     </row>
     <row r="698" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A698" s="25"/>
-      <c r="B698" s="28"/>
-      <c r="C698" s="27"/>
-      <c r="E698" s="28"/>
+      <c r="B698" s="27"/>
+      <c r="C698" s="26"/>
+      <c r="E698" s="27"/>
     </row>
     <row r="699" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A699" s="25"/>
-      <c r="B699" s="28"/>
-      <c r="C699" s="27"/>
-      <c r="E699" s="28"/>
+      <c r="B699" s="27"/>
+      <c r="C699" s="26"/>
+      <c r="E699" s="27"/>
     </row>
     <row r="700" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A700" s="25"/>
-      <c r="B700" s="28"/>
-      <c r="C700" s="27"/>
-      <c r="E700" s="28"/>
+      <c r="B700" s="27"/>
+      <c r="C700" s="26"/>
+      <c r="E700" s="27"/>
     </row>
     <row r="701" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A701" s="25"/>
-      <c r="B701" s="28"/>
-      <c r="C701" s="27"/>
-      <c r="E701" s="28"/>
+      <c r="B701" s="27"/>
+      <c r="C701" s="26"/>
+      <c r="E701" s="27"/>
     </row>
     <row r="702" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A702" s="25"/>
-      <c r="B702" s="28"/>
-      <c r="C702" s="27"/>
-      <c r="E702" s="28"/>
+      <c r="B702" s="27"/>
+      <c r="C702" s="26"/>
+      <c r="E702" s="27"/>
     </row>
     <row r="703" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A703" s="25"/>
-      <c r="B703" s="28"/>
-      <c r="C703" s="27"/>
-      <c r="E703" s="28"/>
+      <c r="B703" s="27"/>
+      <c r="C703" s="26"/>
+      <c r="E703" s="27"/>
     </row>
     <row r="704" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A704" s="25"/>
-      <c r="B704" s="28"/>
-      <c r="C704" s="27"/>
-      <c r="E704" s="28"/>
+      <c r="B704" s="27"/>
+      <c r="C704" s="26"/>
+      <c r="E704" s="27"/>
     </row>
     <row r="705" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A705" s="25"/>
-      <c r="B705" s="28"/>
-      <c r="C705" s="27"/>
-      <c r="E705" s="28"/>
+      <c r="B705" s="27"/>
+      <c r="C705" s="26"/>
+      <c r="E705" s="27"/>
     </row>
     <row r="706" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A706" s="25"/>
-      <c r="B706" s="28"/>
-      <c r="C706" s="27"/>
-      <c r="E706" s="28"/>
+      <c r="B706" s="27"/>
+      <c r="C706" s="26"/>
+      <c r="E706" s="27"/>
     </row>
     <row r="707" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A707" s="25"/>
-      <c r="B707" s="28"/>
-      <c r="C707" s="27"/>
-      <c r="E707" s="28"/>
+      <c r="B707" s="27"/>
+      <c r="C707" s="26"/>
+      <c r="E707" s="27"/>
     </row>
     <row r="708" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A708" s="25"/>
-      <c r="B708" s="28"/>
-      <c r="C708" s="27"/>
-      <c r="E708" s="28"/>
+      <c r="B708" s="27"/>
+      <c r="C708" s="26"/>
+      <c r="E708" s="27"/>
     </row>
     <row r="709" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A709" s="25"/>
-      <c r="B709" s="28"/>
-      <c r="C709" s="27"/>
-      <c r="E709" s="28"/>
+      <c r="B709" s="27"/>
+      <c r="C709" s="26"/>
+      <c r="E709" s="27"/>
     </row>
     <row r="710" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A710" s="25"/>
-      <c r="B710" s="28"/>
-      <c r="C710" s="27"/>
-      <c r="E710" s="28"/>
+      <c r="B710" s="27"/>
+      <c r="C710" s="26"/>
+      <c r="E710" s="27"/>
     </row>
     <row r="711" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A711" s="25"/>
-      <c r="B711" s="28"/>
-      <c r="C711" s="27"/>
-      <c r="E711" s="28"/>
+      <c r="B711" s="27"/>
+      <c r="C711" s="26"/>
+      <c r="E711" s="27"/>
     </row>
     <row r="712" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A712" s="25"/>
-      <c r="B712" s="28"/>
-      <c r="C712" s="27"/>
-      <c r="E712" s="28"/>
+      <c r="B712" s="27"/>
+      <c r="C712" s="26"/>
+      <c r="E712" s="27"/>
     </row>
     <row r="713" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A713" s="25"/>
-      <c r="B713" s="28"/>
-      <c r="C713" s="27"/>
-      <c r="E713" s="28"/>
+      <c r="B713" s="27"/>
+      <c r="C713" s="26"/>
+      <c r="E713" s="27"/>
     </row>
     <row r="714" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A714" s="25"/>
-      <c r="B714" s="28"/>
-      <c r="C714" s="27"/>
-      <c r="E714" s="28"/>
+      <c r="B714" s="27"/>
+      <c r="C714" s="26"/>
+      <c r="E714" s="27"/>
     </row>
     <row r="715" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A715" s="25"/>
-      <c r="B715" s="28"/>
-      <c r="C715" s="27"/>
-      <c r="E715" s="28"/>
+      <c r="B715" s="27"/>
+      <c r="C715" s="26"/>
+      <c r="E715" s="27"/>
     </row>
     <row r="716" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A716" s="25"/>
-      <c r="B716" s="28"/>
-      <c r="C716" s="27"/>
-      <c r="E716" s="28"/>
+      <c r="B716" s="27"/>
+      <c r="C716" s="26"/>
+      <c r="E716" s="27"/>
     </row>
     <row r="717" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A717" s="25"/>
-      <c r="B717" s="28"/>
-      <c r="C717" s="27"/>
-      <c r="E717" s="28"/>
+      <c r="B717" s="27"/>
+      <c r="C717" s="26"/>
+      <c r="E717" s="27"/>
     </row>
     <row r="718" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A718" s="25"/>
-      <c r="B718" s="28"/>
-      <c r="C718" s="27"/>
-      <c r="E718" s="28"/>
+      <c r="B718" s="27"/>
+      <c r="C718" s="26"/>
+      <c r="E718" s="27"/>
     </row>
     <row r="719" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A719" s="25"/>
-      <c r="B719" s="28"/>
-      <c r="C719" s="27"/>
-      <c r="E719" s="28"/>
+      <c r="B719" s="27"/>
+      <c r="C719" s="26"/>
+      <c r="E719" s="27"/>
     </row>
     <row r="720" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A720" s="25"/>
-      <c r="B720" s="28"/>
-      <c r="C720" s="27"/>
-      <c r="E720" s="28"/>
+      <c r="B720" s="27"/>
+      <c r="C720" s="26"/>
+      <c r="E720" s="27"/>
     </row>
     <row r="721" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A721" s="25"/>
-      <c r="B721" s="28"/>
-      <c r="C721" s="27"/>
-      <c r="E721" s="28"/>
+      <c r="B721" s="27"/>
+      <c r="C721" s="26"/>
+      <c r="E721" s="27"/>
     </row>
     <row r="722" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A722" s="25"/>
-      <c r="B722" s="28"/>
-      <c r="C722" s="27"/>
-      <c r="E722" s="28"/>
+      <c r="B722" s="27"/>
+      <c r="C722" s="26"/>
+      <c r="E722" s="27"/>
     </row>
     <row r="723" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A723" s="25"/>
-      <c r="B723" s="28"/>
-      <c r="C723" s="27"/>
-      <c r="E723" s="28"/>
+      <c r="B723" s="27"/>
+      <c r="C723" s="26"/>
+      <c r="E723" s="27"/>
     </row>
     <row r="724" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A724" s="25"/>
-      <c r="B724" s="28"/>
-      <c r="C724" s="27"/>
-      <c r="E724" s="28"/>
+      <c r="B724" s="27"/>
+      <c r="C724" s="26"/>
+      <c r="E724" s="27"/>
     </row>
     <row r="725" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A725" s="25"/>
-      <c r="B725" s="28"/>
-      <c r="C725" s="27"/>
-      <c r="E725" s="28"/>
+      <c r="B725" s="27"/>
+      <c r="C725" s="26"/>
+      <c r="E725" s="27"/>
     </row>
     <row r="726" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A726" s="25"/>
-      <c r="B726" s="28"/>
-      <c r="C726" s="27"/>
-      <c r="E726" s="28"/>
+      <c r="B726" s="27"/>
+      <c r="C726" s="26"/>
+      <c r="E726" s="27"/>
     </row>
     <row r="727" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A727" s="25"/>
-      <c r="B727" s="28"/>
-      <c r="C727" s="27"/>
-      <c r="E727" s="28"/>
+      <c r="B727" s="27"/>
+      <c r="C727" s="26"/>
+      <c r="E727" s="27"/>
     </row>
     <row r="728" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A728" s="25"/>
-      <c r="B728" s="28"/>
-      <c r="C728" s="27"/>
-      <c r="E728" s="28"/>
+      <c r="B728" s="27"/>
+      <c r="C728" s="26"/>
+      <c r="E728" s="27"/>
     </row>
     <row r="729" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A729" s="25"/>
-      <c r="B729" s="28"/>
-      <c r="C729" s="27"/>
-      <c r="E729" s="28"/>
+      <c r="B729" s="27"/>
+      <c r="C729" s="26"/>
+      <c r="E729" s="27"/>
     </row>
     <row r="730" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A730" s="25"/>
-      <c r="B730" s="28"/>
-      <c r="C730" s="27"/>
-      <c r="E730" s="28"/>
+      <c r="B730" s="27"/>
+      <c r="C730" s="26"/>
+      <c r="E730" s="27"/>
     </row>
     <row r="731" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A731" s="25"/>
-      <c r="B731" s="28"/>
-      <c r="C731" s="27"/>
-      <c r="E731" s="28"/>
+      <c r="B731" s="27"/>
+      <c r="C731" s="26"/>
+      <c r="E731" s="27"/>
     </row>
     <row r="732" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A732" s="25"/>
-      <c r="B732" s="28"/>
-      <c r="C732" s="27"/>
-      <c r="E732" s="28"/>
+      <c r="B732" s="27"/>
+      <c r="C732" s="26"/>
+      <c r="E732" s="27"/>
     </row>
     <row r="733" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A733" s="25"/>
-      <c r="B733" s="28"/>
-      <c r="C733" s="27"/>
-      <c r="E733" s="28"/>
+      <c r="B733" s="27"/>
+      <c r="C733" s="26"/>
+      <c r="E733" s="27"/>
     </row>
     <row r="734" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A734" s="25"/>
-      <c r="B734" s="28"/>
-      <c r="C734" s="27"/>
-      <c r="E734" s="28"/>
+      <c r="B734" s="27"/>
+      <c r="C734" s="26"/>
+      <c r="E734" s="27"/>
     </row>
     <row r="735" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A735" s="25"/>
-      <c r="B735" s="28"/>
-      <c r="C735" s="27"/>
-      <c r="E735" s="28"/>
+      <c r="B735" s="27"/>
+      <c r="C735" s="26"/>
+      <c r="E735" s="27"/>
     </row>
     <row r="736" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A736" s="25"/>
-      <c r="B736" s="28"/>
-      <c r="C736" s="27"/>
-      <c r="E736" s="28"/>
+      <c r="B736" s="27"/>
+      <c r="C736" s="26"/>
+      <c r="E736" s="27"/>
     </row>
     <row r="737" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A737" s="25"/>
-      <c r="B737" s="28"/>
-      <c r="C737" s="27"/>
-      <c r="E737" s="28"/>
+      <c r="B737" s="27"/>
+      <c r="C737" s="26"/>
+      <c r="E737" s="27"/>
     </row>
     <row r="738" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A738" s="25"/>
-      <c r="B738" s="28"/>
-      <c r="C738" s="27"/>
-      <c r="E738" s="28"/>
+      <c r="B738" s="27"/>
+      <c r="C738" s="26"/>
+      <c r="E738" s="27"/>
     </row>
     <row r="739" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A739" s="25"/>
-      <c r="B739" s="28"/>
-      <c r="C739" s="27"/>
-      <c r="E739" s="28"/>
+      <c r="B739" s="27"/>
+      <c r="C739" s="26"/>
+      <c r="E739" s="27"/>
     </row>
     <row r="740" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A740" s="25"/>
-      <c r="B740" s="28"/>
-      <c r="C740" s="27"/>
-      <c r="E740" s="28"/>
+      <c r="B740" s="27"/>
+      <c r="C740" s="26"/>
+      <c r="E740" s="27"/>
     </row>
     <row r="741" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A741" s="25"/>
-      <c r="B741" s="28"/>
-      <c r="C741" s="27"/>
-      <c r="E741" s="28"/>
+      <c r="B741" s="27"/>
+      <c r="C741" s="26"/>
+      <c r="E741" s="27"/>
     </row>
     <row r="742" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A742" s="25"/>
-      <c r="B742" s="28"/>
-      <c r="C742" s="27"/>
-      <c r="E742" s="28"/>
+      <c r="B742" s="27"/>
+      <c r="C742" s="26"/>
+      <c r="E742" s="27"/>
     </row>
     <row r="743" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A743" s="25"/>
-      <c r="B743" s="28"/>
-      <c r="C743" s="27"/>
-      <c r="E743" s="28"/>
+      <c r="B743" s="27"/>
+      <c r="C743" s="26"/>
+      <c r="E743" s="27"/>
     </row>
     <row r="744" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A744" s="25"/>
-      <c r="B744" s="28"/>
-      <c r="C744" s="27"/>
-      <c r="E744" s="28"/>
+      <c r="B744" s="27"/>
+      <c r="C744" s="26"/>
+      <c r="E744" s="27"/>
     </row>
     <row r="745" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A745" s="25"/>
-      <c r="B745" s="28"/>
-      <c r="C745" s="27"/>
-      <c r="E745" s="28"/>
+      <c r="B745" s="27"/>
+      <c r="C745" s="26"/>
+      <c r="E745" s="27"/>
     </row>
     <row r="746" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A746" s="25"/>
-      <c r="B746" s="28"/>
-      <c r="C746" s="27"/>
-      <c r="E746" s="28"/>
+      <c r="B746" s="27"/>
+      <c r="C746" s="26"/>
+      <c r="E746" s="27"/>
     </row>
     <row r="747" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A747" s="25"/>
-      <c r="B747" s="28"/>
-      <c r="C747" s="27"/>
-      <c r="E747" s="28"/>
+      <c r="B747" s="27"/>
+      <c r="C747" s="26"/>
+      <c r="E747" s="27"/>
     </row>
     <row r="748" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A748" s="25"/>
-      <c r="B748" s="28"/>
-      <c r="C748" s="27"/>
-      <c r="E748" s="28"/>
+      <c r="B748" s="27"/>
+      <c r="C748" s="26"/>
+      <c r="E748" s="27"/>
     </row>
     <row r="749" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A749" s="25"/>
-      <c r="B749" s="28"/>
-      <c r="C749" s="27"/>
-      <c r="E749" s="28"/>
+      <c r="B749" s="27"/>
+      <c r="C749" s="26"/>
+      <c r="E749" s="27"/>
     </row>
     <row r="750" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A750" s="25"/>
-      <c r="B750" s="28"/>
-      <c r="C750" s="27"/>
-      <c r="E750" s="28"/>
+      <c r="B750" s="27"/>
+      <c r="C750" s="26"/>
+      <c r="E750" s="27"/>
     </row>
     <row r="751" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A751" s="25"/>
-      <c r="B751" s="28"/>
-      <c r="C751" s="27"/>
-      <c r="E751" s="28"/>
+      <c r="B751" s="27"/>
+      <c r="C751" s="26"/>
+      <c r="E751" s="27"/>
     </row>
     <row r="752" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A752" s="25"/>
-      <c r="B752" s="28"/>
-      <c r="C752" s="27"/>
-      <c r="E752" s="28"/>
+      <c r="B752" s="27"/>
+      <c r="C752" s="26"/>
+      <c r="E752" s="27"/>
     </row>
     <row r="753" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A753" s="25"/>
-      <c r="B753" s="28"/>
-      <c r="C753" s="27"/>
-      <c r="E753" s="28"/>
+      <c r="B753" s="27"/>
+      <c r="C753" s="26"/>
+      <c r="E753" s="27"/>
     </row>
     <row r="754" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A754" s="25"/>
-      <c r="B754" s="28"/>
-      <c r="C754" s="27"/>
-      <c r="E754" s="28"/>
+      <c r="B754" s="27"/>
+      <c r="C754" s="26"/>
+      <c r="E754" s="27"/>
     </row>
     <row r="755" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A755" s="25"/>
-      <c r="B755" s="28"/>
-      <c r="C755" s="27"/>
-      <c r="E755" s="28"/>
+      <c r="B755" s="27"/>
+      <c r="C755" s="26"/>
+      <c r="E755" s="27"/>
     </row>
     <row r="756" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A756" s="25"/>
-      <c r="B756" s="28"/>
-      <c r="C756" s="27"/>
-      <c r="E756" s="28"/>
+      <c r="B756" s="27"/>
+      <c r="C756" s="26"/>
+      <c r="E756" s="27"/>
     </row>
     <row r="757" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A757" s="25"/>
-      <c r="B757" s="28"/>
-      <c r="C757" s="27"/>
-      <c r="E757" s="28"/>
+      <c r="B757" s="27"/>
+      <c r="C757" s="26"/>
+      <c r="E757" s="27"/>
     </row>
     <row r="758" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A758" s="25"/>
-      <c r="B758" s="28"/>
-      <c r="C758" s="27"/>
-      <c r="E758" s="28"/>
+      <c r="B758" s="27"/>
+      <c r="C758" s="26"/>
+      <c r="E758" s="27"/>
     </row>
     <row r="759" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A759" s="25"/>
-      <c r="B759" s="28"/>
-      <c r="C759" s="27"/>
-      <c r="E759" s="28"/>
+      <c r="B759" s="27"/>
+      <c r="C759" s="26"/>
+      <c r="E759" s="27"/>
     </row>
     <row r="760" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A760" s="25"/>
-      <c r="B760" s="28"/>
-      <c r="C760" s="27"/>
-      <c r="E760" s="28"/>
+      <c r="B760" s="27"/>
+      <c r="C760" s="26"/>
+      <c r="E760" s="27"/>
     </row>
     <row r="761" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A761" s="25"/>
-      <c r="B761" s="28"/>
-      <c r="C761" s="27"/>
-      <c r="E761" s="28"/>
+      <c r="B761" s="27"/>
+      <c r="C761" s="26"/>
+      <c r="E761" s="27"/>
     </row>
     <row r="762" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A762" s="25"/>
-      <c r="B762" s="28"/>
-      <c r="C762" s="27"/>
-      <c r="E762" s="28"/>
+      <c r="B762" s="27"/>
+      <c r="C762" s="26"/>
+      <c r="E762" s="27"/>
     </row>
     <row r="763" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A763" s="25"/>
-      <c r="B763" s="28"/>
-      <c r="C763" s="27"/>
-      <c r="E763" s="28"/>
+      <c r="B763" s="27"/>
+      <c r="C763" s="26"/>
+      <c r="E763" s="27"/>
     </row>
     <row r="764" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A764" s="25"/>
-      <c r="B764" s="28"/>
-      <c r="C764" s="27"/>
-      <c r="E764" s="28"/>
+      <c r="B764" s="27"/>
+      <c r="C764" s="26"/>
+      <c r="E764" s="27"/>
     </row>
     <row r="765" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A765" s="25"/>
-      <c r="B765" s="28"/>
-      <c r="C765" s="27"/>
-      <c r="E765" s="28"/>
+      <c r="B765" s="27"/>
+      <c r="C765" s="26"/>
+      <c r="E765" s="27"/>
     </row>
     <row r="766" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A766" s="25"/>
-      <c r="B766" s="28"/>
-      <c r="C766" s="27"/>
-      <c r="E766" s="28"/>
+      <c r="B766" s="27"/>
+      <c r="C766" s="26"/>
+      <c r="E766" s="27"/>
     </row>
     <row r="767" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A767" s="25"/>
-      <c r="B767" s="28"/>
-      <c r="C767" s="27"/>
-      <c r="E767" s="28"/>
+      <c r="B767" s="27"/>
+      <c r="C767" s="26"/>
+      <c r="E767" s="27"/>
     </row>
     <row r="768" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A768" s="25"/>
-      <c r="B768" s="28"/>
-      <c r="C768" s="27"/>
-      <c r="E768" s="28"/>
+      <c r="B768" s="27"/>
+      <c r="C768" s="26"/>
+      <c r="E768" s="27"/>
     </row>
     <row r="769" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A769" s="25"/>
-      <c r="B769" s="28"/>
-      <c r="C769" s="27"/>
-      <c r="E769" s="28"/>
+      <c r="B769" s="27"/>
+      <c r="C769" s="26"/>
+      <c r="E769" s="27"/>
     </row>
     <row r="770" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A770" s="25"/>
-      <c r="B770" s="28"/>
-      <c r="C770" s="27"/>
-      <c r="E770" s="28"/>
+      <c r="B770" s="27"/>
+      <c r="C770" s="26"/>
+      <c r="E770" s="27"/>
     </row>
     <row r="771" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A771" s="25"/>
-      <c r="B771" s="28"/>
-      <c r="C771" s="27"/>
-      <c r="E771" s="28"/>
+      <c r="B771" s="27"/>
+      <c r="C771" s="26"/>
+      <c r="E771" s="27"/>
     </row>
     <row r="772" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A772" s="25"/>
-      <c r="B772" s="28"/>
-      <c r="C772" s="27"/>
-      <c r="E772" s="28"/>
+      <c r="B772" s="27"/>
+      <c r="C772" s="26"/>
+      <c r="E772" s="27"/>
     </row>
     <row r="773" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A773" s="25"/>
-      <c r="B773" s="28"/>
-      <c r="C773" s="27"/>
-      <c r="E773" s="28"/>
+      <c r="B773" s="27"/>
+      <c r="C773" s="26"/>
+      <c r="E773" s="27"/>
     </row>
     <row r="774" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A774" s="25"/>
-      <c r="B774" s="28"/>
-      <c r="C774" s="27"/>
-      <c r="E774" s="28"/>
+      <c r="B774" s="27"/>
+      <c r="C774" s="26"/>
+      <c r="E774" s="27"/>
     </row>
     <row r="775" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A775" s="25"/>
-      <c r="B775" s="28"/>
-      <c r="C775" s="27"/>
-      <c r="E775" s="28"/>
+      <c r="B775" s="27"/>
+      <c r="C775" s="26"/>
+      <c r="E775" s="27"/>
     </row>
     <row r="776" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A776" s="25"/>
-      <c r="B776" s="28"/>
-      <c r="C776" s="27"/>
-      <c r="E776" s="28"/>
+      <c r="B776" s="27"/>
+      <c r="C776" s="26"/>
+      <c r="E776" s="27"/>
     </row>
     <row r="777" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A777" s="25"/>
-      <c r="B777" s="28"/>
-      <c r="C777" s="27"/>
-      <c r="E777" s="28"/>
+      <c r="B777" s="27"/>
+      <c r="C777" s="26"/>
+      <c r="E777" s="27"/>
     </row>
     <row r="778" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A778" s="25"/>
-      <c r="B778" s="28"/>
-      <c r="C778" s="27"/>
-      <c r="E778" s="28"/>
+      <c r="B778" s="27"/>
+      <c r="C778" s="26"/>
+      <c r="E778" s="27"/>
     </row>
     <row r="779" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A779" s="25"/>
-      <c r="B779" s="28"/>
-      <c r="C779" s="27"/>
-      <c r="E779" s="28"/>
+      <c r="B779" s="27"/>
+      <c r="C779" s="26"/>
+      <c r="E779" s="27"/>
     </row>
     <row r="780" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A780" s="25"/>
-      <c r="B780" s="28"/>
-      <c r="C780" s="27"/>
-      <c r="E780" s="28"/>
+      <c r="B780" s="27"/>
+      <c r="C780" s="26"/>
+      <c r="E780" s="27"/>
     </row>
     <row r="781" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A781" s="25"/>
-      <c r="B781" s="28"/>
-      <c r="C781" s="27"/>
-      <c r="E781" s="28"/>
+      <c r="B781" s="27"/>
+      <c r="C781" s="26"/>
+      <c r="E781" s="27"/>
     </row>
     <row r="782" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A782" s="25"/>
-      <c r="B782" s="28"/>
-      <c r="C782" s="27"/>
-      <c r="E782" s="28"/>
+      <c r="B782" s="27"/>
+      <c r="C782" s="26"/>
+      <c r="E782" s="27"/>
     </row>
     <row r="783" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A783" s="25"/>
-      <c r="B783" s="28"/>
-      <c r="C783" s="27"/>
-      <c r="E783" s="28"/>
+      <c r="B783" s="27"/>
+      <c r="C783" s="26"/>
+      <c r="E783" s="27"/>
     </row>
     <row r="784" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A784" s="25"/>
-      <c r="B784" s="28"/>
-      <c r="C784" s="27"/>
-      <c r="E784" s="28"/>
+      <c r="B784" s="27"/>
+      <c r="C784" s="26"/>
+      <c r="E784" s="27"/>
     </row>
     <row r="785" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A785" s="25"/>
-      <c r="B785" s="28"/>
-      <c r="C785" s="27"/>
-      <c r="E785" s="28"/>
+      <c r="B785" s="27"/>
+      <c r="C785" s="26"/>
+      <c r="E785" s="27"/>
     </row>
     <row r="786" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A786" s="25"/>
-      <c r="B786" s="28"/>
-      <c r="C786" s="27"/>
-      <c r="E786" s="28"/>
+      <c r="B786" s="27"/>
+      <c r="C786" s="26"/>
+      <c r="E786" s="27"/>
     </row>
     <row r="787" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A787" s="25"/>
-      <c r="B787" s="28"/>
-      <c r="C787" s="27"/>
-      <c r="E787" s="28"/>
+      <c r="B787" s="27"/>
+      <c r="C787" s="26"/>
+      <c r="E787" s="27"/>
     </row>
     <row r="788" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A788" s="25"/>
-      <c r="B788" s="28"/>
-      <c r="C788" s="27"/>
-      <c r="E788" s="28"/>
+      <c r="B788" s="27"/>
+      <c r="C788" s="26"/>
+      <c r="E788" s="27"/>
     </row>
     <row r="789" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A789" s="25"/>
-      <c r="B789" s="28"/>
-      <c r="C789" s="27"/>
-      <c r="E789" s="28"/>
+      <c r="B789" s="27"/>
+      <c r="C789" s="26"/>
+      <c r="E789" s="27"/>
     </row>
     <row r="790" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A790" s="25"/>
-      <c r="B790" s="28"/>
-      <c r="C790" s="27"/>
-      <c r="E790" s="28"/>
+      <c r="B790" s="27"/>
+      <c r="C790" s="26"/>
+      <c r="E790" s="27"/>
     </row>
     <row r="791" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A791" s="25"/>
-      <c r="B791" s="28"/>
-      <c r="C791" s="27"/>
-      <c r="E791" s="28"/>
+      <c r="B791" s="27"/>
+      <c r="C791" s="26"/>
+      <c r="E791" s="27"/>
     </row>
     <row r="792" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A792" s="25"/>
-      <c r="B792" s="28"/>
-      <c r="C792" s="27"/>
-      <c r="E792" s="28"/>
+      <c r="B792" s="27"/>
+      <c r="C792" s="26"/>
+      <c r="E792" s="27"/>
     </row>
     <row r="793" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A793" s="25"/>
-      <c r="B793" s="28"/>
-      <c r="C793" s="27"/>
-      <c r="E793" s="28"/>
+      <c r="B793" s="27"/>
+      <c r="C793" s="26"/>
+      <c r="E793" s="27"/>
     </row>
     <row r="794" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A794" s="25"/>
-      <c r="B794" s="28"/>
-      <c r="C794" s="27"/>
-      <c r="E794" s="28"/>
+      <c r="B794" s="27"/>
+      <c r="C794" s="26"/>
+      <c r="E794" s="27"/>
     </row>
     <row r="795" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A795" s="25"/>
-      <c r="B795" s="28"/>
-      <c r="C795" s="27"/>
-      <c r="E795" s="28"/>
+      <c r="B795" s="27"/>
+      <c r="C795" s="26"/>
+      <c r="E795" s="27"/>
     </row>
     <row r="796" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A796" s="25"/>
-      <c r="B796" s="28"/>
-      <c r="C796" s="27"/>
-      <c r="E796" s="28"/>
+      <c r="B796" s="27"/>
+      <c r="C796" s="26"/>
+      <c r="E796" s="27"/>
     </row>
     <row r="797" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A797" s="25"/>
-      <c r="B797" s="28"/>
-      <c r="C797" s="27"/>
-      <c r="E797" s="28"/>
+      <c r="B797" s="27"/>
+      <c r="C797" s="26"/>
+      <c r="E797" s="27"/>
     </row>
     <row r="798" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A798" s="25"/>
-      <c r="B798" s="28"/>
-      <c r="C798" s="27"/>
-      <c r="E798" s="28"/>
+      <c r="B798" s="27"/>
+      <c r="C798" s="26"/>
+      <c r="E798" s="27"/>
     </row>
     <row r="799" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A799" s="25"/>
-      <c r="B799" s="28"/>
-      <c r="C799" s="27"/>
-      <c r="E799" s="28"/>
+      <c r="B799" s="27"/>
+      <c r="C799" s="26"/>
+      <c r="E799" s="27"/>
     </row>
     <row r="800" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A800" s="25"/>
-      <c r="B800" s="28"/>
-      <c r="C800" s="27"/>
-      <c r="E800" s="28"/>
+      <c r="B800" s="27"/>
+      <c r="C800" s="26"/>
+      <c r="E800" s="27"/>
     </row>
     <row r="801" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A801" s="25"/>
-      <c r="B801" s="28"/>
-      <c r="C801" s="27"/>
-      <c r="E801" s="28"/>
+      <c r="B801" s="27"/>
+      <c r="C801" s="26"/>
+      <c r="E801" s="27"/>
     </row>
     <row r="802" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A802" s="25"/>
-      <c r="B802" s="28"/>
-      <c r="C802" s="27"/>
-      <c r="E802" s="28"/>
+      <c r="B802" s="27"/>
+      <c r="C802" s="26"/>
+      <c r="E802" s="27"/>
     </row>
     <row r="803" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A803" s="25"/>
-      <c r="B803" s="28"/>
-      <c r="C803" s="27"/>
-      <c r="E803" s="28"/>
+      <c r="B803" s="27"/>
+      <c r="C803" s="26"/>
+      <c r="E803" s="27"/>
     </row>
     <row r="804" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A804" s="25"/>
-      <c r="B804" s="28"/>
-      <c r="C804" s="27"/>
-      <c r="E804" s="28"/>
+      <c r="B804" s="27"/>
+      <c r="C804" s="26"/>
+      <c r="E804" s="27"/>
     </row>
     <row r="805" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A805" s="25"/>
-      <c r="B805" s="28"/>
-      <c r="C805" s="27"/>
-      <c r="E805" s="28"/>
+      <c r="B805" s="27"/>
+      <c r="C805" s="26"/>
+      <c r="E805" s="27"/>
     </row>
     <row r="806" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A806" s="25"/>
-      <c r="B806" s="28"/>
-      <c r="C806" s="27"/>
-      <c r="E806" s="28"/>
+      <c r="B806" s="27"/>
+      <c r="C806" s="26"/>
+      <c r="E806" s="27"/>
     </row>
     <row r="807" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A807" s="25"/>
-      <c r="B807" s="28"/>
-      <c r="C807" s="27"/>
-      <c r="E807" s="28"/>
+      <c r="B807" s="27"/>
+      <c r="C807" s="26"/>
+      <c r="E807" s="27"/>
     </row>
     <row r="808" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A808" s="25"/>
-      <c r="B808" s="28"/>
-      <c r="C808" s="27"/>
-      <c r="E808" s="28"/>
+      <c r="B808" s="27"/>
+      <c r="C808" s="26"/>
+      <c r="E808" s="27"/>
     </row>
     <row r="809" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A809" s="25"/>
-      <c r="B809" s="28"/>
-      <c r="C809" s="27"/>
-      <c r="E809" s="28"/>
+      <c r="B809" s="27"/>
+      <c r="C809" s="26"/>
+      <c r="E809" s="27"/>
     </row>
     <row r="810" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A810" s="25"/>
-      <c r="B810" s="28"/>
-      <c r="C810" s="27"/>
-      <c r="E810" s="28"/>
+      <c r="B810" s="27"/>
+      <c r="C810" s="26"/>
+      <c r="E810" s="27"/>
     </row>
     <row r="811" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A811" s="25"/>
-      <c r="B811" s="28"/>
-      <c r="C811" s="27"/>
-      <c r="E811" s="28"/>
+      <c r="B811" s="27"/>
+      <c r="C811" s="26"/>
+      <c r="E811" s="27"/>
     </row>
     <row r="812" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A812" s="25"/>
-      <c r="B812" s="28"/>
-      <c r="C812" s="27"/>
-      <c r="E812" s="28"/>
+      <c r="B812" s="27"/>
+      <c r="C812" s="26"/>
+      <c r="E812" s="27"/>
     </row>
     <row r="813" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A813" s="25"/>
-      <c r="B813" s="28"/>
-      <c r="C813" s="27"/>
-      <c r="E813" s="28"/>
+      <c r="B813" s="27"/>
+      <c r="C813" s="26"/>
+      <c r="E813" s="27"/>
     </row>
     <row r="814" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A814" s="25"/>
-      <c r="B814" s="28"/>
-      <c r="C814" s="27"/>
-      <c r="E814" s="28"/>
+      <c r="B814" s="27"/>
+      <c r="C814" s="26"/>
+      <c r="E814" s="27"/>
     </row>
     <row r="815" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A815" s="25"/>
-      <c r="B815" s="28"/>
-      <c r="C815" s="27"/>
-      <c r="E815" s="28"/>
+      <c r="B815" s="27"/>
+      <c r="C815" s="26"/>
+      <c r="E815" s="27"/>
     </row>
     <row r="816" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A816" s="25"/>
-      <c r="B816" s="28"/>
-      <c r="C816" s="27"/>
-      <c r="E816" s="28"/>
+      <c r="B816" s="27"/>
+      <c r="C816" s="26"/>
+      <c r="E816" s="27"/>
     </row>
     <row r="817" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A817" s="25"/>
-      <c r="B817" s="28"/>
-      <c r="C817" s="27"/>
-      <c r="E817" s="28"/>
+      <c r="B817" s="27"/>
+      <c r="C817" s="26"/>
+      <c r="E817" s="27"/>
     </row>
     <row r="818" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A818" s="25"/>
-      <c r="B818" s="28"/>
-      <c r="C818" s="27"/>
-      <c r="E818" s="28"/>
+      <c r="B818" s="27"/>
+      <c r="C818" s="26"/>
+      <c r="E818" s="27"/>
     </row>
     <row r="819" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A819" s="25"/>
-      <c r="B819" s="28"/>
-      <c r="C819" s="27"/>
-      <c r="E819" s="28"/>
+      <c r="B819" s="27"/>
+      <c r="C819" s="26"/>
+      <c r="E819" s="27"/>
     </row>
     <row r="820" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A820" s="25"/>
-      <c r="B820" s="28"/>
-      <c r="C820" s="27"/>
-      <c r="E820" s="28"/>
+      <c r="B820" s="27"/>
+      <c r="C820" s="26"/>
+      <c r="E820" s="27"/>
     </row>
     <row r="821" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A821" s="25"/>
-      <c r="B821" s="28"/>
-      <c r="C821" s="27"/>
-      <c r="E821" s="28"/>
+      <c r="B821" s="27"/>
+      <c r="C821" s="26"/>
+      <c r="E821" s="27"/>
     </row>
     <row r="822" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A822" s="25"/>
-      <c r="B822" s="28"/>
-      <c r="C822" s="27"/>
-      <c r="E822" s="28"/>
+      <c r="B822" s="27"/>
+      <c r="C822" s="26"/>
+      <c r="E822" s="27"/>
     </row>
     <row r="823" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A823" s="25"/>
-      <c r="B823" s="28"/>
-      <c r="C823" s="27"/>
-      <c r="E823" s="28"/>
+      <c r="B823" s="27"/>
+      <c r="C823" s="26"/>
+      <c r="E823" s="27"/>
     </row>
     <row r="824" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A824" s="25"/>
-      <c r="B824" s="28"/>
-      <c r="C824" s="27"/>
-      <c r="E824" s="28"/>
+      <c r="B824" s="27"/>
+      <c r="C824" s="26"/>
+      <c r="E824" s="27"/>
     </row>
     <row r="825" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A825" s="25"/>
-      <c r="B825" s="28"/>
-      <c r="C825" s="27"/>
-      <c r="E825" s="28"/>
+      <c r="B825" s="27"/>
+      <c r="C825" s="26"/>
+      <c r="E825" s="27"/>
     </row>
     <row r="826" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A826" s="25"/>
-      <c r="B826" s="28"/>
-      <c r="C826" s="27"/>
-      <c r="E826" s="28"/>
+      <c r="B826" s="27"/>
+      <c r="C826" s="26"/>
+      <c r="E826" s="27"/>
     </row>
     <row r="827" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A827" s="25"/>
-      <c r="B827" s="28"/>
-      <c r="C827" s="27"/>
-      <c r="E827" s="28"/>
+      <c r="B827" s="27"/>
+      <c r="C827" s="26"/>
+      <c r="E827" s="27"/>
     </row>
     <row r="828" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A828" s="25"/>
-      <c r="B828" s="28"/>
-      <c r="C828" s="27"/>
-      <c r="E828" s="28"/>
+      <c r="B828" s="27"/>
+      <c r="C828" s="26"/>
+      <c r="E828" s="27"/>
     </row>
     <row r="829" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A829" s="25"/>
-      <c r="B829" s="28"/>
-      <c r="C829" s="27"/>
-      <c r="E829" s="28"/>
+      <c r="B829" s="27"/>
+      <c r="C829" s="26"/>
+      <c r="E829" s="27"/>
     </row>
     <row r="830" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A830" s="25"/>
-      <c r="B830" s="28"/>
-      <c r="C830" s="27"/>
-      <c r="E830" s="28"/>
+      <c r="B830" s="27"/>
+      <c r="C830" s="26"/>
+      <c r="E830" s="27"/>
     </row>
     <row r="831" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A831" s="25"/>
-      <c r="B831" s="28"/>
-      <c r="C831" s="27"/>
-      <c r="E831" s="28"/>
+      <c r="B831" s="27"/>
+      <c r="C831" s="26"/>
+      <c r="E831" s="27"/>
     </row>
     <row r="832" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A832" s="25"/>
-      <c r="B832" s="28"/>
-      <c r="C832" s="27"/>
-      <c r="E832" s="28"/>
+      <c r="B832" s="27"/>
+      <c r="C832" s="26"/>
+      <c r="E832" s="27"/>
     </row>
     <row r="833" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A833" s="25"/>
-      <c r="B833" s="28"/>
-      <c r="C833" s="27"/>
-      <c r="E833" s="28"/>
+      <c r="B833" s="27"/>
+      <c r="C833" s="26"/>
+      <c r="E833" s="27"/>
     </row>
     <row r="834" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A834" s="25"/>
-      <c r="B834" s="28"/>
-      <c r="C834" s="27"/>
-      <c r="E834" s="28"/>
+      <c r="B834" s="27"/>
+      <c r="C834" s="26"/>
+      <c r="E834" s="27"/>
     </row>
     <row r="835" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A835" s="25"/>
-      <c r="B835" s="28"/>
-      <c r="C835" s="27"/>
-      <c r="E835" s="28"/>
+      <c r="B835" s="27"/>
+      <c r="C835" s="26"/>
+      <c r="E835" s="27"/>
     </row>
     <row r="836" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A836" s="25"/>
-      <c r="B836" s="28"/>
-      <c r="C836" s="27"/>
-      <c r="E836" s="28"/>
+      <c r="B836" s="27"/>
+      <c r="C836" s="26"/>
+      <c r="E836" s="27"/>
     </row>
     <row r="837" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A837" s="25"/>
-      <c r="B837" s="28"/>
-      <c r="C837" s="27"/>
-      <c r="E837" s="28"/>
+      <c r="B837" s="27"/>
+      <c r="C837" s="26"/>
+      <c r="E837" s="27"/>
     </row>
     <row r="838" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A838" s="25"/>
-      <c r="B838" s="28"/>
-      <c r="C838" s="27"/>
-      <c r="E838" s="28"/>
+      <c r="B838" s="27"/>
+      <c r="C838" s="26"/>
+      <c r="E838" s="27"/>
     </row>
     <row r="839" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A839" s="25"/>
-      <c r="B839" s="28"/>
-      <c r="C839" s="27"/>
-      <c r="E839" s="28"/>
+      <c r="B839" s="27"/>
+      <c r="C839" s="26"/>
+      <c r="E839" s="27"/>
     </row>
     <row r="840" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A840" s="25"/>
-      <c r="B840" s="28"/>
-      <c r="C840" s="27"/>
-      <c r="E840" s="28"/>
+      <c r="B840" s="27"/>
+      <c r="C840" s="26"/>
+      <c r="E840" s="27"/>
     </row>
     <row r="841" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A841" s="25"/>
-      <c r="B841" s="28"/>
-      <c r="C841" s="27"/>
-      <c r="E841" s="28"/>
+      <c r="B841" s="27"/>
+      <c r="C841" s="26"/>
+      <c r="E841" s="27"/>
     </row>
     <row r="842" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A842" s="25"/>
-      <c r="B842" s="28"/>
-      <c r="C842" s="27"/>
-      <c r="E842" s="28"/>
+      <c r="B842" s="27"/>
+      <c r="C842" s="26"/>
+      <c r="E842" s="27"/>
     </row>
     <row r="843" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A843" s="25"/>
-      <c r="B843" s="28"/>
-      <c r="C843" s="27"/>
-      <c r="E843" s="28"/>
+      <c r="B843" s="27"/>
+      <c r="C843" s="26"/>
+      <c r="E843" s="27"/>
     </row>
     <row r="844" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A844" s="25"/>
-      <c r="B844" s="28"/>
-      <c r="C844" s="27"/>
-      <c r="E844" s="28"/>
+      <c r="B844" s="27"/>
+      <c r="C844" s="26"/>
+      <c r="E844" s="27"/>
     </row>
     <row r="845" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A845" s="25"/>
-      <c r="B845" s="28"/>
-      <c r="C845" s="27"/>
-      <c r="E845" s="28"/>
+      <c r="B845" s="27"/>
+      <c r="C845" s="26"/>
+      <c r="E845" s="27"/>
     </row>
     <row r="846" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A846" s="25"/>
-      <c r="B846" s="28"/>
-      <c r="C846" s="27"/>
-      <c r="E846" s="28"/>
+      <c r="B846" s="27"/>
+      <c r="C846" s="26"/>
+      <c r="E846" s="27"/>
     </row>
     <row r="847" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A847" s="25"/>
-      <c r="B847" s="28"/>
-      <c r="C847" s="27"/>
-      <c r="E847" s="28"/>
+      <c r="B847" s="27"/>
+      <c r="C847" s="26"/>
+      <c r="E847" s="27"/>
     </row>
     <row r="848" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A848" s="25"/>
-      <c r="B848" s="28"/>
-      <c r="C848" s="27"/>
-      <c r="E848" s="28"/>
+      <c r="B848" s="27"/>
+      <c r="C848" s="26"/>
+      <c r="E848" s="27"/>
     </row>
     <row r="849" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A849" s="25"/>
-      <c r="B849" s="28"/>
-      <c r="C849" s="27"/>
-      <c r="E849" s="28"/>
+      <c r="B849" s="27"/>
+      <c r="C849" s="26"/>
+      <c r="E849" s="27"/>
     </row>
     <row r="850" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A850" s="25"/>
-      <c r="B850" s="28"/>
-      <c r="C850" s="27"/>
-      <c r="E850" s="28"/>
+      <c r="B850" s="27"/>
+      <c r="C850" s="26"/>
+      <c r="E850" s="27"/>
     </row>
     <row r="851" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A851" s="25"/>
-      <c r="B851" s="28"/>
-      <c r="C851" s="27"/>
-      <c r="E851" s="28"/>
+      <c r="B851" s="27"/>
+      <c r="C851" s="26"/>
+      <c r="E851" s="27"/>
     </row>
     <row r="852" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A852" s="25"/>
-      <c r="B852" s="28"/>
-      <c r="C852" s="27"/>
-      <c r="E852" s="28"/>
+      <c r="B852" s="27"/>
+      <c r="C852" s="26"/>
+      <c r="E852" s="27"/>
     </row>
     <row r="853" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A853" s="25"/>
-      <c r="B853" s="28"/>
-      <c r="C853" s="27"/>
-      <c r="E853" s="28"/>
+      <c r="B853" s="27"/>
+      <c r="C853" s="26"/>
+      <c r="E853" s="27"/>
     </row>
     <row r="854" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A854" s="25"/>
-      <c r="B854" s="28"/>
-      <c r="C854" s="27"/>
-      <c r="E854" s="28"/>
+      <c r="B854" s="27"/>
+      <c r="C854" s="26"/>
+      <c r="E854" s="27"/>
     </row>
     <row r="855" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A855" s="25"/>
-      <c r="B855" s="28"/>
-      <c r="C855" s="27"/>
-      <c r="E855" s="28"/>
+      <c r="B855" s="27"/>
+      <c r="C855" s="26"/>
+      <c r="E855" s="27"/>
     </row>
     <row r="856" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A856" s="25"/>
-      <c r="B856" s="28"/>
-      <c r="C856" s="27"/>
-      <c r="E856" s="28"/>
+      <c r="B856" s="27"/>
+      <c r="C856" s="26"/>
+      <c r="E856" s="27"/>
     </row>
     <row r="857" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A857" s="25"/>
-      <c r="B857" s="28"/>
-      <c r="C857" s="27"/>
-      <c r="E857" s="28"/>
+      <c r="B857" s="27"/>
+      <c r="C857" s="26"/>
+      <c r="E857" s="27"/>
     </row>
     <row r="858" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A858" s="25"/>
-      <c r="B858" s="28"/>
-      <c r="C858" s="27"/>
-      <c r="E858" s="28"/>
+      <c r="B858" s="27"/>
+      <c r="C858" s="26"/>
+      <c r="E858" s="27"/>
     </row>
     <row r="859" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A859" s="25"/>
-      <c r="B859" s="28"/>
-      <c r="C859" s="27"/>
-      <c r="E859" s="28"/>
+      <c r="B859" s="27"/>
+      <c r="C859" s="26"/>
+      <c r="E859" s="27"/>
     </row>
     <row r="860" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A860" s="25"/>
-      <c r="B860" s="28"/>
-      <c r="C860" s="27"/>
-      <c r="E860" s="28"/>
+      <c r="B860" s="27"/>
+      <c r="C860" s="26"/>
+      <c r="E860" s="27"/>
     </row>
     <row r="861" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A861" s="25"/>
-      <c r="B861" s="28"/>
-      <c r="C861" s="27"/>
-      <c r="E861" s="28"/>
+      <c r="B861" s="27"/>
+      <c r="C861" s="26"/>
+      <c r="E861" s="27"/>
     </row>
     <row r="862" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A862" s="25"/>
-      <c r="B862" s="28"/>
-      <c r="C862" s="27"/>
-      <c r="E862" s="28"/>
+      <c r="B862" s="27"/>
+      <c r="C862" s="26"/>
+      <c r="E862" s="27"/>
     </row>
     <row r="863" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A863" s="25"/>
-      <c r="B863" s="28"/>
-      <c r="C863" s="27"/>
-      <c r="E863" s="28"/>
+      <c r="B863" s="27"/>
+      <c r="C863" s="26"/>
+      <c r="E863" s="27"/>
     </row>
     <row r="864" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A864" s="25"/>
-      <c r="B864" s="28"/>
-      <c r="C864" s="27"/>
-      <c r="E864" s="28"/>
+      <c r="B864" s="27"/>
+      <c r="C864" s="26"/>
+      <c r="E864" s="27"/>
     </row>
     <row r="865" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A865" s="25"/>
-      <c r="B865" s="28"/>
-      <c r="C865" s="27"/>
-      <c r="E865" s="28"/>
+      <c r="B865" s="27"/>
+      <c r="C865" s="26"/>
+      <c r="E865" s="27"/>
     </row>
     <row r="866" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A866" s="25"/>
-      <c r="B866" s="28"/>
-      <c r="C866" s="27"/>
-      <c r="E866" s="28"/>
+      <c r="B866" s="27"/>
+      <c r="C866" s="26"/>
+      <c r="E866" s="27"/>
     </row>
     <row r="867" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A867" s="25"/>
-      <c r="B867" s="28"/>
-      <c r="C867" s="27"/>
-      <c r="E867" s="28"/>
+      <c r="B867" s="27"/>
+      <c r="C867" s="26"/>
+      <c r="E867" s="27"/>
     </row>
     <row r="868" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A868" s="25"/>
-      <c r="B868" s="28"/>
-      <c r="C868" s="27"/>
-      <c r="E868" s="28"/>
+      <c r="B868" s="27"/>
+      <c r="C868" s="26"/>
+      <c r="E868" s="27"/>
     </row>
     <row r="869" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A869" s="25"/>
-      <c r="B869" s="28"/>
-      <c r="C869" s="27"/>
-      <c r="E869" s="28"/>
+      <c r="B869" s="27"/>
+      <c r="C869" s="26"/>
+      <c r="E869" s="27"/>
     </row>
     <row r="870" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A870" s="25"/>
-      <c r="B870" s="28"/>
-      <c r="C870" s="27"/>
-      <c r="E870" s="28"/>
+      <c r="B870" s="27"/>
+      <c r="C870" s="26"/>
+      <c r="E870" s="27"/>
     </row>
     <row r="871" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A871" s="25"/>
-      <c r="B871" s="28"/>
-      <c r="C871" s="27"/>
-      <c r="E871" s="28"/>
+      <c r="B871" s="27"/>
+      <c r="C871" s="26"/>
+      <c r="E871" s="27"/>
     </row>
     <row r="872" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A872" s="25"/>
-      <c r="B872" s="28"/>
-      <c r="C872" s="27"/>
-      <c r="E872" s="28"/>
+      <c r="B872" s="27"/>
+      <c r="C872" s="26"/>
+      <c r="E872" s="27"/>
     </row>
     <row r="873" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A873" s="25"/>
-      <c r="B873" s="28"/>
-      <c r="C873" s="27"/>
-      <c r="E873" s="28"/>
+      <c r="B873" s="27"/>
+      <c r="C873" s="26"/>
+      <c r="E873" s="27"/>
     </row>
     <row r="874" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A874" s="25"/>
-      <c r="B874" s="28"/>
-      <c r="C874" s="27"/>
-      <c r="E874" s="28"/>
+      <c r="B874" s="27"/>
+      <c r="C874" s="26"/>
+      <c r="E874" s="27"/>
     </row>
     <row r="875" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A875" s="25"/>
-      <c r="B875" s="28"/>
-      <c r="C875" s="27"/>
-      <c r="E875" s="28"/>
+      <c r="B875" s="27"/>
+      <c r="C875" s="26"/>
+      <c r="E875" s="27"/>
     </row>
     <row r="876" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A876" s="25"/>
-      <c r="B876" s="28"/>
-      <c r="C876" s="27"/>
-      <c r="E876" s="28"/>
+      <c r="B876" s="27"/>
+      <c r="C876" s="26"/>
+      <c r="E876" s="27"/>
     </row>
     <row r="877" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A877" s="25"/>
-      <c r="B877" s="28"/>
-      <c r="C877" s="27"/>
-      <c r="E877" s="28"/>
+      <c r="B877" s="27"/>
+      <c r="C877" s="26"/>
+      <c r="E877" s="27"/>
     </row>
     <row r="878" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A878" s="25"/>
-      <c r="B878" s="28"/>
-      <c r="C878" s="27"/>
-      <c r="E878" s="28"/>
+      <c r="B878" s="27"/>
+      <c r="C878" s="26"/>
+      <c r="E878" s="27"/>
     </row>
     <row r="879" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A879" s="25"/>
-      <c r="B879" s="28"/>
-      <c r="C879" s="27"/>
-      <c r="E879" s="28"/>
+      <c r="B879" s="27"/>
+      <c r="C879" s="26"/>
+      <c r="E879" s="27"/>
     </row>
     <row r="880" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A880" s="25"/>
-      <c r="B880" s="28"/>
-      <c r="C880" s="27"/>
-      <c r="E880" s="28"/>
+      <c r="B880" s="27"/>
+      <c r="C880" s="26"/>
+      <c r="E880" s="27"/>
     </row>
     <row r="881" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A881" s="25"/>
-      <c r="B881" s="28"/>
-      <c r="C881" s="27"/>
-      <c r="E881" s="28"/>
+      <c r="B881" s="27"/>
+      <c r="C881" s="26"/>
+      <c r="E881" s="27"/>
     </row>
     <row r="882" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A882" s="25"/>
-      <c r="B882" s="28"/>
-      <c r="C882" s="27"/>
-      <c r="E882" s="28"/>
+      <c r="B882" s="27"/>
+      <c r="C882" s="26"/>
+      <c r="E882" s="27"/>
     </row>
     <row r="883" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A883" s="25"/>
-      <c r="B883" s="28"/>
-      <c r="C883" s="27"/>
-      <c r="E883" s="28"/>
+      <c r="B883" s="27"/>
+      <c r="C883" s="26"/>
+      <c r="E883" s="27"/>
     </row>
     <row r="884" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A884" s="25"/>
-      <c r="B884" s="28"/>
-      <c r="C884" s="27"/>
-      <c r="E884" s="28"/>
+      <c r="B884" s="27"/>
+      <c r="C884" s="26"/>
+      <c r="E884" s="27"/>
     </row>
     <row r="885" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A885" s="25"/>
-      <c r="B885" s="28"/>
-      <c r="C885" s="27"/>
-      <c r="E885" s="28"/>
+      <c r="B885" s="27"/>
+      <c r="C885" s="26"/>
+      <c r="E885" s="27"/>
     </row>
     <row r="886" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A886" s="25"/>
-      <c r="B886" s="28"/>
-      <c r="C886" s="27"/>
-      <c r="E886" s="28"/>
+      <c r="B886" s="27"/>
+      <c r="C886" s="26"/>
+      <c r="E886" s="27"/>
     </row>
     <row r="887" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A887" s="25"/>
-      <c r="B887" s="28"/>
-      <c r="C887" s="27"/>
-      <c r="E887" s="28"/>
+      <c r="B887" s="27"/>
+      <c r="C887" s="26"/>
+      <c r="E887" s="27"/>
     </row>
     <row r="888" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A888" s="25"/>
-      <c r="B888" s="28"/>
-      <c r="C888" s="27"/>
-      <c r="E888" s="28"/>
+      <c r="B888" s="27"/>
+      <c r="C888" s="26"/>
+      <c r="E888" s="27"/>
     </row>
     <row r="889" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A889" s="25"/>
-      <c r="B889" s="28"/>
-      <c r="C889" s="27"/>
-      <c r="E889" s="28"/>
+      <c r="B889" s="27"/>
+      <c r="C889" s="26"/>
+      <c r="E889" s="27"/>
     </row>
     <row r="890" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A890" s="25"/>
-      <c r="B890" s="28"/>
-      <c r="C890" s="27"/>
-      <c r="E890" s="28"/>
+      <c r="B890" s="27"/>
+      <c r="C890" s="26"/>
+      <c r="E890" s="27"/>
     </row>
     <row r="891" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A891" s="25"/>
-      <c r="B891" s="28"/>
-      <c r="C891" s="27"/>
-      <c r="E891" s="28"/>
+      <c r="B891" s="27"/>
+      <c r="C891" s="26"/>
+      <c r="E891" s="27"/>
     </row>
     <row r="892" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A892" s="25"/>
-      <c r="B892" s="28"/>
-      <c r="C892" s="27"/>
-      <c r="E892" s="28"/>
+      <c r="B892" s="27"/>
+      <c r="C892" s="26"/>
+      <c r="E892" s="27"/>
     </row>
     <row r="893" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A893" s="25"/>
-      <c r="B893" s="28"/>
-      <c r="C893" s="27"/>
-      <c r="E893" s="28"/>
+      <c r="B893" s="27"/>
+      <c r="C893" s="26"/>
+      <c r="E893" s="27"/>
     </row>
     <row r="894" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A894" s="25"/>
-      <c r="B894" s="28"/>
-      <c r="C894" s="27"/>
-      <c r="E894" s="28"/>
+      <c r="B894" s="27"/>
+      <c r="C894" s="26"/>
+      <c r="E894" s="27"/>
     </row>
     <row r="895" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A895" s="25"/>
-      <c r="B895" s="28"/>
-      <c r="C895" s="27"/>
-      <c r="E895" s="28"/>
+      <c r="B895" s="27"/>
+      <c r="C895" s="26"/>
+      <c r="E895" s="27"/>
     </row>
     <row r="896" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A896" s="25"/>
-      <c r="B896" s="28"/>
-      <c r="C896" s="27"/>
-      <c r="E896" s="28"/>
+      <c r="B896" s="27"/>
+      <c r="C896" s="26"/>
+      <c r="E896" s="27"/>
     </row>
     <row r="897" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A897" s="25"/>
-      <c r="B897" s="28"/>
-      <c r="C897" s="27"/>
-      <c r="E897" s="28"/>
+      <c r="B897" s="27"/>
+      <c r="C897" s="26"/>
+      <c r="E897" s="27"/>
     </row>
     <row r="898" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A898" s="25"/>
-      <c r="B898" s="28"/>
-      <c r="C898" s="27"/>
-      <c r="E898" s="28"/>
+      <c r="B898" s="27"/>
+      <c r="C898" s="26"/>
+      <c r="E898" s="27"/>
     </row>
     <row r="899" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A899" s="25"/>
-      <c r="B899" s="28"/>
-      <c r="C899" s="27"/>
-      <c r="E899" s="28"/>
+      <c r="B899" s="27"/>
+      <c r="C899" s="26"/>
+      <c r="E899" s="27"/>
     </row>
     <row r="900" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A900" s="25"/>
-      <c r="B900" s="28"/>
-      <c r="C900" s="27"/>
-      <c r="E900" s="28"/>
+      <c r="B900" s="27"/>
+      <c r="C900" s="26"/>
+      <c r="E900" s="27"/>
     </row>
     <row r="901" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A901" s="25"/>
-      <c r="B901" s="28"/>
-      <c r="C901" s="27"/>
-      <c r="E901" s="28"/>
+      <c r="B901" s="27"/>
+      <c r="C901" s="26"/>
+      <c r="E901" s="27"/>
     </row>
     <row r="902" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A902" s="25"/>
-      <c r="B902" s="28"/>
-      <c r="C902" s="27"/>
-      <c r="E902" s="28"/>
+      <c r="B902" s="27"/>
+      <c r="C902" s="26"/>
+      <c r="E902" s="27"/>
     </row>
     <row r="903" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A903" s="25"/>
-      <c r="B903" s="28"/>
-      <c r="C903" s="27"/>
-      <c r="E903" s="28"/>
+      <c r="B903" s="27"/>
+      <c r="C903" s="26"/>
+      <c r="E903" s="27"/>
     </row>
     <row r="904" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A904" s="25"/>
-      <c r="B904" s="28"/>
-      <c r="C904" s="27"/>
-      <c r="E904" s="28"/>
+      <c r="B904" s="27"/>
+      <c r="C904" s="26"/>
+      <c r="E904" s="27"/>
     </row>
     <row r="905" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A905" s="25"/>
-      <c r="B905" s="28"/>
-      <c r="C905" s="27"/>
-      <c r="E905" s="28"/>
+      <c r="B905" s="27"/>
+      <c r="C905" s="26"/>
+      <c r="E905" s="27"/>
     </row>
     <row r="906" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A906" s="25"/>
-      <c r="B906" s="28"/>
-      <c r="C906" s="27"/>
-      <c r="E906" s="28"/>
+      <c r="B906" s="27"/>
+      <c r="C906" s="26"/>
+      <c r="E906" s="27"/>
     </row>
     <row r="907" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A907" s="25"/>
-      <c r="B907" s="28"/>
-      <c r="C907" s="27"/>
-      <c r="E907" s="28"/>
+      <c r="B907" s="27"/>
+      <c r="C907" s="26"/>
+      <c r="E907" s="27"/>
     </row>
     <row r="908" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A908" s="25"/>
-      <c r="B908" s="28"/>
-      <c r="C908" s="27"/>
-      <c r="E908" s="28"/>
+      <c r="B908" s="27"/>
+      <c r="C908" s="26"/>
+      <c r="E908" s="27"/>
     </row>
     <row r="909" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A909" s="25"/>
-      <c r="B909" s="28"/>
-      <c r="C909" s="27"/>
-      <c r="E909" s="28"/>
+      <c r="B909" s="27"/>
+      <c r="C909" s="26"/>
+      <c r="E909" s="27"/>
     </row>
     <row r="910" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A910" s="25"/>
-      <c r="B910" s="28"/>
-      <c r="C910" s="27"/>
-      <c r="E910" s="28"/>
+      <c r="B910" s="27"/>
+      <c r="C910" s="26"/>
+      <c r="E910" s="27"/>
     </row>
     <row r="911" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A911" s="25"/>
-      <c r="B911" s="28"/>
-      <c r="C911" s="27"/>
-      <c r="E911" s="28"/>
+      <c r="B911" s="27"/>
+      <c r="C911" s="26"/>
+      <c r="E911" s="27"/>
     </row>
     <row r="912" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A912" s="25"/>
-      <c r="B912" s="28"/>
-      <c r="C912" s="27"/>
-      <c r="E912" s="28"/>
+      <c r="B912" s="27"/>
+      <c r="C912" s="26"/>
+      <c r="E912" s="27"/>
     </row>
     <row r="913" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A913" s="25"/>
-      <c r="B913" s="28"/>
-      <c r="C913" s="27"/>
-      <c r="E913" s="28"/>
+      <c r="B913" s="27"/>
+      <c r="C913" s="26"/>
+      <c r="E913" s="27"/>
     </row>
     <row r="914" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A914" s="25"/>
-      <c r="B914" s="28"/>
-      <c r="C914" s="27"/>
-      <c r="E914" s="28"/>
+      <c r="B914" s="27"/>
+      <c r="C914" s="26"/>
+      <c r="E914" s="27"/>
     </row>
     <row r="915" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A915" s="25"/>
-      <c r="B915" s="28"/>
-      <c r="C915" s="27"/>
-      <c r="E915" s="28"/>
+      <c r="B915" s="27"/>
+      <c r="C915" s="26"/>
+      <c r="E915" s="27"/>
     </row>
     <row r="916" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A916" s="25"/>
-      <c r="B916" s="28"/>
-      <c r="C916" s="27"/>
-      <c r="E916" s="28"/>
+      <c r="B916" s="27"/>
+      <c r="C916" s="26"/>
+      <c r="E916" s="27"/>
     </row>
     <row r="917" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A917" s="25"/>
-      <c r="B917" s="28"/>
-      <c r="C917" s="27"/>
-      <c r="E917" s="28"/>
+      <c r="B917" s="27"/>
+      <c r="C917" s="26"/>
+      <c r="E917" s="27"/>
     </row>
     <row r="918" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A918" s="25"/>
-      <c r="B918" s="28"/>
-      <c r="C918" s="27"/>
-      <c r="E918" s="28"/>
+      <c r="B918" s="27"/>
+      <c r="C918" s="26"/>
+      <c r="E918" s="27"/>
     </row>
     <row r="919" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A919" s="25"/>
-      <c r="B919" s="28"/>
-      <c r="C919" s="27"/>
-      <c r="E919" s="28"/>
+      <c r="B919" s="27"/>
+      <c r="C919" s="26"/>
+      <c r="E919" s="27"/>
     </row>
     <row r="920" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A920" s="25"/>
-      <c r="B920" s="28"/>
-      <c r="C920" s="27"/>
-      <c r="E920" s="28"/>
+      <c r="B920" s="27"/>
+      <c r="C920" s="26"/>
+      <c r="E920" s="27"/>
     </row>
     <row r="921" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A921" s="25"/>
-      <c r="B921" s="28"/>
-      <c r="C921" s="27"/>
-      <c r="E921" s="28"/>
+      <c r="B921" s="27"/>
+      <c r="C921" s="26"/>
+      <c r="E921" s="27"/>
     </row>
     <row r="922" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A922" s="25"/>
-      <c r="B922" s="28"/>
-      <c r="C922" s="27"/>
-      <c r="E922" s="28"/>
+      <c r="B922" s="27"/>
+      <c r="C922" s="26"/>
+      <c r="E922" s="27"/>
     </row>
     <row r="923" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A923" s="25"/>
-      <c r="B923" s="28"/>
-      <c r="C923" s="27"/>
-      <c r="E923" s="28"/>
+      <c r="B923" s="27"/>
+      <c r="C923" s="26"/>
+      <c r="E923" s="27"/>
     </row>
     <row r="924" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A924" s="25"/>
-      <c r="B924" s="28"/>
-      <c r="C924" s="27"/>
-      <c r="E924" s="28"/>
+      <c r="B924" s="27"/>
+      <c r="C924" s="26"/>
+      <c r="E924" s="27"/>
     </row>
     <row r="925" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A925" s="25"/>
-      <c r="B925" s="28"/>
-      <c r="C925" s="27"/>
-      <c r="E925" s="28"/>
+      <c r="B925" s="27"/>
+      <c r="C925" s="26"/>
+      <c r="E925" s="27"/>
     </row>
     <row r="926" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A926" s="25"/>
-      <c r="B926" s="28"/>
-      <c r="C926" s="27"/>
-      <c r="E926" s="28"/>
+      <c r="B926" s="27"/>
+      <c r="C926" s="26"/>
+      <c r="E926" s="27"/>
     </row>
     <row r="927" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A927" s="25"/>
-      <c r="B927" s="28"/>
-      <c r="C927" s="27"/>
-      <c r="E927" s="28"/>
+      <c r="B927" s="27"/>
+      <c r="C927" s="26"/>
+      <c r="E927" s="27"/>
     </row>
     <row r="928" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A928" s="25"/>
-      <c r="B928" s="28"/>
-      <c r="C928" s="27"/>
-      <c r="E928" s="28"/>
+      <c r="B928" s="27"/>
+      <c r="C928" s="26"/>
+      <c r="E928" s="27"/>
     </row>
     <row r="929" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A929" s="25"/>
-      <c r="B929" s="28"/>
-      <c r="C929" s="27"/>
-      <c r="E929" s="28"/>
+      <c r="B929" s="27"/>
+      <c r="C929" s="26"/>
+      <c r="E929" s="27"/>
     </row>
     <row r="930" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A930" s="25"/>
-      <c r="B930" s="28"/>
-      <c r="C930" s="27"/>
-      <c r="E930" s="28"/>
+      <c r="B930" s="27"/>
+      <c r="C930" s="26"/>
+      <c r="E930" s="27"/>
     </row>
     <row r="931" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A931" s="25"/>
-      <c r="B931" s="28"/>
-      <c r="C931" s="27"/>
-      <c r="E931" s="28"/>
+      <c r="B931" s="27"/>
+      <c r="C931" s="26"/>
+      <c r="E931" s="27"/>
     </row>
     <row r="932" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A932" s="25"/>
-      <c r="B932" s="28"/>
-      <c r="C932" s="27"/>
-      <c r="E932" s="28"/>
+      <c r="B932" s="27"/>
+      <c r="C932" s="26"/>
+      <c r="E932" s="27"/>
     </row>
     <row r="933" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A933" s="25"/>
-      <c r="B933" s="28"/>
-      <c r="C933" s="27"/>
-      <c r="E933" s="28"/>
+      <c r="B933" s="27"/>
+      <c r="C933" s="26"/>
+      <c r="E933" s="27"/>
     </row>
     <row r="934" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A934" s="25"/>
-      <c r="B934" s="28"/>
-      <c r="C934" s="27"/>
-      <c r="E934" s="28"/>
+      <c r="B934" s="27"/>
+      <c r="C934" s="26"/>
+      <c r="E934" s="27"/>
     </row>
     <row r="935" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A935" s="25"/>
-      <c r="B935" s="28"/>
-      <c r="C935" s="27"/>
-      <c r="E935" s="28"/>
+      <c r="B935" s="27"/>
+      <c r="C935" s="26"/>
+      <c r="E935" s="27"/>
     </row>
     <row r="936" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A936" s="25"/>
-      <c r="B936" s="28"/>
-      <c r="C936" s="27"/>
-      <c r="E936" s="28"/>
+      <c r="B936" s="27"/>
+      <c r="C936" s="26"/>
+      <c r="E936" s="27"/>
     </row>
     <row r="937" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A937" s="25"/>
-      <c r="B937" s="28"/>
-      <c r="C937" s="27"/>
-      <c r="E937" s="28"/>
+      <c r="B937" s="27"/>
+      <c r="C937" s="26"/>
+      <c r="E937" s="27"/>
     </row>
     <row r="938" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A938" s="25"/>
-      <c r="B938" s="28"/>
-      <c r="C938" s="27"/>
-      <c r="E938" s="28"/>
+      <c r="B938" s="27"/>
+      <c r="C938" s="26"/>
+      <c r="E938" s="27"/>
     </row>
     <row r="939" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A939" s="25"/>
-      <c r="B939" s="28"/>
-      <c r="C939" s="27"/>
-      <c r="E939" s="28"/>
+      <c r="B939" s="27"/>
+      <c r="C939" s="26"/>
+      <c r="E939" s="27"/>
     </row>
     <row r="940" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A940" s="25"/>
-      <c r="B940" s="28"/>
-      <c r="C940" s="27"/>
-      <c r="E940" s="28"/>
+      <c r="B940" s="27"/>
+      <c r="C940" s="26"/>
+      <c r="E940" s="27"/>
     </row>
     <row r="941" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A941" s="25"/>
-      <c r="B941" s="28"/>
-      <c r="C941" s="27"/>
-      <c r="E941" s="28"/>
+      <c r="B941" s="27"/>
+      <c r="C941" s="26"/>
+      <c r="E941" s="27"/>
     </row>
     <row r="942" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A942" s="25"/>
-      <c r="B942" s="28"/>
-      <c r="C942" s="27"/>
-      <c r="E942" s="28"/>
+      <c r="B942" s="27"/>
+      <c r="C942" s="26"/>
+      <c r="E942" s="27"/>
     </row>
     <row r="943" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A943" s="25"/>
-      <c r="B943" s="28"/>
-      <c r="C943" s="27"/>
-      <c r="E943" s="28"/>
+      <c r="B943" s="27"/>
+      <c r="C943" s="26"/>
+      <c r="E943" s="27"/>
     </row>
     <row r="944" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A944" s="25"/>
-      <c r="B944" s="28"/>
-      <c r="C944" s="27"/>
-      <c r="E944" s="28"/>
+      <c r="B944" s="27"/>
+      <c r="C944" s="26"/>
+      <c r="E944" s="27"/>
     </row>
     <row r="945" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A945" s="25"/>
-      <c r="B945" s="28"/>
-      <c r="C945" s="27"/>
-      <c r="E945" s="28"/>
+      <c r="B945" s="27"/>
+      <c r="C945" s="26"/>
+      <c r="E945" s="27"/>
     </row>
     <row r="946" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A946" s="25"/>
-      <c r="B946" s="28"/>
-      <c r="C946" s="27"/>
-      <c r="E946" s="28"/>
+      <c r="B946" s="27"/>
+      <c r="C946" s="26"/>
+      <c r="E946" s="27"/>
     </row>
     <row r="947" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A947" s="25"/>
-      <c r="B947" s="28"/>
-      <c r="C947" s="27"/>
-      <c r="E947" s="28"/>
+      <c r="B947" s="27"/>
+      <c r="C947" s="26"/>
+      <c r="E947" s="27"/>
     </row>
     <row r="948" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A948" s="25"/>
-      <c r="B948" s="28"/>
-      <c r="C948" s="27"/>
-      <c r="E948" s="28"/>
+      <c r="B948" s="27"/>
+      <c r="C948" s="26"/>
+      <c r="E948" s="27"/>
     </row>
     <row r="949" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A949" s="25"/>
-      <c r="B949" s="28"/>
-      <c r="C949" s="27"/>
-      <c r="E949" s="28"/>
+      <c r="B949" s="27"/>
+      <c r="C949" s="26"/>
+      <c r="E949" s="27"/>
     </row>
     <row r="950" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A950" s="25"/>
-      <c r="B950" s="28"/>
-      <c r="C950" s="27"/>
-      <c r="E950" s="28"/>
+      <c r="B950" s="27"/>
+      <c r="C950" s="26"/>
+      <c r="E950" s="27"/>
     </row>
     <row r="1048438" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048439" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/Check.xlsx
+++ b/Check.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист 1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Лист 1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="170">
   <si>
     <t xml:space="preserve">Продукт:</t>
   </si>
@@ -488,6 +488,48 @@
   </si>
   <si>
     <t xml:space="preserve">При нажатии «Отмена» дата не сохраняется</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Производительность</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нагрузочное тестирование</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Объёмное тестирование</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стрессовое тестирование</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Безопасность</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проверка общей безопасности</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тестирование доступа</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Анализ рисков атак</t>
   </si>
 </sst>
 </file>
@@ -808,16 +850,122 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <tabColor rgb="FF38761D"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:Z1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A67" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B79" activeCellId="0" sqref="B79"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A61" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B87" activeCellId="0" sqref="B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2316,51 +2464,111 @@
       <c r="F74" s="14"/>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="19"/>
-      <c r="B75" s="14"/>
-      <c r="C75" s="18"/>
-      <c r="D75" s="13"/>
-      <c r="E75" s="15"/>
+      <c r="A75" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="B75" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="C75" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="D75" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E75" s="15" t="s">
+        <v>45</v>
+      </c>
       <c r="F75" s="14"/>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="19"/>
-      <c r="B76" s="14"/>
-      <c r="C76" s="18"/>
-      <c r="D76" s="13"/>
-      <c r="E76" s="15"/>
+      <c r="A76" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="B76" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="C76" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="D76" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E76" s="15" t="s">
+        <v>45</v>
+      </c>
       <c r="F76" s="14"/>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="19"/>
-      <c r="B77" s="14"/>
-      <c r="C77" s="18"/>
-      <c r="D77" s="13"/>
-      <c r="E77" s="15"/>
+      <c r="A77" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="B77" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="C77" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="D77" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E77" s="15" t="s">
+        <v>45</v>
+      </c>
       <c r="F77" s="14"/>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="19"/>
-      <c r="B78" s="14"/>
-      <c r="C78" s="18"/>
-      <c r="D78" s="13"/>
-      <c r="E78" s="15"/>
+      <c r="A78" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="B78" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="C78" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="D78" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E78" s="15" t="s">
+        <v>45</v>
+      </c>
       <c r="F78" s="14"/>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="19"/>
-      <c r="B79" s="14"/>
-      <c r="C79" s="18"/>
-      <c r="D79" s="13"/>
-      <c r="E79" s="15"/>
+      <c r="A79" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="B79" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="C79" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="D79" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E79" s="15" t="s">
+        <v>45</v>
+      </c>
       <c r="F79" s="14"/>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="19"/>
-      <c r="B80" s="14"/>
-      <c r="C80" s="18"/>
-      <c r="D80" s="13"/>
-      <c r="E80" s="15"/>
+      <c r="A80" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B80" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="C80" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="D80" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E80" s="15" t="s">
+        <v>45</v>
+      </c>
       <c r="F80" s="14"/>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
